--- a/Code/Results/Cases/Case_3_23/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_23/res_bus/vm_pu.xlsx
@@ -427,10 +427,10 @@
         <v>1.005318721727334</v>
       </c>
       <c r="E2">
-        <v>0.9881334515933036</v>
+        <v>0.9881334515933035</v>
       </c>
       <c r="F2">
-        <v>0.9403584101982049</v>
+        <v>0.9403584101982048</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -445,10 +445,10 @@
         <v>1.016704452313566</v>
       </c>
       <c r="L2">
-        <v>0.9997606198400373</v>
+        <v>0.9997606198400372</v>
       </c>
       <c r="M2">
-        <v>0.9527163091613439</v>
+        <v>0.9527163091613438</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9912047990158718</v>
+        <v>0.991204799015873</v>
       </c>
       <c r="D3">
-        <v>1.010464243499004</v>
+        <v>1.010464243499005</v>
       </c>
       <c r="E3">
-        <v>0.9946498286115073</v>
+        <v>0.9946498286115085</v>
       </c>
       <c r="F3">
-        <v>0.952849904991359</v>
+        <v>0.9528499049913611</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.040171842044821</v>
       </c>
       <c r="J3">
-        <v>1.011938135925108</v>
+        <v>1.011938135925109</v>
       </c>
       <c r="K3">
-        <v>1.020964960568495</v>
+        <v>1.020964960568496</v>
       </c>
       <c r="L3">
-        <v>1.005351626715355</v>
+        <v>1.005351626715356</v>
       </c>
       <c r="M3">
-        <v>0.9641238764310064</v>
+        <v>0.9641238764310084</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.995595863307582</v>
+        <v>0.9955958633075812</v>
       </c>
       <c r="D4">
         <v>1.01368098322495</v>
       </c>
       <c r="E4">
-        <v>0.998718647329697</v>
+        <v>0.9987186473296958</v>
       </c>
       <c r="F4">
-        <v>0.9605943322503894</v>
+        <v>0.960594332250388</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041607824440735</v>
+        <v>1.041607824440734</v>
       </c>
       <c r="J4">
-        <v>1.015112902255271</v>
+        <v>1.01511290225527</v>
       </c>
       <c r="K4">
         <v>1.023617048020912</v>
       </c>
       <c r="L4">
-        <v>1.008832561790016</v>
+        <v>1.008832561790015</v>
       </c>
       <c r="M4">
-        <v>0.9711928256411374</v>
+        <v>0.9711928256411363</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9974070207593541</v>
+        <v>0.9974070207593547</v>
       </c>
       <c r="D5">
         <v>1.015007965315713</v>
       </c>
       <c r="E5">
-        <v>1.000396233811811</v>
+        <v>1.000396233811812</v>
       </c>
       <c r="F5">
-        <v>0.9637759447345235</v>
+        <v>0.963775944734525</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042195927864458</v>
+        <v>1.042195927864459</v>
       </c>
       <c r="J5">
-        <v>1.016420128315169</v>
+        <v>1.01642012831517</v>
       </c>
       <c r="K5">
         <v>1.024708424839738</v>
       </c>
       <c r="L5">
-        <v>1.010265398782557</v>
+        <v>1.010265398782558</v>
       </c>
       <c r="M5">
-        <v>0.9740960067761707</v>
+        <v>0.974096006776172</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9977091441321999</v>
+        <v>0.9977091441321987</v>
       </c>
       <c r="D6">
         <v>1.015229330608858</v>
       </c>
       <c r="E6">
-        <v>1.000676041153168</v>
+        <v>1.000676041153167</v>
       </c>
       <c r="F6">
-        <v>0.9643059864532983</v>
+        <v>0.9643059864532968</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.042293783099571</v>
       </c>
       <c r="J6">
-        <v>1.016638057963005</v>
+        <v>1.016638057963004</v>
       </c>
       <c r="K6">
         <v>1.024890331104011</v>
       </c>
       <c r="L6">
-        <v>1.01050424641664</v>
+        <v>1.010504246416638</v>
       </c>
       <c r="M6">
-        <v>0.9745796060459359</v>
+        <v>0.9745796060459343</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -617,10 +617,10 @@
         <v>1.013698811917654</v>
       </c>
       <c r="E7">
-        <v>0.9987411897858395</v>
+        <v>0.9987411897858397</v>
       </c>
       <c r="F7">
-        <v>0.9606371280495175</v>
+        <v>0.9606371280495184</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -635,10 +635,10 @@
         <v>1.023631721751599</v>
       </c>
       <c r="L7">
-        <v>1.008851824736804</v>
+        <v>1.008851824736805</v>
       </c>
       <c r="M7">
-        <v>0.9712318800619372</v>
+        <v>0.9712318800619379</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.986586597331424</v>
+        <v>0.9865865973314246</v>
       </c>
       <c r="D8">
-        <v>1.00708208208625</v>
+        <v>1.007082082086251</v>
       </c>
       <c r="E8">
-        <v>0.990367826511893</v>
+        <v>0.9903678265118934</v>
       </c>
       <c r="F8">
-        <v>0.9446544819654981</v>
+        <v>0.9446544819654979</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038647043463165</v>
+        <v>1.038647043463166</v>
       </c>
       <c r="J8">
         <v>1.008591180253505</v>
       </c>
       <c r="K8">
-        <v>1.018166969075667</v>
+        <v>1.018166969075668</v>
       </c>
       <c r="L8">
         <v>1.001679872107118</v>
       </c>
       <c r="M8">
-        <v>0.9566402716921747</v>
+        <v>0.9566402716921746</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.969350200652069</v>
+        <v>0.9693502006520696</v>
       </c>
       <c r="D9">
-        <v>0.9944726995144172</v>
+        <v>0.994472699514418</v>
       </c>
       <c r="E9">
-        <v>0.9743547903683172</v>
+        <v>0.9743547903683176</v>
       </c>
       <c r="F9">
-        <v>0.9135301241674646</v>
+        <v>0.913530124167465</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032842744273526</v>
+        <v>1.032842744273527</v>
       </c>
       <c r="J9">
-        <v>0.9960337255408183</v>
+        <v>0.9960337255408188</v>
       </c>
       <c r="K9">
         <v>1.007656094418452</v>
       </c>
       <c r="L9">
-        <v>0.9878781139543962</v>
+        <v>0.9878781139543965</v>
       </c>
       <c r="M9">
-        <v>0.9282013857855602</v>
+        <v>0.9282013857855604</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9567626275301265</v>
+        <v>0.9567626275301278</v>
       </c>
       <c r="D10">
-        <v>0.9852832922176626</v>
+        <v>0.9852832922176635</v>
       </c>
       <c r="E10">
-        <v>0.9626188653305355</v>
+        <v>0.9626188653305371</v>
       </c>
       <c r="F10">
-        <v>0.8901453861444072</v>
+        <v>0.8901453861444089</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028510325147743</v>
+        <v>1.028510325147744</v>
       </c>
       <c r="J10">
-        <v>0.9868033213573738</v>
+        <v>0.9868033213573751</v>
       </c>
       <c r="K10">
-        <v>0.9999234443262787</v>
+        <v>0.9999234443262797</v>
       </c>
       <c r="L10">
-        <v>0.977697521150845</v>
+        <v>0.9776975211508464</v>
       </c>
       <c r="M10">
-        <v>0.9068283893552942</v>
+        <v>0.9068283893552961</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9509913137925441</v>
+        <v>0.9509913137925429</v>
       </c>
       <c r="D11">
-        <v>0.9810766840695407</v>
+        <v>0.9810766840695394</v>
       </c>
       <c r="E11">
-        <v>0.9572225910236981</v>
+        <v>0.9572225910236969</v>
       </c>
       <c r="F11">
-        <v>0.8791976803267006</v>
+        <v>0.8791976803266986</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026502066359393</v>
+        <v>1.026502066359392</v>
       </c>
       <c r="J11">
-        <v>0.9825552531732182</v>
+        <v>0.9825552531732171</v>
       </c>
       <c r="K11">
-        <v>0.9963645129580589</v>
+        <v>0.9963645129580579</v>
       </c>
       <c r="L11">
-        <v>0.9729989764770871</v>
+        <v>0.972998976477086</v>
       </c>
       <c r="M11">
-        <v>0.8968242902276982</v>
+        <v>0.8968242902276964</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9487928176817825</v>
+        <v>0.9487928176817823</v>
       </c>
       <c r="D12">
-        <v>0.9794754413345833</v>
+        <v>0.9794754413345829</v>
       </c>
       <c r="E12">
-        <v>0.9551639886592544</v>
+        <v>0.955163988659254</v>
       </c>
       <c r="F12">
-        <v>0.8749852890273586</v>
+        <v>0.8749852890273582</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.025733784017756</v>
       </c>
       <c r="J12">
-        <v>0.9809343887520537</v>
+        <v>0.9809343887520535</v>
       </c>
       <c r="K12">
-        <v>0.9950067141563594</v>
+        <v>0.995006714156359</v>
       </c>
       <c r="L12">
-        <v>0.9712037184840765</v>
+        <v>0.9712037184840761</v>
       </c>
       <c r="M12">
-        <v>0.8929756120582997</v>
+        <v>0.8929756120582991</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9492670031897679</v>
+        <v>0.9492670031897671</v>
       </c>
       <c r="D13">
-        <v>0.9798207498878853</v>
+        <v>0.9798207498878846</v>
       </c>
       <c r="E13">
-        <v>0.9556081476319691</v>
+        <v>0.9556081476319684</v>
       </c>
       <c r="F13">
-        <v>0.8758958929027048</v>
+        <v>0.8758958929027042</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025899639076747</v>
+        <v>1.025899639076746</v>
       </c>
       <c r="J13">
-        <v>0.9812841098555496</v>
+        <v>0.9812841098555488</v>
       </c>
       <c r="K13">
-        <v>0.9952996674051924</v>
+        <v>0.9952996674051916</v>
       </c>
       <c r="L13">
-        <v>0.9715911904475453</v>
+        <v>0.9715911904475448</v>
       </c>
       <c r="M13">
-        <v>0.8938075554198126</v>
+        <v>0.8938075554198123</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -880,13 +880,13 @@
         <v>0.9508107461513042</v>
       </c>
       <c r="D14">
-        <v>0.9809451447200817</v>
+        <v>0.9809451447200813</v>
       </c>
       <c r="E14">
-        <v>0.9570535777738088</v>
+        <v>0.9570535777738085</v>
       </c>
       <c r="F14">
-        <v>0.8788526114492736</v>
+        <v>0.8788526114492731</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -898,13 +898,13 @@
         <v>0.9824221824754098</v>
       </c>
       <c r="K14">
-        <v>0.9962530361269484</v>
+        <v>0.996253036126948</v>
       </c>
       <c r="L14">
-        <v>0.972851642685686</v>
+        <v>0.9728516426856858</v>
       </c>
       <c r="M14">
-        <v>0.8965090005295107</v>
+        <v>0.8965090005295104</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9517544172010578</v>
+        <v>0.9517544172010587</v>
       </c>
       <c r="D15">
-        <v>0.9816326371970011</v>
+        <v>0.981632637197002</v>
       </c>
       <c r="E15">
-        <v>0.9579367391699907</v>
+        <v>0.9579367391699919</v>
       </c>
       <c r="F15">
-        <v>0.8806542313968574</v>
+        <v>0.8806542313968587</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026768327770821</v>
+        <v>1.026768327770822</v>
       </c>
       <c r="J15">
-        <v>0.9831175200793265</v>
+        <v>0.9831175200793275</v>
       </c>
       <c r="K15">
-        <v>0.9968355447135252</v>
+        <v>0.9968355447135261</v>
       </c>
       <c r="L15">
-        <v>0.9736214042908022</v>
+        <v>0.9736214042908033</v>
       </c>
       <c r="M15">
-        <v>0.8981551702288912</v>
+        <v>0.8981551702288927</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9571383626776818</v>
+        <v>0.9571383626776813</v>
       </c>
       <c r="D16">
-        <v>0.9855573124356346</v>
+        <v>0.9855573124356339</v>
       </c>
       <c r="E16">
-        <v>0.9629698160965474</v>
+        <v>0.9629698160965467</v>
       </c>
       <c r="F16">
-        <v>0.890852849393474</v>
+        <v>0.8908528493934731</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028640622608442</v>
+        <v>1.028640622608441</v>
       </c>
       <c r="J16">
-        <v>0.9870795412509809</v>
+        <v>0.9870795412509804</v>
       </c>
       <c r="K16">
         <v>1.000154863103586</v>
       </c>
       <c r="L16">
-        <v>0.9780027200194013</v>
+        <v>0.9780027200194006</v>
       </c>
       <c r="M16">
-        <v>0.9074749397875126</v>
+        <v>0.9074749397875118</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9604254696968825</v>
+        <v>0.9604254696968828</v>
       </c>
       <c r="D17">
-        <v>0.9879553389162509</v>
+        <v>0.9879553389162511</v>
       </c>
       <c r="E17">
-        <v>0.9660383124006833</v>
+        <v>0.9660383124006838</v>
       </c>
       <c r="F17">
-        <v>0.8970160372955159</v>
+        <v>0.8970160372955164</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029778079845988</v>
+        <v>1.029778079845989</v>
       </c>
       <c r="J17">
-        <v>0.9894942329277109</v>
+        <v>0.9894942329277113</v>
       </c>
       <c r="K17">
         <v>1.002177902787773</v>
       </c>
       <c r="L17">
-        <v>0.9806692222098182</v>
+        <v>0.9806692222098186</v>
       </c>
       <c r="M17">
-        <v>0.9131077072217948</v>
+        <v>0.9131077072217949</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9623123404820106</v>
+        <v>0.9623123404820118</v>
       </c>
       <c r="D18">
-        <v>0.9893324661243836</v>
+        <v>0.9893324661243843</v>
       </c>
       <c r="E18">
-        <v>0.9677983076372861</v>
+        <v>0.9677983076372872</v>
       </c>
       <c r="F18">
-        <v>0.9005333952956973</v>
+        <v>0.9005333952956984</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030428965771602</v>
+        <v>1.030428965771603</v>
       </c>
       <c r="J18">
-        <v>0.9908788456314882</v>
+        <v>0.9908788456314891</v>
       </c>
       <c r="K18">
-        <v>1.003337911220456</v>
+        <v>1.003337911220457</v>
       </c>
       <c r="L18">
-        <v>0.9821970409872381</v>
+        <v>0.982197040987239</v>
       </c>
       <c r="M18">
-        <v>0.916322490080577</v>
+        <v>0.9163224900805782</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9629507280116306</v>
+        <v>0.9629507280116314</v>
       </c>
       <c r="D19">
-        <v>0.9897984889830493</v>
+        <v>0.9897984889830498</v>
       </c>
       <c r="E19">
-        <v>0.9683935498959365</v>
+        <v>0.9683935498959368</v>
       </c>
       <c r="F19">
-        <v>0.9017201627485965</v>
+        <v>0.901720162748597</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030648834143952</v>
+        <v>1.030648834143953</v>
       </c>
       <c r="J19">
-        <v>0.9913470590543966</v>
+        <v>0.991347059054397</v>
       </c>
       <c r="K19">
         <v>1.003730165274809</v>
       </c>
       <c r="L19">
-        <v>0.9827134927119218</v>
+        <v>0.9827134927119222</v>
       </c>
       <c r="M19">
-        <v>0.9174071819984034</v>
+        <v>0.917407181998404</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1108,13 +1108,13 @@
         <v>0.9600759860535811</v>
       </c>
       <c r="D20">
-        <v>0.9877003172737491</v>
+        <v>0.9877003172737492</v>
       </c>
       <c r="E20">
         <v>0.9657122198071588</v>
       </c>
       <c r="F20">
-        <v>0.8963629478118867</v>
+        <v>0.896362947811887</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.029657357971512</v>
       </c>
       <c r="J20">
-        <v>0.9892376586628753</v>
+        <v>0.9892376586628754</v>
       </c>
       <c r="K20">
         <v>1.001962945501357</v>
       </c>
       <c r="L20">
-        <v>0.9803860183859845</v>
+        <v>0.9803860183859844</v>
       </c>
       <c r="M20">
-        <v>0.9125108077061768</v>
+        <v>0.912510807706177</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9503577246472529</v>
+        <v>0.9503577246472533</v>
       </c>
       <c r="D21">
-        <v>0.9806151490388449</v>
+        <v>0.9806151490388452</v>
       </c>
       <c r="E21">
-        <v>0.9566294945034788</v>
+        <v>0.9566294945034793</v>
       </c>
       <c r="F21">
-        <v>0.8779861709607834</v>
+        <v>0.8779861709607839</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026280832739677</v>
+        <v>1.026280832739678</v>
       </c>
       <c r="J21">
-        <v>0.982088281774847</v>
+        <v>0.9820882817748474</v>
       </c>
       <c r="K21">
-        <v>0.9959733212445475</v>
+        <v>0.9959733212445477</v>
       </c>
       <c r="L21">
-        <v>0.9724819106808472</v>
+        <v>0.9724819106808475</v>
       </c>
       <c r="M21">
-        <v>0.8957173448262541</v>
+        <v>0.8957173448262548</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9439261054410597</v>
+        <v>0.9439261054410593</v>
       </c>
       <c r="D22">
-        <v>0.9759333042037502</v>
+        <v>0.9759333042037498</v>
       </c>
       <c r="E22">
-        <v>0.9506005304412907</v>
+        <v>0.95060053044129</v>
       </c>
       <c r="F22">
-        <v>0.8655715361241031</v>
+        <v>0.8655715361241026</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.024027034990463</v>
       </c>
       <c r="J22">
-        <v>0.9773411667127525</v>
+        <v>0.9773411667127521</v>
       </c>
       <c r="K22">
-        <v>0.9919970936187847</v>
+        <v>0.9919970936187844</v>
       </c>
       <c r="L22">
-        <v>0.967218506128349</v>
+        <v>0.9672185061283486</v>
       </c>
       <c r="M22">
-        <v>0.8843763709212923</v>
+        <v>0.8843763709212917</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9473687063635201</v>
+        <v>0.9473687063635211</v>
       </c>
       <c r="D23">
-        <v>0.9784385760527852</v>
+        <v>0.9784385760527857</v>
       </c>
       <c r="E23">
-        <v>0.9538295572086121</v>
+        <v>0.9538295572086128</v>
       </c>
       <c r="F23">
-        <v>0.8722435706274211</v>
+        <v>0.8722435706274219</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.0252351968029</v>
+        <v>1.025235196802901</v>
       </c>
       <c r="J23">
-        <v>0.9798836716438831</v>
+        <v>0.979883671643884</v>
       </c>
       <c r="K23">
-        <v>0.9941265841725485</v>
+        <v>0.9941265841725492</v>
       </c>
       <c r="L23">
-        <v>0.9700391630104936</v>
+        <v>0.9700391630104944</v>
       </c>
       <c r="M23">
-        <v>0.8904708588726263</v>
+        <v>0.8904708588726272</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9602339962659456</v>
+        <v>0.9602339962659459</v>
       </c>
       <c r="D24">
-        <v>0.9878156169989346</v>
+        <v>0.9878156169989349</v>
       </c>
       <c r="E24">
         <v>0.9658596586196573</v>
       </c>
       <c r="F24">
-        <v>0.8966582887835138</v>
+        <v>0.8966582887835143</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029711945667262</v>
+        <v>1.029711945667263</v>
       </c>
       <c r="J24">
-        <v>0.9893536668100048</v>
+        <v>0.9893536668100053</v>
       </c>
       <c r="K24">
-        <v>1.002060136933728</v>
+        <v>1.002060136933729</v>
       </c>
       <c r="L24">
-        <v>0.9805140705410594</v>
+        <v>0.9805140705410595</v>
       </c>
       <c r="M24">
-        <v>0.9127807379726777</v>
+        <v>0.9127807379726781</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.973981928898181</v>
+        <v>0.9739819288981825</v>
       </c>
       <c r="D25">
-        <v>0.9978584780857934</v>
+        <v>0.9978584780857948</v>
       </c>
       <c r="E25">
-        <v>0.9786634035506717</v>
+        <v>0.9786634035506734</v>
       </c>
       <c r="F25">
-        <v>0.9219857267834431</v>
+        <v>0.9219857267834451</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034418383539935</v>
+        <v>1.034418383539936</v>
       </c>
       <c r="J25">
-        <v>0.9994177907517393</v>
+        <v>0.999417790751741</v>
       </c>
       <c r="K25">
-        <v>1.010490129638846</v>
+        <v>1.010490129638847</v>
       </c>
       <c r="L25">
-        <v>0.9916022265479311</v>
+        <v>0.9916022265479327</v>
       </c>
       <c r="M25">
-        <v>0.9359292387350923</v>
+        <v>0.9359292387350943</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_23/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_23/res_bus/vm_pu.xlsx
@@ -427,10 +427,10 @@
         <v>1.005318721727334</v>
       </c>
       <c r="E2">
-        <v>0.9881334515933035</v>
+        <v>0.9881334515933036</v>
       </c>
       <c r="F2">
-        <v>0.9403584101982048</v>
+        <v>0.9403584101982049</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -445,10 +445,10 @@
         <v>1.016704452313566</v>
       </c>
       <c r="L2">
-        <v>0.9997606198400372</v>
+        <v>0.9997606198400373</v>
       </c>
       <c r="M2">
-        <v>0.9527163091613438</v>
+        <v>0.9527163091613439</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.991204799015873</v>
+        <v>0.9912047990158718</v>
       </c>
       <c r="D3">
-        <v>1.010464243499005</v>
+        <v>1.010464243499004</v>
       </c>
       <c r="E3">
-        <v>0.9946498286115085</v>
+        <v>0.9946498286115073</v>
       </c>
       <c r="F3">
-        <v>0.9528499049913611</v>
+        <v>0.952849904991359</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.040171842044821</v>
       </c>
       <c r="J3">
-        <v>1.011938135925109</v>
+        <v>1.011938135925108</v>
       </c>
       <c r="K3">
-        <v>1.020964960568496</v>
+        <v>1.020964960568495</v>
       </c>
       <c r="L3">
-        <v>1.005351626715356</v>
+        <v>1.005351626715355</v>
       </c>
       <c r="M3">
-        <v>0.9641238764310084</v>
+        <v>0.9641238764310064</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9955958633075812</v>
+        <v>0.995595863307582</v>
       </c>
       <c r="D4">
         <v>1.01368098322495</v>
       </c>
       <c r="E4">
-        <v>0.9987186473296958</v>
+        <v>0.998718647329697</v>
       </c>
       <c r="F4">
-        <v>0.960594332250388</v>
+        <v>0.9605943322503894</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041607824440734</v>
+        <v>1.041607824440735</v>
       </c>
       <c r="J4">
-        <v>1.01511290225527</v>
+        <v>1.015112902255271</v>
       </c>
       <c r="K4">
         <v>1.023617048020912</v>
       </c>
       <c r="L4">
-        <v>1.008832561790015</v>
+        <v>1.008832561790016</v>
       </c>
       <c r="M4">
-        <v>0.9711928256411363</v>
+        <v>0.9711928256411374</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9974070207593547</v>
+        <v>0.9974070207593541</v>
       </c>
       <c r="D5">
         <v>1.015007965315713</v>
       </c>
       <c r="E5">
-        <v>1.000396233811812</v>
+        <v>1.000396233811811</v>
       </c>
       <c r="F5">
-        <v>0.963775944734525</v>
+        <v>0.9637759447345235</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042195927864459</v>
+        <v>1.042195927864458</v>
       </c>
       <c r="J5">
-        <v>1.01642012831517</v>
+        <v>1.016420128315169</v>
       </c>
       <c r="K5">
         <v>1.024708424839738</v>
       </c>
       <c r="L5">
-        <v>1.010265398782558</v>
+        <v>1.010265398782557</v>
       </c>
       <c r="M5">
-        <v>0.974096006776172</v>
+        <v>0.9740960067761707</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9977091441321987</v>
+        <v>0.9977091441321999</v>
       </c>
       <c r="D6">
         <v>1.015229330608858</v>
       </c>
       <c r="E6">
-        <v>1.000676041153167</v>
+        <v>1.000676041153168</v>
       </c>
       <c r="F6">
-        <v>0.9643059864532968</v>
+        <v>0.9643059864532983</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.042293783099571</v>
       </c>
       <c r="J6">
-        <v>1.016638057963004</v>
+        <v>1.016638057963005</v>
       </c>
       <c r="K6">
         <v>1.024890331104011</v>
       </c>
       <c r="L6">
-        <v>1.010504246416638</v>
+        <v>1.01050424641664</v>
       </c>
       <c r="M6">
-        <v>0.9745796060459343</v>
+        <v>0.9745796060459359</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -617,10 +617,10 @@
         <v>1.013698811917654</v>
       </c>
       <c r="E7">
-        <v>0.9987411897858397</v>
+        <v>0.9987411897858395</v>
       </c>
       <c r="F7">
-        <v>0.9606371280495184</v>
+        <v>0.9606371280495175</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -635,10 +635,10 @@
         <v>1.023631721751599</v>
       </c>
       <c r="L7">
-        <v>1.008851824736805</v>
+        <v>1.008851824736804</v>
       </c>
       <c r="M7">
-        <v>0.9712318800619379</v>
+        <v>0.9712318800619372</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9865865973314246</v>
+        <v>0.986586597331424</v>
       </c>
       <c r="D8">
-        <v>1.007082082086251</v>
+        <v>1.00708208208625</v>
       </c>
       <c r="E8">
-        <v>0.9903678265118934</v>
+        <v>0.990367826511893</v>
       </c>
       <c r="F8">
-        <v>0.9446544819654979</v>
+        <v>0.9446544819654981</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038647043463166</v>
+        <v>1.038647043463165</v>
       </c>
       <c r="J8">
         <v>1.008591180253505</v>
       </c>
       <c r="K8">
-        <v>1.018166969075668</v>
+        <v>1.018166969075667</v>
       </c>
       <c r="L8">
         <v>1.001679872107118</v>
       </c>
       <c r="M8">
-        <v>0.9566402716921746</v>
+        <v>0.9566402716921747</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9693502006520696</v>
+        <v>0.969350200652069</v>
       </c>
       <c r="D9">
-        <v>0.994472699514418</v>
+        <v>0.9944726995144172</v>
       </c>
       <c r="E9">
-        <v>0.9743547903683176</v>
+        <v>0.9743547903683172</v>
       </c>
       <c r="F9">
-        <v>0.913530124167465</v>
+        <v>0.9135301241674646</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032842744273527</v>
+        <v>1.032842744273526</v>
       </c>
       <c r="J9">
-        <v>0.9960337255408188</v>
+        <v>0.9960337255408183</v>
       </c>
       <c r="K9">
         <v>1.007656094418452</v>
       </c>
       <c r="L9">
-        <v>0.9878781139543965</v>
+        <v>0.9878781139543962</v>
       </c>
       <c r="M9">
-        <v>0.9282013857855604</v>
+        <v>0.9282013857855602</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9567626275301278</v>
+        <v>0.9567626275301265</v>
       </c>
       <c r="D10">
-        <v>0.9852832922176635</v>
+        <v>0.9852832922176626</v>
       </c>
       <c r="E10">
-        <v>0.9626188653305371</v>
+        <v>0.9626188653305355</v>
       </c>
       <c r="F10">
-        <v>0.8901453861444089</v>
+        <v>0.8901453861444072</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028510325147744</v>
+        <v>1.028510325147743</v>
       </c>
       <c r="J10">
-        <v>0.9868033213573751</v>
+        <v>0.9868033213573738</v>
       </c>
       <c r="K10">
-        <v>0.9999234443262797</v>
+        <v>0.9999234443262787</v>
       </c>
       <c r="L10">
-        <v>0.9776975211508464</v>
+        <v>0.977697521150845</v>
       </c>
       <c r="M10">
-        <v>0.9068283893552961</v>
+        <v>0.9068283893552942</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9509913137925429</v>
+        <v>0.9509913137925441</v>
       </c>
       <c r="D11">
-        <v>0.9810766840695394</v>
+        <v>0.9810766840695407</v>
       </c>
       <c r="E11">
-        <v>0.9572225910236969</v>
+        <v>0.9572225910236981</v>
       </c>
       <c r="F11">
-        <v>0.8791976803266986</v>
+        <v>0.8791976803267006</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026502066359392</v>
+        <v>1.026502066359393</v>
       </c>
       <c r="J11">
-        <v>0.9825552531732171</v>
+        <v>0.9825552531732182</v>
       </c>
       <c r="K11">
-        <v>0.9963645129580579</v>
+        <v>0.9963645129580589</v>
       </c>
       <c r="L11">
-        <v>0.972998976477086</v>
+        <v>0.9729989764770871</v>
       </c>
       <c r="M11">
-        <v>0.8968242902276964</v>
+        <v>0.8968242902276982</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9487928176817823</v>
+        <v>0.9487928176817825</v>
       </c>
       <c r="D12">
-        <v>0.9794754413345829</v>
+        <v>0.9794754413345833</v>
       </c>
       <c r="E12">
-        <v>0.955163988659254</v>
+        <v>0.9551639886592544</v>
       </c>
       <c r="F12">
-        <v>0.8749852890273582</v>
+        <v>0.8749852890273586</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.025733784017756</v>
       </c>
       <c r="J12">
-        <v>0.9809343887520535</v>
+        <v>0.9809343887520537</v>
       </c>
       <c r="K12">
-        <v>0.995006714156359</v>
+        <v>0.9950067141563594</v>
       </c>
       <c r="L12">
-        <v>0.9712037184840761</v>
+        <v>0.9712037184840765</v>
       </c>
       <c r="M12">
-        <v>0.8929756120582991</v>
+        <v>0.8929756120582997</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9492670031897671</v>
+        <v>0.9492670031897679</v>
       </c>
       <c r="D13">
-        <v>0.9798207498878846</v>
+        <v>0.9798207498878853</v>
       </c>
       <c r="E13">
-        <v>0.9556081476319684</v>
+        <v>0.9556081476319691</v>
       </c>
       <c r="F13">
-        <v>0.8758958929027042</v>
+        <v>0.8758958929027048</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025899639076746</v>
+        <v>1.025899639076747</v>
       </c>
       <c r="J13">
-        <v>0.9812841098555488</v>
+        <v>0.9812841098555496</v>
       </c>
       <c r="K13">
-        <v>0.9952996674051916</v>
+        <v>0.9952996674051924</v>
       </c>
       <c r="L13">
-        <v>0.9715911904475448</v>
+        <v>0.9715911904475453</v>
       </c>
       <c r="M13">
-        <v>0.8938075554198123</v>
+        <v>0.8938075554198126</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -880,13 +880,13 @@
         <v>0.9508107461513042</v>
       </c>
       <c r="D14">
-        <v>0.9809451447200813</v>
+        <v>0.9809451447200817</v>
       </c>
       <c r="E14">
-        <v>0.9570535777738085</v>
+        <v>0.9570535777738088</v>
       </c>
       <c r="F14">
-        <v>0.8788526114492731</v>
+        <v>0.8788526114492736</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -898,13 +898,13 @@
         <v>0.9824221824754098</v>
       </c>
       <c r="K14">
-        <v>0.996253036126948</v>
+        <v>0.9962530361269484</v>
       </c>
       <c r="L14">
-        <v>0.9728516426856858</v>
+        <v>0.972851642685686</v>
       </c>
       <c r="M14">
-        <v>0.8965090005295104</v>
+        <v>0.8965090005295107</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9517544172010587</v>
+        <v>0.9517544172010578</v>
       </c>
       <c r="D15">
-        <v>0.981632637197002</v>
+        <v>0.9816326371970011</v>
       </c>
       <c r="E15">
-        <v>0.9579367391699919</v>
+        <v>0.9579367391699907</v>
       </c>
       <c r="F15">
-        <v>0.8806542313968587</v>
+        <v>0.8806542313968574</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026768327770822</v>
+        <v>1.026768327770821</v>
       </c>
       <c r="J15">
-        <v>0.9831175200793275</v>
+        <v>0.9831175200793265</v>
       </c>
       <c r="K15">
-        <v>0.9968355447135261</v>
+        <v>0.9968355447135252</v>
       </c>
       <c r="L15">
-        <v>0.9736214042908033</v>
+        <v>0.9736214042908022</v>
       </c>
       <c r="M15">
-        <v>0.8981551702288927</v>
+        <v>0.8981551702288912</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9571383626776813</v>
+        <v>0.9571383626776818</v>
       </c>
       <c r="D16">
-        <v>0.9855573124356339</v>
+        <v>0.9855573124356346</v>
       </c>
       <c r="E16">
-        <v>0.9629698160965467</v>
+        <v>0.9629698160965474</v>
       </c>
       <c r="F16">
-        <v>0.8908528493934731</v>
+        <v>0.890852849393474</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028640622608441</v>
+        <v>1.028640622608442</v>
       </c>
       <c r="J16">
-        <v>0.9870795412509804</v>
+        <v>0.9870795412509809</v>
       </c>
       <c r="K16">
         <v>1.000154863103586</v>
       </c>
       <c r="L16">
-        <v>0.9780027200194006</v>
+        <v>0.9780027200194013</v>
       </c>
       <c r="M16">
-        <v>0.9074749397875118</v>
+        <v>0.9074749397875126</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9604254696968828</v>
+        <v>0.9604254696968825</v>
       </c>
       <c r="D17">
-        <v>0.9879553389162511</v>
+        <v>0.9879553389162509</v>
       </c>
       <c r="E17">
-        <v>0.9660383124006838</v>
+        <v>0.9660383124006833</v>
       </c>
       <c r="F17">
-        <v>0.8970160372955164</v>
+        <v>0.8970160372955159</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029778079845989</v>
+        <v>1.029778079845988</v>
       </c>
       <c r="J17">
-        <v>0.9894942329277113</v>
+        <v>0.9894942329277109</v>
       </c>
       <c r="K17">
         <v>1.002177902787773</v>
       </c>
       <c r="L17">
-        <v>0.9806692222098186</v>
+        <v>0.9806692222098182</v>
       </c>
       <c r="M17">
-        <v>0.9131077072217949</v>
+        <v>0.9131077072217948</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9623123404820118</v>
+        <v>0.9623123404820106</v>
       </c>
       <c r="D18">
-        <v>0.9893324661243843</v>
+        <v>0.9893324661243836</v>
       </c>
       <c r="E18">
-        <v>0.9677983076372872</v>
+        <v>0.9677983076372861</v>
       </c>
       <c r="F18">
-        <v>0.9005333952956984</v>
+        <v>0.9005333952956973</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030428965771603</v>
+        <v>1.030428965771602</v>
       </c>
       <c r="J18">
-        <v>0.9908788456314891</v>
+        <v>0.9908788456314882</v>
       </c>
       <c r="K18">
-        <v>1.003337911220457</v>
+        <v>1.003337911220456</v>
       </c>
       <c r="L18">
-        <v>0.982197040987239</v>
+        <v>0.9821970409872381</v>
       </c>
       <c r="M18">
-        <v>0.9163224900805782</v>
+        <v>0.916322490080577</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9629507280116314</v>
+        <v>0.9629507280116306</v>
       </c>
       <c r="D19">
-        <v>0.9897984889830498</v>
+        <v>0.9897984889830493</v>
       </c>
       <c r="E19">
-        <v>0.9683935498959368</v>
+        <v>0.9683935498959365</v>
       </c>
       <c r="F19">
-        <v>0.901720162748597</v>
+        <v>0.9017201627485965</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030648834143953</v>
+        <v>1.030648834143952</v>
       </c>
       <c r="J19">
-        <v>0.991347059054397</v>
+        <v>0.9913470590543966</v>
       </c>
       <c r="K19">
         <v>1.003730165274809</v>
       </c>
       <c r="L19">
-        <v>0.9827134927119222</v>
+        <v>0.9827134927119218</v>
       </c>
       <c r="M19">
-        <v>0.917407181998404</v>
+        <v>0.9174071819984034</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1108,13 +1108,13 @@
         <v>0.9600759860535811</v>
       </c>
       <c r="D20">
-        <v>0.9877003172737492</v>
+        <v>0.9877003172737491</v>
       </c>
       <c r="E20">
         <v>0.9657122198071588</v>
       </c>
       <c r="F20">
-        <v>0.896362947811887</v>
+        <v>0.8963629478118867</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.029657357971512</v>
       </c>
       <c r="J20">
-        <v>0.9892376586628754</v>
+        <v>0.9892376586628753</v>
       </c>
       <c r="K20">
         <v>1.001962945501357</v>
       </c>
       <c r="L20">
-        <v>0.9803860183859844</v>
+        <v>0.9803860183859845</v>
       </c>
       <c r="M20">
-        <v>0.912510807706177</v>
+        <v>0.9125108077061768</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9503577246472533</v>
+        <v>0.9503577246472529</v>
       </c>
       <c r="D21">
-        <v>0.9806151490388452</v>
+        <v>0.9806151490388449</v>
       </c>
       <c r="E21">
-        <v>0.9566294945034793</v>
+        <v>0.9566294945034788</v>
       </c>
       <c r="F21">
-        <v>0.8779861709607839</v>
+        <v>0.8779861709607834</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026280832739678</v>
+        <v>1.026280832739677</v>
       </c>
       <c r="J21">
-        <v>0.9820882817748474</v>
+        <v>0.982088281774847</v>
       </c>
       <c r="K21">
-        <v>0.9959733212445477</v>
+        <v>0.9959733212445475</v>
       </c>
       <c r="L21">
-        <v>0.9724819106808475</v>
+        <v>0.9724819106808472</v>
       </c>
       <c r="M21">
-        <v>0.8957173448262548</v>
+        <v>0.8957173448262541</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9439261054410593</v>
+        <v>0.9439261054410597</v>
       </c>
       <c r="D22">
-        <v>0.9759333042037498</v>
+        <v>0.9759333042037502</v>
       </c>
       <c r="E22">
-        <v>0.95060053044129</v>
+        <v>0.9506005304412907</v>
       </c>
       <c r="F22">
-        <v>0.8655715361241026</v>
+        <v>0.8655715361241031</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.024027034990463</v>
       </c>
       <c r="J22">
-        <v>0.9773411667127521</v>
+        <v>0.9773411667127525</v>
       </c>
       <c r="K22">
-        <v>0.9919970936187844</v>
+        <v>0.9919970936187847</v>
       </c>
       <c r="L22">
-        <v>0.9672185061283486</v>
+        <v>0.967218506128349</v>
       </c>
       <c r="M22">
-        <v>0.8843763709212917</v>
+        <v>0.8843763709212923</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9473687063635211</v>
+        <v>0.9473687063635201</v>
       </c>
       <c r="D23">
-        <v>0.9784385760527857</v>
+        <v>0.9784385760527852</v>
       </c>
       <c r="E23">
-        <v>0.9538295572086128</v>
+        <v>0.9538295572086121</v>
       </c>
       <c r="F23">
-        <v>0.8722435706274219</v>
+        <v>0.8722435706274211</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025235196802901</v>
+        <v>1.0252351968029</v>
       </c>
       <c r="J23">
-        <v>0.979883671643884</v>
+        <v>0.9798836716438831</v>
       </c>
       <c r="K23">
-        <v>0.9941265841725492</v>
+        <v>0.9941265841725485</v>
       </c>
       <c r="L23">
-        <v>0.9700391630104944</v>
+        <v>0.9700391630104936</v>
       </c>
       <c r="M23">
-        <v>0.8904708588726272</v>
+        <v>0.8904708588726263</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9602339962659459</v>
+        <v>0.9602339962659456</v>
       </c>
       <c r="D24">
-        <v>0.9878156169989349</v>
+        <v>0.9878156169989346</v>
       </c>
       <c r="E24">
         <v>0.9658596586196573</v>
       </c>
       <c r="F24">
-        <v>0.8966582887835143</v>
+        <v>0.8966582887835138</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029711945667263</v>
+        <v>1.029711945667262</v>
       </c>
       <c r="J24">
-        <v>0.9893536668100053</v>
+        <v>0.9893536668100048</v>
       </c>
       <c r="K24">
-        <v>1.002060136933729</v>
+        <v>1.002060136933728</v>
       </c>
       <c r="L24">
-        <v>0.9805140705410595</v>
+        <v>0.9805140705410594</v>
       </c>
       <c r="M24">
-        <v>0.9127807379726781</v>
+        <v>0.9127807379726777</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9739819288981825</v>
+        <v>0.973981928898181</v>
       </c>
       <c r="D25">
-        <v>0.9978584780857948</v>
+        <v>0.9978584780857934</v>
       </c>
       <c r="E25">
-        <v>0.9786634035506734</v>
+        <v>0.9786634035506717</v>
       </c>
       <c r="F25">
-        <v>0.9219857267834451</v>
+        <v>0.9219857267834431</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034418383539936</v>
+        <v>1.034418383539935</v>
       </c>
       <c r="J25">
-        <v>0.999417790751741</v>
+        <v>0.9994177907517393</v>
       </c>
       <c r="K25">
-        <v>1.010490129638847</v>
+        <v>1.010490129638846</v>
       </c>
       <c r="L25">
-        <v>0.9916022265479327</v>
+        <v>0.9916022265479311</v>
       </c>
       <c r="M25">
-        <v>0.9359292387350943</v>
+        <v>0.9359292387350923</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_23/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_23/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9841781193406056</v>
+        <v>0.9841870994284362</v>
       </c>
       <c r="D2">
-        <v>1.005318721727334</v>
+        <v>1.005325878722117</v>
       </c>
       <c r="E2">
-        <v>0.9881334515933036</v>
+        <v>0.9881419197000352</v>
       </c>
       <c r="F2">
-        <v>0.9403584101982049</v>
+        <v>0.9403678839581012</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037846306992016</v>
+        <v>1.037850336145624</v>
       </c>
       <c r="J2">
-        <v>1.006842582803231</v>
+        <v>1.006851282226951</v>
       </c>
       <c r="K2">
-        <v>1.016704452313566</v>
+        <v>1.016711510925951</v>
       </c>
       <c r="L2">
-        <v>0.9997606198400373</v>
+        <v>0.9997689663590448</v>
       </c>
       <c r="M2">
-        <v>0.9527163091613439</v>
+        <v>0.9527256285632453</v>
+      </c>
+      <c r="N2">
+        <v>1.006667342514931</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9912047990158718</v>
+        <v>0.9912104196818052</v>
       </c>
       <c r="D3">
-        <v>1.010464243499004</v>
+        <v>1.010468796255593</v>
       </c>
       <c r="E3">
-        <v>0.9946498286115073</v>
+        <v>0.9946552781847496</v>
       </c>
       <c r="F3">
-        <v>0.952849904991359</v>
+        <v>0.952855922137423</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040171842044821</v>
+        <v>1.040174404315911</v>
       </c>
       <c r="J3">
-        <v>1.011938135925108</v>
+        <v>1.01194359963108</v>
       </c>
       <c r="K3">
-        <v>1.020964960568495</v>
+        <v>1.020969456566031</v>
       </c>
       <c r="L3">
-        <v>1.005351626715355</v>
+        <v>1.00535700561879</v>
       </c>
       <c r="M3">
-        <v>0.9641238764310064</v>
+        <v>0.9641298066356927</v>
+      </c>
+      <c r="N3">
+        <v>1.010160597687664</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.995595863307582</v>
+        <v>0.9955994258768497</v>
       </c>
       <c r="D4">
-        <v>1.01368098322495</v>
+        <v>1.013683936366059</v>
       </c>
       <c r="E4">
-        <v>0.998718647329697</v>
+        <v>0.9987222496072427</v>
       </c>
       <c r="F4">
-        <v>0.9605943322503894</v>
+        <v>0.9605982791474068</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041607824440735</v>
+        <v>1.041609483844741</v>
       </c>
       <c r="J4">
-        <v>1.015112902255271</v>
+        <v>1.015116372598994</v>
       </c>
       <c r="K4">
-        <v>1.023617048020912</v>
+        <v>1.023619966700607</v>
       </c>
       <c r="L4">
-        <v>1.008832561790016</v>
+        <v>1.008836120452782</v>
       </c>
       <c r="M4">
-        <v>0.9711928256411374</v>
+        <v>0.9711967198722375</v>
+      </c>
+      <c r="N4">
+        <v>1.012336190330982</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9974070207593541</v>
+        <v>0.9974097430601432</v>
       </c>
       <c r="D5">
-        <v>1.015007965315713</v>
+        <v>1.015010264491116</v>
       </c>
       <c r="E5">
-        <v>1.000396233811811</v>
+        <v>1.000399082303324</v>
       </c>
       <c r="F5">
-        <v>0.9637759447345235</v>
+        <v>0.9637790561511923</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042195927864458</v>
+        <v>1.042197217724536</v>
       </c>
       <c r="J5">
-        <v>1.016420128315169</v>
+        <v>1.016422782405318</v>
       </c>
       <c r="K5">
-        <v>1.024708424839738</v>
+        <v>1.024710697940409</v>
       </c>
       <c r="L5">
-        <v>1.010265398782557</v>
+        <v>1.010268213791338</v>
       </c>
       <c r="M5">
-        <v>0.9740960067761707</v>
+        <v>0.9740990780627938</v>
+      </c>
+      <c r="N5">
+        <v>1.01323177517497</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9977091441321999</v>
+        <v>0.9977117267392988</v>
       </c>
       <c r="D6">
-        <v>1.015229330608858</v>
+        <v>1.015231521014368</v>
       </c>
       <c r="E6">
-        <v>1.000676041153168</v>
+        <v>1.00067876435198</v>
       </c>
       <c r="F6">
-        <v>0.9643059864532983</v>
+        <v>0.9643089595045188</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042293783099571</v>
+        <v>1.042295011471107</v>
       </c>
       <c r="J6">
-        <v>1.016638057963005</v>
+        <v>1.016640576216308</v>
       </c>
       <c r="K6">
-        <v>1.024890331104011</v>
+        <v>1.02489249678831</v>
       </c>
       <c r="L6">
-        <v>1.01050424641664</v>
+        <v>1.010506937765549</v>
       </c>
       <c r="M6">
-        <v>0.9745796060459359</v>
+        <v>0.9745825409712354</v>
+      </c>
+      <c r="N6">
+        <v>1.013381065661774</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9956201980003434</v>
+        <v>0.9956237492471716</v>
       </c>
       <c r="D7">
-        <v>1.013698811917654</v>
+        <v>1.013701756250081</v>
       </c>
       <c r="E7">
-        <v>0.9987411897858395</v>
+        <v>0.998744781904675</v>
       </c>
       <c r="F7">
-        <v>0.9606371280495175</v>
+        <v>0.9606410636517845</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04161574284261</v>
+        <v>1.04161739727067</v>
       </c>
       <c r="J7">
-        <v>1.015130475018932</v>
+        <v>1.015133934373112</v>
       </c>
       <c r="K7">
-        <v>1.023631721751599</v>
+        <v>1.023634631738404</v>
       </c>
       <c r="L7">
-        <v>1.008851824736804</v>
+        <v>1.008855373380922</v>
       </c>
       <c r="M7">
-        <v>0.9712318800619372</v>
+        <v>0.9712357631727294</v>
+      </c>
+      <c r="N7">
+        <v>1.012348230409504</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.986586597331424</v>
+        <v>0.9865944163548511</v>
       </c>
       <c r="D8">
-        <v>1.00708208208625</v>
+        <v>1.00708833999158</v>
       </c>
       <c r="E8">
-        <v>0.990367826511893</v>
+        <v>0.9903752509098988</v>
       </c>
       <c r="F8">
-        <v>0.9446544819654981</v>
+        <v>0.9446627497789394</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038647043463165</v>
+        <v>1.038650566598002</v>
       </c>
       <c r="J8">
-        <v>1.008591180253505</v>
+        <v>1.008598763893433</v>
       </c>
       <c r="K8">
-        <v>1.018166969075667</v>
+        <v>1.018173143704551</v>
       </c>
       <c r="L8">
-        <v>1.001679872107118</v>
+        <v>1.001687193455512</v>
       </c>
       <c r="M8">
-        <v>0.9566402716921747</v>
+        <v>0.9566484101130474</v>
+      </c>
+      <c r="N8">
+        <v>1.0078662653882</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.969350200652069</v>
+        <v>0.9693665754470235</v>
       </c>
       <c r="D9">
-        <v>0.9944726995144172</v>
+        <v>0.9944855577212587</v>
       </c>
       <c r="E9">
-        <v>0.9743547903683172</v>
+        <v>0.9743699184356515</v>
       </c>
       <c r="F9">
-        <v>0.9135301241674646</v>
+        <v>0.9135475884049111</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032842744273526</v>
+        <v>1.032849972875201</v>
       </c>
       <c r="J9">
-        <v>0.9960337255408183</v>
+        <v>0.9960494692295504</v>
       </c>
       <c r="K9">
-        <v>1.007656094418452</v>
+        <v>1.007668741019868</v>
       </c>
       <c r="L9">
-        <v>0.9878781139543962</v>
+        <v>0.9878929795808219</v>
       </c>
       <c r="M9">
-        <v>0.9282013857855602</v>
+        <v>0.9282184914701302</v>
+      </c>
+      <c r="N9">
+        <v>0.9992533237886999</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9567626275301265</v>
+        <v>0.9567856689711266</v>
       </c>
       <c r="D10">
-        <v>0.9852832922176626</v>
+        <v>0.9853012520075514</v>
       </c>
       <c r="E10">
-        <v>0.9626188653305355</v>
+        <v>0.9626400206338787</v>
       </c>
       <c r="F10">
-        <v>0.8901453861444072</v>
+        <v>0.8901705841104488</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028510325147743</v>
+        <v>1.028520404525304</v>
       </c>
       <c r="J10">
-        <v>0.9868033213573738</v>
+        <v>0.9868253259743266</v>
       </c>
       <c r="K10">
-        <v>0.9999234443262787</v>
+        <v>0.9999410670811766</v>
       </c>
       <c r="L10">
-        <v>0.977697521150845</v>
+        <v>0.9777182544871161</v>
       </c>
       <c r="M10">
-        <v>0.9068283893552942</v>
+        <v>0.9068529683369972</v>
+      </c>
+      <c r="N10">
+        <v>0.9929196975048753</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9509913137925441</v>
+        <v>0.9510175542950693</v>
       </c>
       <c r="D11">
-        <v>0.9810766840695407</v>
+        <v>0.9810970787635001</v>
       </c>
       <c r="E11">
-        <v>0.9572225910236981</v>
+        <v>0.9572466485193686</v>
       </c>
       <c r="F11">
-        <v>0.8791976803267006</v>
+        <v>0.8792267984642986</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026502066359393</v>
+        <v>1.026513502786355</v>
       </c>
       <c r="J11">
-        <v>0.9825552531732182</v>
+        <v>0.9825802331112364</v>
       </c>
       <c r="K11">
-        <v>0.9963645129580589</v>
+        <v>0.9963845033026305</v>
       </c>
       <c r="L11">
-        <v>0.9729989764770871</v>
+        <v>0.9730225250097686</v>
       </c>
       <c r="M11">
-        <v>0.8968242902276982</v>
+        <v>0.8968526345841894</v>
+      </c>
+      <c r="N11">
+        <v>0.990004613127197</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9487928176817825</v>
+        <v>0.9488203032342266</v>
       </c>
       <c r="D12">
-        <v>0.9794754413345833</v>
+        <v>0.9794967813666851</v>
       </c>
       <c r="E12">
-        <v>0.9551639886592544</v>
+        <v>0.9551891777312163</v>
       </c>
       <c r="F12">
-        <v>0.8749852890273586</v>
+        <v>0.8750159734389198</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025733784017756</v>
+        <v>1.025745746736224</v>
       </c>
       <c r="J12">
-        <v>0.9809343887520537</v>
+        <v>0.9809605217372132</v>
       </c>
       <c r="K12">
-        <v>0.9950067141563594</v>
+        <v>0.9950276224771843</v>
       </c>
       <c r="L12">
-        <v>0.9712037184840765</v>
+        <v>0.9712283629653998</v>
       </c>
       <c r="M12">
-        <v>0.8929756120582997</v>
+        <v>0.8930054566788891</v>
+      </c>
+      <c r="N12">
+        <v>0.9888923713922118</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9492670031897679</v>
+        <v>0.9492942189143091</v>
       </c>
       <c r="D13">
-        <v>0.9798207498878853</v>
+        <v>0.9798418851553325</v>
       </c>
       <c r="E13">
-        <v>0.9556081476319691</v>
+        <v>0.9556330913634085</v>
       </c>
       <c r="F13">
-        <v>0.8758958929027048</v>
+        <v>0.8759262358653982</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025899639076747</v>
+        <v>1.025911487824508</v>
       </c>
       <c r="J13">
-        <v>0.9812841098555496</v>
+        <v>0.9813099931825415</v>
       </c>
       <c r="K13">
-        <v>0.9952996674051924</v>
+        <v>0.9953203769450392</v>
       </c>
       <c r="L13">
-        <v>0.9715911904475453</v>
+        <v>0.9716155973926038</v>
       </c>
       <c r="M13">
-        <v>0.8938075554198126</v>
+        <v>0.8938370731817395</v>
+      </c>
+      <c r="N13">
+        <v>0.9891323493284301</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9508107461513042</v>
+        <v>0.9508370883441115</v>
       </c>
       <c r="D14">
-        <v>0.9809451447200817</v>
+        <v>0.9809656166735924</v>
       </c>
       <c r="E14">
-        <v>0.9570535777738088</v>
+        <v>0.9570777276460903</v>
       </c>
       <c r="F14">
-        <v>0.8788526114492736</v>
+        <v>0.8788818566345402</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026439031544928</v>
+        <v>1.026450510995851</v>
       </c>
       <c r="J14">
-        <v>0.9824221824754098</v>
+        <v>0.9824472566916398</v>
       </c>
       <c r="K14">
-        <v>0.9962530361269484</v>
+        <v>0.996273101520182</v>
       </c>
       <c r="L14">
-        <v>0.972851642685686</v>
+        <v>0.972875280721852</v>
       </c>
       <c r="M14">
-        <v>0.8965090005295107</v>
+        <v>0.896537466666996</v>
+      </c>
+      <c r="N14">
+        <v>0.9899132989693192</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9517544172010578</v>
+        <v>0.9517802290507509</v>
       </c>
       <c r="D15">
-        <v>0.9816326371970011</v>
+        <v>0.9816527061256833</v>
       </c>
       <c r="E15">
-        <v>0.9579367391699907</v>
+        <v>0.9579604073594963</v>
       </c>
       <c r="F15">
-        <v>0.8806542313968574</v>
+        <v>0.8806828156849559</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026768327770821</v>
+        <v>1.026779582763674</v>
       </c>
       <c r="J15">
-        <v>0.9831175200793265</v>
+        <v>0.9831421024072086</v>
       </c>
       <c r="K15">
-        <v>0.9968355447135252</v>
+        <v>0.9968552185650417</v>
       </c>
       <c r="L15">
-        <v>0.9736214042908022</v>
+        <v>0.9736445755560242</v>
       </c>
       <c r="M15">
-        <v>0.8981551702288912</v>
+        <v>0.8981830026961598</v>
+      </c>
+      <c r="N15">
+        <v>0.990390446134767</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9571383626776818</v>
+        <v>0.9571611991648223</v>
       </c>
       <c r="D16">
-        <v>0.9855573124356346</v>
+        <v>0.9855751159375892</v>
       </c>
       <c r="E16">
-        <v>0.9629698160965474</v>
+        <v>0.9629907857077925</v>
       </c>
       <c r="F16">
-        <v>0.890852849393474</v>
+        <v>0.8908778011059948</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028640622608442</v>
+        <v>1.028650614806369</v>
       </c>
       <c r="J16">
-        <v>0.9870795412509809</v>
+        <v>0.9871013546179481</v>
       </c>
       <c r="K16">
-        <v>1.000154863103586</v>
+        <v>1.000172333731899</v>
       </c>
       <c r="L16">
-        <v>0.9780027200194013</v>
+        <v>0.9780232730106895</v>
       </c>
       <c r="M16">
-        <v>0.9074749397875126</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9074992817358817</v>
+      </c>
+      <c r="N16">
+        <v>0.9931092433221949</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9604254696968825</v>
+        <v>0.9604465295462058</v>
       </c>
       <c r="D17">
-        <v>0.9879553389162509</v>
+        <v>0.9879717861709991</v>
       </c>
       <c r="E17">
-        <v>0.9660383124006833</v>
+        <v>0.9660576734720242</v>
       </c>
       <c r="F17">
-        <v>0.8970160372955159</v>
+        <v>0.897038877927009</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029778079845988</v>
+        <v>1.029787315113669</v>
       </c>
       <c r="J17">
-        <v>0.9894942329277109</v>
+        <v>0.9895143852169562</v>
       </c>
       <c r="K17">
-        <v>1.002177902787773</v>
+        <v>1.002194052452671</v>
       </c>
       <c r="L17">
-        <v>0.9806692222098182</v>
+        <v>0.980688211851536</v>
       </c>
       <c r="M17">
-        <v>0.9131077072217948</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9131300146547152</v>
+      </c>
+      <c r="N17">
+        <v>0.9947662209473684</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9623123404820106</v>
+        <v>0.9623323933952642</v>
       </c>
       <c r="D18">
-        <v>0.9893324661243836</v>
+        <v>0.9893481435378353</v>
       </c>
       <c r="E18">
-        <v>0.9677983076372861</v>
+        <v>0.9678167579020697</v>
       </c>
       <c r="F18">
-        <v>0.9005333952956973</v>
+        <v>0.9005550576879424</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030428965771602</v>
+        <v>1.030437771063</v>
       </c>
       <c r="J18">
-        <v>0.9908788456314882</v>
+        <v>0.9908980538857972</v>
       </c>
       <c r="K18">
-        <v>1.003337911220456</v>
+        <v>1.003353310402119</v>
       </c>
       <c r="L18">
-        <v>0.9821970409872381</v>
+        <v>0.9822151445021107</v>
       </c>
       <c r="M18">
-        <v>0.916322490080577</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9163436600638075</v>
+      </c>
+      <c r="N18">
+        <v>0.9957163306794248</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9629507280116306</v>
+        <v>0.9629704423089388</v>
       </c>
       <c r="D19">
-        <v>0.9897984889830493</v>
+        <v>0.9898139073221175</v>
       </c>
       <c r="E19">
-        <v>0.9683935498959365</v>
+        <v>0.9684116940043669</v>
       </c>
       <c r="F19">
-        <v>0.9017201627485965</v>
+        <v>0.9017414317998934</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030648834143952</v>
+        <v>1.030657494681841</v>
       </c>
       <c r="J19">
-        <v>0.9913470590543966</v>
+        <v>0.9913659494201601</v>
       </c>
       <c r="K19">
-        <v>1.003730165274809</v>
+        <v>1.003745311785964</v>
       </c>
       <c r="L19">
-        <v>0.9827134927119218</v>
+        <v>0.9827312982168376</v>
       </c>
       <c r="M19">
-        <v>0.9174071819984034</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.917427971945553</v>
+      </c>
+      <c r="N19">
+        <v>0.9960376100911401</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9600759860535811</v>
+        <v>0.9600972334217286</v>
       </c>
       <c r="D20">
-        <v>0.9877003172737491</v>
+        <v>0.9877169078005898</v>
       </c>
       <c r="E20">
-        <v>0.9657122198071588</v>
+        <v>0.9657317505622479</v>
       </c>
       <c r="F20">
-        <v>0.8963629478118867</v>
+        <v>0.896386009300243</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029657357971512</v>
+        <v>1.029666673234263</v>
       </c>
       <c r="J20">
-        <v>0.9892376586628753</v>
+        <v>0.9892579865488417</v>
       </c>
       <c r="K20">
-        <v>1.001962945501357</v>
+        <v>1.001979234781752</v>
       </c>
       <c r="L20">
-        <v>0.9803860183859845</v>
+        <v>0.9804051730405452</v>
       </c>
       <c r="M20">
-        <v>0.9125108077061768</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9125333281945676</v>
+      </c>
+      <c r="N20">
+        <v>0.9945901598327631</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9503577246472529</v>
+        <v>0.9503843224119216</v>
       </c>
       <c r="D21">
-        <v>0.9806151490388449</v>
+        <v>0.9806358151259307</v>
       </c>
       <c r="E21">
-        <v>0.9566294945034788</v>
+        <v>0.9566538765754985</v>
       </c>
       <c r="F21">
-        <v>0.8779861709607834</v>
+        <v>0.8780157361314815</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026280832739677</v>
+        <v>1.026292420289536</v>
       </c>
       <c r="J21">
-        <v>0.982088281774847</v>
+        <v>0.9821135928540381</v>
       </c>
       <c r="K21">
-        <v>0.9959733212445475</v>
+        <v>0.9959935751959739</v>
       </c>
       <c r="L21">
-        <v>0.9724819106808472</v>
+        <v>0.9725057736669289</v>
       </c>
       <c r="M21">
-        <v>0.8957173448262541</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.8957461176156029</v>
+      </c>
+      <c r="N21">
+        <v>0.9896841741546289</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9439261054410597</v>
+        <v>0.9439564030556638</v>
       </c>
       <c r="D22">
-        <v>0.9759333042037502</v>
+        <v>0.9759567746328883</v>
       </c>
       <c r="E22">
-        <v>0.9506005304412907</v>
+        <v>0.9506282800461181</v>
       </c>
       <c r="F22">
-        <v>0.8655715361241031</v>
+        <v>0.8656058475898788</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.024027034990463</v>
+        <v>1.024040182630821</v>
       </c>
       <c r="J22">
-        <v>0.9773411667127525</v>
+        <v>0.9773698940696057</v>
       </c>
       <c r="K22">
-        <v>0.9919970936187847</v>
+        <v>0.992020068254865</v>
       </c>
       <c r="L22">
-        <v>0.967218506128349</v>
+        <v>0.967245627112183</v>
       </c>
       <c r="M22">
-        <v>0.8843763709212923</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8844096808200966</v>
+      </c>
+      <c r="N22">
+        <v>0.9864267868620055</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9473687063635201</v>
+        <v>0.9473970066355298</v>
       </c>
       <c r="D23">
-        <v>0.9784385760527852</v>
+        <v>0.9784605339848718</v>
       </c>
       <c r="E23">
-        <v>0.9538295572086121</v>
+        <v>0.9538554874256522</v>
       </c>
       <c r="F23">
-        <v>0.8722435706274211</v>
+        <v>0.8722752928738989</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.0252351968029</v>
+        <v>1.025247503353106</v>
       </c>
       <c r="J23">
-        <v>0.9798836716438831</v>
+        <v>0.9799105576787225</v>
       </c>
       <c r="K23">
-        <v>0.9941265841725485</v>
+        <v>0.9941480921481689</v>
       </c>
       <c r="L23">
-        <v>0.9700391630104936</v>
+        <v>0.9700645247958518</v>
       </c>
       <c r="M23">
-        <v>0.8904708588726263</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.8905016963011536</v>
+      </c>
+      <c r="N23">
+        <v>0.9881713781904038</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9602339962659456</v>
+        <v>0.9602551588124302</v>
       </c>
       <c r="D24">
-        <v>0.9878156169989346</v>
+        <v>0.9878321427221664</v>
       </c>
       <c r="E24">
-        <v>0.9658596586196573</v>
+        <v>0.9658791126178998</v>
       </c>
       <c r="F24">
-        <v>0.8966582887835138</v>
+        <v>0.8966812503137327</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029711945667262</v>
+        <v>1.029721224748333</v>
       </c>
       <c r="J24">
-        <v>0.9893536668100048</v>
+        <v>0.9893739152751878</v>
       </c>
       <c r="K24">
-        <v>1.002060136933728</v>
+        <v>1.00207636306652</v>
       </c>
       <c r="L24">
-        <v>0.9805140705410594</v>
+        <v>0.9805331505544984</v>
       </c>
       <c r="M24">
-        <v>0.9127807379726777</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9128031620398496</v>
+      </c>
+      <c r="N24">
+        <v>0.9946697646253879</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.973981928898181</v>
+        <v>0.973995945281393</v>
       </c>
       <c r="D25">
-        <v>0.9978584780857934</v>
+        <v>0.9978695227660277</v>
       </c>
       <c r="E25">
-        <v>0.9786634035506717</v>
+        <v>0.9786764049837096</v>
       </c>
       <c r="F25">
-        <v>0.9219857267834431</v>
+        <v>0.9220005809841331</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034418383539935</v>
+        <v>1.034424596071425</v>
       </c>
       <c r="J25">
-        <v>0.9994177907517393</v>
+        <v>0.9994312993587081</v>
       </c>
       <c r="K25">
-        <v>1.010490129638846</v>
+        <v>1.010501001924923</v>
       </c>
       <c r="L25">
-        <v>0.9916022265479311</v>
+        <v>0.9916150146807932</v>
       </c>
       <c r="M25">
-        <v>0.9359292387350923</v>
+        <v>0.9359438084424205</v>
+      </c>
+      <c r="N25">
+        <v>1.001574964920528</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_23/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_23/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9841870994284362</v>
+        <v>1.045758077318277</v>
       </c>
       <c r="D2">
-        <v>1.005325878722117</v>
+        <v>1.06192221284891</v>
       </c>
       <c r="E2">
-        <v>0.9881419197000352</v>
+        <v>1.054717153303001</v>
       </c>
       <c r="F2">
-        <v>0.9403678839581012</v>
+        <v>1.06794117356931</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037850336145624</v>
+        <v>1.071003256455398</v>
       </c>
       <c r="J2">
-        <v>1.006851282226951</v>
+        <v>1.066651294726036</v>
       </c>
       <c r="K2">
-        <v>1.016711510925951</v>
+        <v>1.072581363552036</v>
       </c>
       <c r="L2">
-        <v>0.9997689663590448</v>
+        <v>1.065463403792352</v>
       </c>
       <c r="M2">
-        <v>0.9527256285632453</v>
+        <v>1.078528679089995</v>
       </c>
       <c r="N2">
-        <v>1.006667342514931</v>
+        <v>1.068166061911161</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9912104196818052</v>
+        <v>1.053959371408355</v>
       </c>
       <c r="D3">
-        <v>1.010468796255593</v>
+        <v>1.068544519518413</v>
       </c>
       <c r="E3">
-        <v>0.9946552781847496</v>
+        <v>1.061876832769014</v>
       </c>
       <c r="F3">
-        <v>0.952855922137423</v>
+        <v>1.075104060413417</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040174404315911</v>
+        <v>1.074305443080017</v>
       </c>
       <c r="J3">
-        <v>1.01194359963108</v>
+        <v>1.073079832586025</v>
       </c>
       <c r="K3">
-        <v>1.020969456566031</v>
+        <v>1.078369509838817</v>
       </c>
       <c r="L3">
-        <v>1.00535700561879</v>
+        <v>1.071774778615069</v>
       </c>
       <c r="M3">
-        <v>0.9641298066356927</v>
+        <v>1.084858360345368</v>
       </c>
       <c r="N3">
-        <v>1.010160597687664</v>
+        <v>1.074603729032274</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9955994258768497</v>
+        <v>1.059097703706436</v>
       </c>
       <c r="D4">
-        <v>1.013683936366059</v>
+        <v>1.072695587454144</v>
       </c>
       <c r="E4">
-        <v>0.9987222496072427</v>
+        <v>1.066363757267475</v>
       </c>
       <c r="F4">
-        <v>0.9605982791474068</v>
+        <v>1.079595972865777</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041609483844741</v>
+        <v>1.076360585446543</v>
       </c>
       <c r="J4">
-        <v>1.015116372598994</v>
+        <v>1.077101647439553</v>
       </c>
       <c r="K4">
-        <v>1.023619966700607</v>
+        <v>1.081989204463362</v>
       </c>
       <c r="L4">
-        <v>1.008836120452782</v>
+        <v>1.075722147474915</v>
       </c>
       <c r="M4">
-        <v>0.9711967198722375</v>
+        <v>1.088820052628192</v>
       </c>
       <c r="N4">
-        <v>1.012336190330982</v>
+        <v>1.078631255324202</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9974097430601432</v>
+        <v>1.06121993860797</v>
       </c>
       <c r="D5">
-        <v>1.015010264491116</v>
+        <v>1.074410446918549</v>
       </c>
       <c r="E5">
-        <v>1.000399082303324</v>
+        <v>1.068217155099441</v>
       </c>
       <c r="F5">
-        <v>0.9637790561511923</v>
+        <v>1.08145212724936</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042197217724536</v>
+        <v>1.077206042539798</v>
       </c>
       <c r="J5">
-        <v>1.016422782405318</v>
+        <v>1.078761281571621</v>
       </c>
       <c r="K5">
-        <v>1.024710697940409</v>
+        <v>1.083482525080199</v>
       </c>
       <c r="L5">
-        <v>1.010268213791338</v>
+        <v>1.077350777536429</v>
       </c>
       <c r="M5">
-        <v>0.9740990780627938</v>
+        <v>1.090455268598836</v>
       </c>
       <c r="N5">
-        <v>1.01323177517497</v>
+        <v>1.080293246327102</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9977117267392988</v>
+        <v>1.061574113531954</v>
       </c>
       <c r="D6">
-        <v>1.015231521014368</v>
+        <v>1.074696655782445</v>
       </c>
       <c r="E6">
-        <v>1.00067876435198</v>
+        <v>1.068526474459695</v>
       </c>
       <c r="F6">
-        <v>0.9643089595045188</v>
+        <v>1.081761947100374</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042295011471107</v>
+        <v>1.077346939869262</v>
       </c>
       <c r="J6">
-        <v>1.016640576216308</v>
+        <v>1.079038166888428</v>
       </c>
       <c r="K6">
-        <v>1.02489249678831</v>
+        <v>1.083731640798488</v>
       </c>
       <c r="L6">
-        <v>1.010506937765549</v>
+        <v>1.07762247339226</v>
       </c>
       <c r="M6">
-        <v>0.9745825409712354</v>
+        <v>1.090728102562612</v>
       </c>
       <c r="N6">
-        <v>1.013381065661774</v>
+        <v>1.080570524852817</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9956237492471716</v>
+        <v>1.059126207090244</v>
       </c>
       <c r="D7">
-        <v>1.013701756250081</v>
+        <v>1.072718618048117</v>
       </c>
       <c r="E7">
-        <v>0.998744781904675</v>
+        <v>1.066388649222896</v>
       </c>
       <c r="F7">
-        <v>0.9606410636517845</v>
+        <v>1.079620899109553</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04161739727067</v>
+        <v>1.076371954007865</v>
       </c>
       <c r="J7">
-        <v>1.015133934373112</v>
+        <v>1.077123943547801</v>
       </c>
       <c r="K7">
-        <v>1.023634631738404</v>
+        <v>1.082009267770608</v>
       </c>
       <c r="L7">
-        <v>1.008855373380922</v>
+        <v>1.075744028196217</v>
       </c>
       <c r="M7">
-        <v>0.9712357631727294</v>
+        <v>1.088842019169364</v>
       </c>
       <c r="N7">
-        <v>1.012348230409504</v>
+        <v>1.078653583095482</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9865944163548511</v>
+        <v>1.048566143695873</v>
       </c>
       <c r="D8">
-        <v>1.00708833999158</v>
+        <v>1.064189155967918</v>
       </c>
       <c r="E8">
-        <v>0.9903752509098988</v>
+        <v>1.057168275580211</v>
       </c>
       <c r="F8">
-        <v>0.9446627497789394</v>
+        <v>1.070392752841482</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038650566598002</v>
+        <v>1.072136777250469</v>
       </c>
       <c r="J8">
-        <v>1.008598763893433</v>
+        <v>1.068853579797517</v>
       </c>
       <c r="K8">
-        <v>1.018173143704551</v>
+        <v>1.074564563564725</v>
       </c>
       <c r="L8">
-        <v>1.001687193455512</v>
+        <v>1.067625788457629</v>
       </c>
       <c r="M8">
-        <v>0.9566484101130474</v>
+        <v>1.080696719128341</v>
       </c>
       <c r="N8">
-        <v>1.0078662653882</v>
+        <v>1.070371474480049</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9693665754470235</v>
+        <v>1.028546558871432</v>
       </c>
       <c r="D9">
-        <v>0.9944855577212587</v>
+        <v>1.048040760657136</v>
       </c>
       <c r="E9">
-        <v>0.9743699184356515</v>
+        <v>1.039702337279554</v>
       </c>
       <c r="F9">
-        <v>0.9135475884049111</v>
+        <v>1.052937340915041</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032849972875201</v>
+        <v>1.063998229307007</v>
       </c>
       <c r="J9">
-        <v>0.9960494692295504</v>
+        <v>1.053130028181556</v>
       </c>
       <c r="K9">
-        <v>1.007668741019868</v>
+        <v>1.060399692503509</v>
       </c>
       <c r="L9">
-        <v>0.9878929795808219</v>
+        <v>1.052182515477108</v>
       </c>
       <c r="M9">
-        <v>0.9282184914701302</v>
+        <v>1.065226205389953</v>
       </c>
       <c r="N9">
-        <v>0.9992533237886999</v>
+        <v>1.054625593617276</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9567856689711266</v>
+        <v>1.014057387613752</v>
       </c>
       <c r="D10">
-        <v>0.9853012520075514</v>
+        <v>1.036376439106291</v>
       </c>
       <c r="E10">
-        <v>0.9626400206338787</v>
+        <v>1.027077602881412</v>
       </c>
       <c r="F10">
-        <v>0.8901705841104488</v>
+        <v>1.040339009438305</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028520404525304</v>
+        <v>1.058037371284167</v>
       </c>
       <c r="J10">
-        <v>0.9868253259743266</v>
+        <v>1.041724162260448</v>
       </c>
       <c r="K10">
-        <v>0.9999410670811766</v>
+        <v>1.050118563659225</v>
       </c>
       <c r="L10">
-        <v>0.9777182544871161</v>
+        <v>1.040974588064864</v>
       </c>
       <c r="M10">
-        <v>0.9068529683369972</v>
+        <v>1.054016223205304</v>
       </c>
       <c r="N10">
-        <v>0.9929196975048753</v>
+        <v>1.043203530058289</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9510175542950693</v>
+        <v>1.007460374581883</v>
       </c>
       <c r="D11">
-        <v>0.9810970787635001</v>
+        <v>1.031073265104606</v>
       </c>
       <c r="E11">
-        <v>0.9572466485193686</v>
+        <v>1.021335135355317</v>
       </c>
       <c r="F11">
-        <v>0.8792267984642986</v>
+        <v>1.034613416615615</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026513502786355</v>
+        <v>1.055307689307231</v>
       </c>
       <c r="J11">
-        <v>0.9825802331112364</v>
+        <v>1.036526053264434</v>
       </c>
       <c r="K11">
-        <v>0.9963845033026305</v>
+        <v>1.045432049216565</v>
       </c>
       <c r="L11">
-        <v>0.9730225250097686</v>
+        <v>1.035865614398504</v>
       </c>
       <c r="M11">
-        <v>0.8968526345841894</v>
+        <v>1.048910819702642</v>
       </c>
       <c r="N11">
-        <v>0.990004613127197</v>
+        <v>1.037998039151269</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9488203032342266</v>
+        <v>1.004956167533339</v>
       </c>
       <c r="D12">
-        <v>0.9794967813666851</v>
+        <v>1.029061561470222</v>
       </c>
       <c r="E12">
-        <v>0.9551891777312163</v>
+        <v>1.019156339223606</v>
       </c>
       <c r="F12">
-        <v>0.8750159734389198</v>
+        <v>1.032441792201495</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025745746736224</v>
+        <v>1.054269265783068</v>
       </c>
       <c r="J12">
-        <v>0.9809605217372132</v>
+        <v>1.034552244550039</v>
       </c>
       <c r="K12">
-        <v>0.9950276224771843</v>
+        <v>1.043652392525913</v>
       </c>
       <c r="L12">
-        <v>0.9712283629653998</v>
+        <v>1.033925511783118</v>
       </c>
       <c r="M12">
-        <v>0.8930054566788891</v>
+        <v>1.046972778262421</v>
       </c>
       <c r="N12">
-        <v>0.9888923713922118</v>
+        <v>1.036021427402101</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9492942189143091</v>
+        <v>1.005495855086414</v>
       </c>
       <c r="D13">
-        <v>0.9798418851553325</v>
+        <v>1.029495043113398</v>
       </c>
       <c r="E13">
-        <v>0.9556330913634085</v>
+        <v>1.019625847213095</v>
       </c>
       <c r="F13">
-        <v>0.8759262358653982</v>
+        <v>1.03290971940339</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025911487824508</v>
+        <v>1.054493158209123</v>
       </c>
       <c r="J13">
-        <v>0.9813099931825415</v>
+        <v>1.03497765062606</v>
       </c>
       <c r="K13">
-        <v>0.9953203769450392</v>
+        <v>1.044035958112999</v>
       </c>
       <c r="L13">
-        <v>0.9716155973926038</v>
+        <v>1.034343659276048</v>
       </c>
       <c r="M13">
-        <v>0.8938370731817395</v>
+        <v>1.047390449206461</v>
       </c>
       <c r="N13">
-        <v>0.9891323493284301</v>
+        <v>1.036447437603545</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9508370883441115</v>
+        <v>1.007254506336995</v>
       </c>
       <c r="D14">
-        <v>0.9809656166735924</v>
+        <v>1.030907856054927</v>
       </c>
       <c r="E14">
-        <v>0.9570777276460903</v>
+        <v>1.021155996867698</v>
       </c>
       <c r="F14">
-        <v>0.8788818566345402</v>
+        <v>1.034434851961461</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026450510995851</v>
+        <v>1.05522236637772</v>
       </c>
       <c r="J14">
-        <v>0.9824472566916398</v>
+        <v>1.03636380034855</v>
       </c>
       <c r="K14">
-        <v>0.996273101520182</v>
+        <v>1.045285758130891</v>
       </c>
       <c r="L14">
-        <v>0.972875280721852</v>
+        <v>1.035706134926598</v>
       </c>
       <c r="M14">
-        <v>0.896537466666996</v>
+        <v>1.048751495200408</v>
       </c>
       <c r="N14">
-        <v>0.9899132989693192</v>
+        <v>1.037835555817634</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9517802290507509</v>
+        <v>1.008330772460903</v>
       </c>
       <c r="D15">
-        <v>0.9816527061256833</v>
+        <v>1.03177266085594</v>
       </c>
       <c r="E15">
-        <v>0.9579604073594963</v>
+        <v>1.022092564361989</v>
       </c>
       <c r="F15">
-        <v>0.8806828156849559</v>
+        <v>1.035368450818227</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026779582763674</v>
+        <v>1.055668338832212</v>
       </c>
       <c r="J15">
-        <v>0.9831421024072086</v>
+        <v>1.037212023831015</v>
       </c>
       <c r="K15">
-        <v>0.9968552185650417</v>
+        <v>1.046050532413011</v>
       </c>
       <c r="L15">
-        <v>0.9736445755560242</v>
+        <v>1.036539853887978</v>
       </c>
       <c r="M15">
-        <v>0.8981830026961598</v>
+        <v>1.04958443282492</v>
       </c>
       <c r="N15">
-        <v>0.990390446134767</v>
+        <v>1.038684983874737</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9571611991648223</v>
+        <v>1.014487972526588</v>
       </c>
       <c r="D16">
-        <v>0.9855751159375892</v>
+        <v>1.036722751124505</v>
       </c>
       <c r="E16">
-        <v>0.9629907857077925</v>
+        <v>1.027452543000954</v>
       </c>
       <c r="F16">
-        <v>0.8908778011059948</v>
+        <v>1.040712951337644</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028650614806369</v>
+        <v>1.058215222255641</v>
       </c>
       <c r="J16">
-        <v>0.9871013546179481</v>
+        <v>1.042063348885603</v>
       </c>
       <c r="K16">
-        <v>1.000172333731899</v>
+        <v>1.05042435052714</v>
       </c>
       <c r="L16">
-        <v>0.9780232730106895</v>
+        <v>1.041307937985967</v>
       </c>
       <c r="M16">
-        <v>0.9074992817358817</v>
+        <v>1.054349435472257</v>
       </c>
       <c r="N16">
-        <v>0.9931092433221949</v>
+        <v>1.043543198367357</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9604465295462058</v>
+        <v>1.018260255526394</v>
       </c>
       <c r="D17">
-        <v>0.9879717861709991</v>
+        <v>1.039757618240158</v>
       </c>
       <c r="E17">
-        <v>0.9660576734720242</v>
+        <v>1.030737985957865</v>
       </c>
       <c r="F17">
-        <v>0.897038877927009</v>
+        <v>1.043990198889449</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029787315113669</v>
+        <v>1.059771595109541</v>
       </c>
       <c r="J17">
-        <v>0.9895143852169562</v>
+        <v>1.045034363354031</v>
       </c>
       <c r="K17">
-        <v>1.002194052452671</v>
+        <v>1.053102701470638</v>
       </c>
       <c r="L17">
-        <v>0.980688211851536</v>
+        <v>1.044227708916391</v>
       </c>
       <c r="M17">
-        <v>0.9131300146547152</v>
+        <v>1.057268510346069</v>
       </c>
       <c r="N17">
-        <v>0.9947662209473684</v>
+        <v>1.046518432017111</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9623323933952642</v>
+        <v>1.020429781770481</v>
       </c>
       <c r="D18">
-        <v>0.9893481435378353</v>
+        <v>1.041503742279306</v>
       </c>
       <c r="E18">
-        <v>0.9678167579020697</v>
+        <v>1.032628036068926</v>
       </c>
       <c r="F18">
-        <v>0.9005550576879424</v>
+        <v>1.045875987350519</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030437771063</v>
+        <v>1.06066522675585</v>
       </c>
       <c r="J18">
-        <v>0.9908980538857972</v>
+        <v>1.046742590293873</v>
       </c>
       <c r="K18">
-        <v>1.003353310402119</v>
+        <v>1.054642561644757</v>
       </c>
       <c r="L18">
-        <v>0.9822151445021107</v>
+        <v>1.045906370726</v>
       </c>
       <c r="M18">
-        <v>0.9163436600638075</v>
+        <v>1.058947191582963</v>
       </c>
       <c r="N18">
-        <v>0.9957163306794248</v>
+        <v>1.048229084835143</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9629704423089388</v>
+        <v>1.021164459573535</v>
       </c>
       <c r="D19">
-        <v>0.9898139073221175</v>
+        <v>1.042095154523367</v>
       </c>
       <c r="E19">
-        <v>0.9684116940043669</v>
+        <v>1.033268156221127</v>
       </c>
       <c r="F19">
-        <v>0.9017414317998934</v>
+        <v>1.046514739955441</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030657494681841</v>
+        <v>1.060967588793282</v>
       </c>
       <c r="J19">
-        <v>0.9913659494201601</v>
+        <v>1.047320972663982</v>
       </c>
       <c r="K19">
-        <v>1.003745311785964</v>
+        <v>1.0551639199749</v>
       </c>
       <c r="L19">
-        <v>0.9827312982168376</v>
+        <v>1.046474724888704</v>
       </c>
       <c r="M19">
-        <v>0.917427971945553</v>
+        <v>1.05951562271612</v>
       </c>
       <c r="N19">
-        <v>0.9960376100911401</v>
+        <v>1.04880828857456</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9600972334217286</v>
+        <v>1.017858744634887</v>
       </c>
       <c r="D20">
-        <v>0.9877169078005898</v>
+        <v>1.039434521279428</v>
       </c>
       <c r="E20">
-        <v>0.9657317505622479</v>
+        <v>1.030388237997144</v>
       </c>
       <c r="F20">
-        <v>0.896386009300243</v>
+        <v>1.043641275999138</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029666673234263</v>
+        <v>1.059606091846143</v>
       </c>
       <c r="J20">
-        <v>0.9892579865488417</v>
+        <v>1.04471818539255</v>
       </c>
       <c r="K20">
-        <v>1.001979234781752</v>
+        <v>1.052817678704449</v>
       </c>
       <c r="L20">
-        <v>0.9804051730405452</v>
+        <v>1.043916994800806</v>
       </c>
       <c r="M20">
-        <v>0.9125333281945676</v>
+        <v>1.056957826469378</v>
       </c>
       <c r="N20">
-        <v>0.9945901598327631</v>
+        <v>1.046201805046658</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9503843224119216</v>
+        <v>1.006738158119235</v>
       </c>
       <c r="D21">
-        <v>0.9806358151259307</v>
+        <v>1.030493008246104</v>
       </c>
       <c r="E21">
-        <v>0.9566538765754985</v>
+        <v>1.020706708027344</v>
       </c>
       <c r="F21">
-        <v>0.8780157361314815</v>
+        <v>1.033987014822888</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026292420289536</v>
+        <v>1.055008328102914</v>
       </c>
       <c r="J21">
-        <v>0.9821135928540381</v>
+        <v>1.03595683632623</v>
       </c>
       <c r="K21">
-        <v>0.9959935751959739</v>
+        <v>1.044918828089352</v>
       </c>
       <c r="L21">
-        <v>0.9725057736669289</v>
+        <v>1.035306125105942</v>
       </c>
       <c r="M21">
-        <v>0.8957461176156029</v>
+        <v>1.048351885512922</v>
       </c>
       <c r="N21">
-        <v>0.9896841741546289</v>
+        <v>1.037428013859724</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9439564030556638</v>
+        <v>0.9994318223443031</v>
       </c>
       <c r="D22">
-        <v>0.9759567746328883</v>
+        <v>1.024626477464649</v>
       </c>
       <c r="E22">
-        <v>0.9506282800461181</v>
+        <v>1.014351978296569</v>
       </c>
       <c r="F22">
-        <v>0.8656058475898788</v>
+        <v>1.027654712080288</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.024040182630821</v>
+        <v>1.051974465346598</v>
       </c>
       <c r="J22">
-        <v>0.9773698940696057</v>
+        <v>1.030196973437695</v>
       </c>
       <c r="K22">
-        <v>0.992020068254865</v>
+        <v>1.039725371612119</v>
       </c>
       <c r="L22">
-        <v>0.967245627112183</v>
+        <v>1.029644382311201</v>
       </c>
       <c r="M22">
-        <v>0.8844096808200966</v>
+        <v>1.042697534624835</v>
       </c>
       <c r="N22">
-        <v>0.9864267868620055</v>
+        <v>1.031659971305221</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9473970066355298</v>
+        <v>1.00333681638419</v>
       </c>
       <c r="D23">
-        <v>0.9784605339848718</v>
+        <v>1.027761103121061</v>
       </c>
       <c r="E23">
-        <v>0.9538554874256522</v>
+        <v>1.017747730119151</v>
       </c>
       <c r="F23">
-        <v>0.8722752928738989</v>
+        <v>1.031038041683442</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025247503353106</v>
+        <v>1.053597149067264</v>
       </c>
       <c r="J23">
-        <v>0.9799105576787225</v>
+        <v>1.03327571810277</v>
       </c>
       <c r="K23">
-        <v>0.9941480921481689</v>
+        <v>1.042501405254084</v>
       </c>
       <c r="L23">
-        <v>0.9700645247958518</v>
+        <v>1.032670747650629</v>
       </c>
       <c r="M23">
-        <v>0.8905016963011536</v>
+        <v>1.045719549913476</v>
       </c>
       <c r="N23">
-        <v>0.9881713781904038</v>
+        <v>1.034743088140857</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9602551588124302</v>
+        <v>1.018040264864186</v>
       </c>
       <c r="D24">
-        <v>0.9878321427221664</v>
+        <v>1.039580588957804</v>
       </c>
       <c r="E24">
-        <v>0.9658791126178998</v>
+        <v>1.030546354978804</v>
       </c>
       <c r="F24">
-        <v>0.8966812503137327</v>
+        <v>1.043799018570821</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029721224748333</v>
+        <v>1.059680919288877</v>
       </c>
       <c r="J24">
-        <v>0.9893739152751878</v>
+        <v>1.044861128683082</v>
       </c>
       <c r="K24">
-        <v>1.00207636306652</v>
+        <v>1.052946537107165</v>
       </c>
       <c r="L24">
-        <v>0.9805331505544984</v>
+        <v>1.044057468218242</v>
       </c>
       <c r="M24">
-        <v>0.9128031620398496</v>
+        <v>1.057098284913337</v>
       </c>
       <c r="N24">
-        <v>0.9946697646253879</v>
+        <v>1.046344951333059</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.973995945281393</v>
+        <v>1.033907809177293</v>
       </c>
       <c r="D25">
-        <v>0.9978695227660277</v>
+        <v>1.05236203390396</v>
       </c>
       <c r="E25">
-        <v>0.9786764049837096</v>
+        <v>1.04437749129373</v>
       </c>
       <c r="F25">
-        <v>0.9220005809841331</v>
+        <v>1.057606609956115</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034424596071425</v>
+        <v>1.066190014390605</v>
       </c>
       <c r="J25">
-        <v>0.9994312993587081</v>
+        <v>1.057345549110287</v>
       </c>
       <c r="K25">
-        <v>1.010501001924923</v>
+        <v>1.064198453549472</v>
       </c>
       <c r="L25">
-        <v>0.9916150146807932</v>
+        <v>1.056323860225046</v>
       </c>
       <c r="M25">
-        <v>0.9359438084424205</v>
+        <v>1.069371946180175</v>
       </c>
       <c r="N25">
-        <v>1.001574964920528</v>
+        <v>1.058847101069253</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_23/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_23/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.045758077318277</v>
+        <v>1.013798504142543</v>
       </c>
       <c r="D2">
-        <v>1.06192221284891</v>
+        <v>1.032529577350665</v>
       </c>
       <c r="E2">
-        <v>1.054717153303001</v>
+        <v>1.028624860044089</v>
       </c>
       <c r="F2">
-        <v>1.06794117356931</v>
+        <v>1.040069560008208</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.071003256455398</v>
+        <v>1.04953057085614</v>
       </c>
       <c r="J2">
-        <v>1.066651294726036</v>
+        <v>1.03557419397209</v>
       </c>
       <c r="K2">
-        <v>1.072581363552036</v>
+        <v>1.043553588339538</v>
       </c>
       <c r="L2">
-        <v>1.065463403792352</v>
+        <v>1.039699304790775</v>
       </c>
       <c r="M2">
-        <v>1.078528679089995</v>
+        <v>1.050997521253489</v>
       </c>
       <c r="N2">
-        <v>1.068166061911161</v>
+        <v>1.015712254610767</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.053959371408355</v>
+        <v>1.017257115355584</v>
       </c>
       <c r="D3">
-        <v>1.068544519518413</v>
+        <v>1.035039979462754</v>
       </c>
       <c r="E3">
-        <v>1.061876832769014</v>
+        <v>1.031411118758118</v>
       </c>
       <c r="F3">
-        <v>1.075104060413417</v>
+        <v>1.043062897874526</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.074305443080017</v>
+        <v>1.050409238450265</v>
       </c>
       <c r="J3">
-        <v>1.073079832586025</v>
+        <v>1.037288139228484</v>
       </c>
       <c r="K3">
-        <v>1.078369509838817</v>
+        <v>1.045243319568903</v>
       </c>
       <c r="L3">
-        <v>1.071774778615069</v>
+        <v>1.041657264556785</v>
       </c>
       <c r="M3">
-        <v>1.084858360345368</v>
+        <v>1.053172906391827</v>
       </c>
       <c r="N3">
-        <v>1.074603729032274</v>
+        <v>1.016287396087764</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.059097703706436</v>
+        <v>1.019458524816884</v>
       </c>
       <c r="D4">
-        <v>1.072695587454144</v>
+        <v>1.03664115454233</v>
       </c>
       <c r="E4">
-        <v>1.066363757267475</v>
+        <v>1.033190102955419</v>
       </c>
       <c r="F4">
-        <v>1.079595972865777</v>
+        <v>1.044973622998007</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.076360585446543</v>
+        <v>1.050961270056484</v>
       </c>
       <c r="J4">
-        <v>1.077101647439553</v>
+        <v>1.038377245146831</v>
       </c>
       <c r="K4">
-        <v>1.081989204463362</v>
+        <v>1.046316585721903</v>
       </c>
       <c r="L4">
-        <v>1.075722147474915</v>
+        <v>1.04290379866346</v>
       </c>
       <c r="M4">
-        <v>1.088820052628192</v>
+        <v>1.054557943651267</v>
       </c>
       <c r="N4">
-        <v>1.078631255324202</v>
+        <v>1.016652783672339</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C5">
-        <v>1.06121993860797</v>
+        <v>1.020375484604398</v>
       </c>
       <c r="D5">
-        <v>1.074410446918549</v>
+        <v>1.037308854757035</v>
       </c>
       <c r="E5">
-        <v>1.068217155099441</v>
+        <v>1.033932406171272</v>
       </c>
       <c r="F5">
-        <v>1.08145212724936</v>
+        <v>1.045770783418437</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.077206042539798</v>
+        <v>1.051189445014235</v>
       </c>
       <c r="J5">
-        <v>1.078761281571621</v>
+        <v>1.038830434137143</v>
       </c>
       <c r="K5">
-        <v>1.083482525080199</v>
+        <v>1.046763069100003</v>
       </c>
       <c r="L5">
-        <v>1.077350777536429</v>
+        <v>1.04342306586005</v>
       </c>
       <c r="M5">
-        <v>1.090455268598836</v>
+        <v>1.055134924518108</v>
       </c>
       <c r="N5">
-        <v>1.080293246327102</v>
+        <v>1.016804804987929</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.061574113531954</v>
+        <v>1.020528953690828</v>
       </c>
       <c r="D6">
-        <v>1.074696655782445</v>
+        <v>1.037420649500178</v>
       </c>
       <c r="E6">
-        <v>1.068526474459695</v>
+        <v>1.034056718892209</v>
       </c>
       <c r="F6">
-        <v>1.081761947100374</v>
+        <v>1.045904276382918</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.077346939869262</v>
+        <v>1.05122752956362</v>
       </c>
       <c r="J6">
-        <v>1.079038166888428</v>
+        <v>1.03890625549773</v>
       </c>
       <c r="K6">
-        <v>1.083731640798488</v>
+        <v>1.046837761672612</v>
       </c>
       <c r="L6">
-        <v>1.07762247339226</v>
+        <v>1.043509976104685</v>
       </c>
       <c r="M6">
-        <v>1.090728102562612</v>
+        <v>1.05523149534636</v>
       </c>
       <c r="N6">
-        <v>1.080570524852817</v>
+        <v>1.016830237859416</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.059126207090244</v>
+        <v>1.019470810420736</v>
       </c>
       <c r="D7">
-        <v>1.072718618048117</v>
+        <v>1.036650097571833</v>
       </c>
       <c r="E7">
-        <v>1.066388649222896</v>
+        <v>1.033200043393237</v>
       </c>
       <c r="F7">
-        <v>1.079620899109553</v>
+        <v>1.044984298493346</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.076371954007865</v>
+        <v>1.050964334187815</v>
       </c>
       <c r="J7">
-        <v>1.077123943547801</v>
+        <v>1.038383318903564</v>
       </c>
       <c r="K7">
-        <v>1.082009267770608</v>
+        <v>1.046322570067965</v>
       </c>
       <c r="L7">
-        <v>1.075744028196217</v>
+        <v>1.042910755762418</v>
       </c>
       <c r="M7">
-        <v>1.088842019169364</v>
+        <v>1.054565673925711</v>
       </c>
       <c r="N7">
-        <v>1.078653583095482</v>
+        <v>1.016654821184441</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.048566143695873</v>
+        <v>1.014975069285826</v>
       </c>
       <c r="D8">
-        <v>1.064189155967918</v>
+        <v>1.033382865124403</v>
       </c>
       <c r="E8">
-        <v>1.057168275580211</v>
+        <v>1.029571527750587</v>
       </c>
       <c r="F8">
-        <v>1.070392752841482</v>
+        <v>1.041086685403992</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.072136777250469</v>
+        <v>1.049830977348764</v>
       </c>
       <c r="J8">
-        <v>1.068853579797517</v>
+        <v>1.036157618364687</v>
       </c>
       <c r="K8">
-        <v>1.074564563564725</v>
+        <v>1.044128861663339</v>
       </c>
       <c r="L8">
-        <v>1.067625788457629</v>
+        <v>1.040365295580561</v>
       </c>
       <c r="M8">
-        <v>1.080696719128341</v>
+        <v>1.051737450742471</v>
       </c>
       <c r="N8">
-        <v>1.070371474480049</v>
+        <v>1.015908047566314</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.028546558871432</v>
+        <v>1.006762092412286</v>
       </c>
       <c r="D9">
-        <v>1.048040760657136</v>
+        <v>1.02744185671991</v>
       </c>
       <c r="E9">
-        <v>1.039702337279554</v>
+        <v>1.022987835220255</v>
       </c>
       <c r="F9">
-        <v>1.052937340915041</v>
+        <v>1.034010960652819</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.063998229307007</v>
+        <v>1.047704622535407</v>
       </c>
       <c r="J9">
-        <v>1.053130028181556</v>
+        <v>1.032078302897633</v>
       </c>
       <c r="K9">
-        <v>1.060399692503509</v>
+        <v>1.040104863308641</v>
       </c>
       <c r="L9">
-        <v>1.052182515477108</v>
+        <v>1.035718644380368</v>
       </c>
       <c r="M9">
-        <v>1.065226205389953</v>
+        <v>1.046575323050387</v>
       </c>
       <c r="N9">
-        <v>1.054625593617276</v>
+        <v>1.014538785401193</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.014057387613752</v>
+        <v>1.001075087877867</v>
       </c>
       <c r="D10">
-        <v>1.036376439106291</v>
+        <v>1.023349123346089</v>
       </c>
       <c r="E10">
-        <v>1.027077602881412</v>
+        <v>1.01846143979281</v>
       </c>
       <c r="F10">
-        <v>1.040339009438305</v>
+        <v>1.029143685377772</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.058037371284167</v>
+        <v>1.046196252143254</v>
       </c>
       <c r="J10">
-        <v>1.041724162260448</v>
+        <v>1.029246115958503</v>
       </c>
       <c r="K10">
-        <v>1.050118563659225</v>
+        <v>1.037309222329847</v>
       </c>
       <c r="L10">
-        <v>1.040974588064864</v>
+        <v>1.032505180014849</v>
       </c>
       <c r="M10">
-        <v>1.054016223205304</v>
+        <v>1.043005950805773</v>
       </c>
       <c r="N10">
-        <v>1.043203530058289</v>
+        <v>1.013587851810418</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.007460374581883</v>
+        <v>0.9985585486914568</v>
       </c>
       <c r="D11">
-        <v>1.031073265104606</v>
+        <v>1.021543600427686</v>
       </c>
       <c r="E11">
-        <v>1.021335135355317</v>
+        <v>1.01646663731027</v>
       </c>
       <c r="F11">
-        <v>1.034613416615615</v>
+        <v>1.026998027815432</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.055307689307231</v>
+        <v>1.045520650996147</v>
       </c>
       <c r="J11">
-        <v>1.036526053264434</v>
+        <v>1.027991416916659</v>
       </c>
       <c r="K11">
-        <v>1.045432049216565</v>
+        <v>1.036070359466104</v>
       </c>
       <c r="L11">
-        <v>1.035865614398504</v>
+        <v>1.03108455763063</v>
       </c>
       <c r="M11">
-        <v>1.048910819702642</v>
+        <v>1.041428149704871</v>
       </c>
       <c r="N11">
-        <v>1.037998039151269</v>
+        <v>1.013166528476713</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.004956167533339</v>
+        <v>0.9976153353216682</v>
       </c>
       <c r="D12">
-        <v>1.029061561470222</v>
+        <v>1.020867760127564</v>
       </c>
       <c r="E12">
-        <v>1.019156339223606</v>
+        <v>1.015720241067298</v>
       </c>
       <c r="F12">
-        <v>1.032441792201495</v>
+        <v>1.026195090807902</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.054269265783068</v>
+        <v>1.04526624397334</v>
       </c>
       <c r="J12">
-        <v>1.034552244550039</v>
+        <v>1.027520962453836</v>
       </c>
       <c r="K12">
-        <v>1.043652392525913</v>
+        <v>1.03560579716675</v>
       </c>
       <c r="L12">
-        <v>1.033925511783118</v>
+        <v>1.03055233858639</v>
       </c>
       <c r="M12">
-        <v>1.046972778262421</v>
+        <v>1.040837072287696</v>
       </c>
       <c r="N12">
-        <v>1.036021427402101</v>
+        <v>1.013008546389432</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.005495855086414</v>
+        <v>0.9978180462386422</v>
       </c>
       <c r="D13">
-        <v>1.029495043113398</v>
+        <v>1.021012967938924</v>
       </c>
       <c r="E13">
-        <v>1.019625847213095</v>
+        <v>1.015880595029961</v>
       </c>
       <c r="F13">
-        <v>1.03290971940339</v>
+        <v>1.026367596171907</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.054493158209123</v>
+        <v>1.045320973039174</v>
       </c>
       <c r="J13">
-        <v>1.03497765062606</v>
+        <v>1.02762207820394</v>
       </c>
       <c r="K13">
-        <v>1.044035958112999</v>
+        <v>1.035705648443124</v>
       </c>
       <c r="L13">
-        <v>1.034343659276048</v>
+        <v>1.030666709225394</v>
       </c>
       <c r="M13">
-        <v>1.047390449206461</v>
+        <v>1.040964089986379</v>
       </c>
       <c r="N13">
-        <v>1.036447437603545</v>
+        <v>1.013042502013225</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.007254506336995</v>
+        <v>0.9984807569694764</v>
       </c>
       <c r="D14">
-        <v>1.030907856054927</v>
+        <v>1.021487842171956</v>
       </c>
       <c r="E14">
-        <v>1.021155996867698</v>
+        <v>1.016405052099617</v>
       </c>
       <c r="F14">
-        <v>1.034434851961461</v>
+        <v>1.026931779365771</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.05522236637772</v>
+        <v>1.045499692684338</v>
       </c>
       <c r="J14">
-        <v>1.03636380034855</v>
+        <v>1.027952619695412</v>
       </c>
       <c r="K14">
-        <v>1.045285758130891</v>
+        <v>1.036032049041961</v>
       </c>
       <c r="L14">
-        <v>1.035706134926598</v>
+        <v>1.031040657700786</v>
       </c>
       <c r="M14">
-        <v>1.048751495200408</v>
+        <v>1.041379394301826</v>
       </c>
       <c r="N14">
-        <v>1.037835555817634</v>
+        <v>1.013153500178758</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.008330772460903</v>
+        <v>0.9988879435633424</v>
       </c>
       <c r="D15">
-        <v>1.03177266085594</v>
+        <v>1.021779734801511</v>
       </c>
       <c r="E15">
-        <v>1.022092564361989</v>
+        <v>1.016727460621997</v>
       </c>
       <c r="F15">
-        <v>1.035368450818227</v>
+        <v>1.027278596802876</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.055668338832212</v>
+        <v>1.04560934688728</v>
       </c>
       <c r="J15">
-        <v>1.037212023831015</v>
+        <v>1.028155689268438</v>
       </c>
       <c r="K15">
-        <v>1.046050532413011</v>
+        <v>1.036232568839088</v>
       </c>
       <c r="L15">
-        <v>1.036539853887978</v>
+        <v>1.031270453819562</v>
       </c>
       <c r="M15">
-        <v>1.04958443282492</v>
+        <v>1.041634607714533</v>
       </c>
       <c r="N15">
-        <v>1.038684983874737</v>
+        <v>1.013221691739414</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.014487972526588</v>
+        <v>1.001240935217132</v>
       </c>
       <c r="D16">
-        <v>1.036722751124505</v>
+        <v>1.023468232347536</v>
       </c>
       <c r="E16">
-        <v>1.027452543000954</v>
+        <v>1.018593077042719</v>
       </c>
       <c r="F16">
-        <v>1.040712951337644</v>
+        <v>1.02928526435827</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.058215222255641</v>
+        <v>1.046240609200665</v>
       </c>
       <c r="J16">
-        <v>1.042063348885603</v>
+        <v>1.029328776814457</v>
       </c>
       <c r="K16">
-        <v>1.05042435052714</v>
+        <v>1.037390833120033</v>
       </c>
       <c r="L16">
-        <v>1.041307937985967</v>
+        <v>1.032598834463061</v>
       </c>
       <c r="M16">
-        <v>1.054349435472257</v>
+        <v>1.043109970842103</v>
       </c>
       <c r="N16">
-        <v>1.043543198367357</v>
+        <v>1.013615608204273</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.018260255526394</v>
+        <v>1.002702203992682</v>
       </c>
       <c r="D17">
-        <v>1.039757618240158</v>
+        <v>1.024518331500752</v>
       </c>
       <c r="E17">
-        <v>1.030737985957865</v>
+        <v>1.019753860008734</v>
       </c>
       <c r="F17">
-        <v>1.043990198889449</v>
+        <v>1.030533641958138</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.059771595109541</v>
+        <v>1.046630510853622</v>
       </c>
       <c r="J17">
-        <v>1.045034363354031</v>
+        <v>1.030056935077555</v>
       </c>
       <c r="K17">
-        <v>1.053102701470638</v>
+        <v>1.038109701844024</v>
       </c>
       <c r="L17">
-        <v>1.044227708916391</v>
+        <v>1.033424176173543</v>
       </c>
       <c r="M17">
-        <v>1.057268510346069</v>
+        <v>1.044026679462474</v>
       </c>
       <c r="N17">
-        <v>1.046518432017111</v>
+        <v>1.013860108805465</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.020429781770481</v>
+        <v>1.00354934830778</v>
       </c>
       <c r="D18">
-        <v>1.041503742279306</v>
+        <v>1.025127632058711</v>
       </c>
       <c r="E18">
-        <v>1.032628036068926</v>
+        <v>1.020427577380039</v>
       </c>
       <c r="F18">
-        <v>1.045875987350519</v>
+        <v>1.03125813929087</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.06066522675585</v>
+        <v>1.046855772009179</v>
       </c>
       <c r="J18">
-        <v>1.046742590293873</v>
+        <v>1.030478932910035</v>
       </c>
       <c r="K18">
-        <v>1.054642561644757</v>
+        <v>1.038526281781879</v>
       </c>
       <c r="L18">
-        <v>1.045906370726</v>
+        <v>1.03390278022008</v>
       </c>
       <c r="M18">
-        <v>1.058947191582963</v>
+        <v>1.044558281230829</v>
       </c>
       <c r="N18">
-        <v>1.048229084835143</v>
+        <v>1.014001802500306</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.021164459573535</v>
+        <v>1.003837332563165</v>
       </c>
       <c r="D19">
-        <v>1.042095154523367</v>
+        <v>1.02533484957284</v>
       </c>
       <c r="E19">
-        <v>1.033268156221127</v>
+        <v>1.020656735775022</v>
       </c>
       <c r="F19">
-        <v>1.046514739955441</v>
+        <v>1.031504559864948</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.060967588793282</v>
+        <v>1.04693221601045</v>
       </c>
       <c r="J19">
-        <v>1.047320972663982</v>
+        <v>1.03062236542194</v>
       </c>
       <c r="K19">
-        <v>1.0551639199749</v>
+        <v>1.038667866782565</v>
       </c>
       <c r="L19">
-        <v>1.046474724888704</v>
+        <v>1.034065500812846</v>
       </c>
       <c r="M19">
-        <v>1.05951562271612</v>
+        <v>1.04473902305364</v>
       </c>
       <c r="N19">
-        <v>1.04880828857456</v>
+        <v>1.014049961840736</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.017858744634887</v>
+        <v>1.002545962822526</v>
       </c>
       <c r="D20">
-        <v>1.039434521279428</v>
+        <v>1.024405998527833</v>
       </c>
       <c r="E20">
-        <v>1.030388237997144</v>
+        <v>1.019629666687146</v>
       </c>
       <c r="F20">
-        <v>1.043641275999138</v>
+        <v>1.030400083012346</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.059606091846143</v>
+        <v>1.046588902298964</v>
       </c>
       <c r="J20">
-        <v>1.04471818539255</v>
+        <v>1.029979093427907</v>
       </c>
       <c r="K20">
-        <v>1.052817678704449</v>
+        <v>1.038032856761076</v>
       </c>
       <c r="L20">
-        <v>1.043916994800806</v>
+        <v>1.033335915920194</v>
       </c>
       <c r="M20">
-        <v>1.056957826469378</v>
+        <v>1.043928647023875</v>
       </c>
       <c r="N20">
-        <v>1.046201805046658</v>
+        <v>1.013833971632953</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.006738158119235</v>
+        <v>0.9982858415071044</v>
       </c>
       <c r="D21">
-        <v>1.030493008246104</v>
+        <v>1.021348148262521</v>
       </c>
       <c r="E21">
-        <v>1.020706708027344</v>
+        <v>1.016250764351311</v>
       </c>
       <c r="F21">
-        <v>1.033987014822888</v>
+        <v>1.026765807393014</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.055008328102914</v>
+        <v>1.045447160369529</v>
       </c>
       <c r="J21">
-        <v>1.03595683632623</v>
+        <v>1.027855406220576</v>
       </c>
       <c r="K21">
-        <v>1.044918828089352</v>
+        <v>1.035936054615379</v>
       </c>
       <c r="L21">
-        <v>1.035306125105942</v>
+        <v>1.03093066570271</v>
       </c>
       <c r="M21">
-        <v>1.048351885512922</v>
+        <v>1.041257237274726</v>
       </c>
       <c r="N21">
-        <v>1.037428013859724</v>
+        <v>1.013120855337209</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9994318223443031</v>
+        <v>0.9955582130664652</v>
       </c>
       <c r="D22">
-        <v>1.024626477464649</v>
+        <v>1.01939544126491</v>
       </c>
       <c r="E22">
-        <v>1.014351978296569</v>
+        <v>1.014094745580339</v>
       </c>
       <c r="F22">
-        <v>1.027654712080288</v>
+        <v>1.02444628556248</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.051974465346598</v>
+        <v>1.044709246780309</v>
       </c>
       <c r="J22">
-        <v>1.030196973437695</v>
+        <v>1.026494606134849</v>
       </c>
       <c r="K22">
-        <v>1.039725371612119</v>
+        <v>1.034592219934048</v>
       </c>
       <c r="L22">
-        <v>1.029644382311201</v>
+        <v>1.029392060150021</v>
       </c>
       <c r="M22">
-        <v>1.042697534624835</v>
+        <v>1.039548529822583</v>
       </c>
       <c r="N22">
-        <v>1.031659971305221</v>
+        <v>1.012663880707589</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.00333681638419</v>
+        <v>0.9970089552085295</v>
       </c>
       <c r="D23">
-        <v>1.027761103121061</v>
+        <v>1.020433524857594</v>
       </c>
       <c r="E23">
-        <v>1.017747730119151</v>
+        <v>1.015240754529242</v>
       </c>
       <c r="F23">
-        <v>1.031038041683442</v>
+        <v>1.025679255421584</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.053597149067264</v>
+        <v>1.045102358632802</v>
       </c>
       <c r="J23">
-        <v>1.03327571810277</v>
+        <v>1.02721846452385</v>
       </c>
       <c r="K23">
-        <v>1.042501405254084</v>
+        <v>1.035307075934599</v>
       </c>
       <c r="L23">
-        <v>1.032670747650629</v>
+        <v>1.030210253144858</v>
       </c>
       <c r="M23">
-        <v>1.045719549913476</v>
+        <v>1.040457163276524</v>
       </c>
       <c r="N23">
-        <v>1.034743088140857</v>
+        <v>1.012906964099036</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.018040264864186</v>
+        <v>1.002616577493526</v>
       </c>
       <c r="D24">
-        <v>1.039580588957804</v>
+        <v>1.024456766853582</v>
       </c>
       <c r="E24">
-        <v>1.030546354978804</v>
+        <v>1.019685794634761</v>
       </c>
       <c r="F24">
-        <v>1.043799018570821</v>
+        <v>1.030460443846885</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.059680919288877</v>
+        <v>1.046607710088794</v>
       </c>
       <c r="J24">
-        <v>1.044861128683082</v>
+        <v>1.030014275128321</v>
       </c>
       <c r="K24">
-        <v>1.052946537107165</v>
+        <v>1.038067588154849</v>
       </c>
       <c r="L24">
-        <v>1.044057468218242</v>
+        <v>1.033375805583507</v>
       </c>
       <c r="M24">
-        <v>1.057098284913337</v>
+        <v>1.043972953227894</v>
       </c>
       <c r="N24">
-        <v>1.046344951333059</v>
+        <v>1.013845784733998</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.033907809177293</v>
+        <v>1.008921427849518</v>
       </c>
       <c r="D25">
-        <v>1.05236203390396</v>
+        <v>1.029000377773941</v>
       </c>
       <c r="E25">
-        <v>1.04437749129373</v>
+        <v>1.024713337149943</v>
       </c>
       <c r="F25">
-        <v>1.057606609956115</v>
+        <v>1.035865865948999</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.066190014390605</v>
+        <v>1.048270042160304</v>
       </c>
       <c r="J25">
-        <v>1.057345549110287</v>
+        <v>1.033152235875039</v>
       </c>
       <c r="K25">
-        <v>1.064198453549472</v>
+        <v>1.041164583059196</v>
       </c>
       <c r="L25">
-        <v>1.056323860225046</v>
+        <v>1.036939752033391</v>
       </c>
       <c r="M25">
-        <v>1.069371946180175</v>
+        <v>1.047931802227773</v>
       </c>
       <c r="N25">
-        <v>1.058847101069253</v>
+        <v>1.014899317166195</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_23/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_23/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.013798504142543</v>
+        <v>1.037008187272881</v>
       </c>
       <c r="D2">
-        <v>1.032529577350665</v>
+        <v>1.045203459796238</v>
       </c>
       <c r="E2">
-        <v>1.028624860044089</v>
+        <v>1.046113121317894</v>
       </c>
       <c r="F2">
-        <v>1.040069560008208</v>
+        <v>1.057626833267839</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04953057085614</v>
+        <v>1.041006179064552</v>
       </c>
       <c r="J2">
-        <v>1.03557419397209</v>
+        <v>1.042113398590972</v>
       </c>
       <c r="K2">
-        <v>1.043553588339538</v>
+        <v>1.047972358742998</v>
       </c>
       <c r="L2">
-        <v>1.039699304790775</v>
+        <v>1.04887946797452</v>
       </c>
       <c r="M2">
-        <v>1.050997521253489</v>
+        <v>1.060361286356204</v>
       </c>
       <c r="N2">
-        <v>1.015712254610767</v>
+        <v>1.017985882721226</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.017257115355584</v>
+        <v>1.037754295821383</v>
       </c>
       <c r="D3">
-        <v>1.035039979462754</v>
+        <v>1.045772430693646</v>
       </c>
       <c r="E3">
-        <v>1.031411118758118</v>
+        <v>1.046763536611334</v>
       </c>
       <c r="F3">
-        <v>1.043062897874526</v>
+        <v>1.058326402752791</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050409238450265</v>
+        <v>1.041157168498658</v>
       </c>
       <c r="J3">
-        <v>1.037288139228484</v>
+        <v>1.042504731225998</v>
       </c>
       <c r="K3">
-        <v>1.045243319568903</v>
+        <v>1.048353354407512</v>
       </c>
       <c r="L3">
-        <v>1.041657264556785</v>
+        <v>1.049341879369079</v>
       </c>
       <c r="M3">
-        <v>1.053172906391827</v>
+        <v>1.060875019614482</v>
       </c>
       <c r="N3">
-        <v>1.016287396087764</v>
+        <v>1.018116536212829</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.019458524816884</v>
+        <v>1.038237914142969</v>
       </c>
       <c r="D4">
-        <v>1.03664115454233</v>
+        <v>1.046141338139337</v>
       </c>
       <c r="E4">
-        <v>1.033190102955419</v>
+        <v>1.047185513464503</v>
       </c>
       <c r="F4">
-        <v>1.044973622998007</v>
+        <v>1.058780225670402</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050961270056484</v>
+        <v>1.041254127487823</v>
       </c>
       <c r="J4">
-        <v>1.038377245146831</v>
+        <v>1.042758077173767</v>
       </c>
       <c r="K4">
-        <v>1.046316585721903</v>
+        <v>1.048599924094189</v>
       </c>
       <c r="L4">
-        <v>1.04290379866346</v>
+        <v>1.04964151640736</v>
       </c>
       <c r="M4">
-        <v>1.054557943651267</v>
+        <v>1.0612079144454</v>
       </c>
       <c r="N4">
-        <v>1.016652783672339</v>
+        <v>1.018201095552936</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.020375484604398</v>
+        <v>1.038441425392033</v>
       </c>
       <c r="D5">
-        <v>1.037308854757035</v>
+        <v>1.046296603210284</v>
       </c>
       <c r="E5">
-        <v>1.033932406171272</v>
+        <v>1.047363177241426</v>
       </c>
       <c r="F5">
-        <v>1.045770783418437</v>
+        <v>1.058971286970401</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051189445014235</v>
+        <v>1.041294710780563</v>
       </c>
       <c r="J5">
-        <v>1.038830434137143</v>
+        <v>1.042864612948132</v>
       </c>
       <c r="K5">
-        <v>1.046763069100003</v>
+        <v>1.04870359012121</v>
       </c>
       <c r="L5">
-        <v>1.04342306586005</v>
+        <v>1.049767584170745</v>
       </c>
       <c r="M5">
-        <v>1.055134924518108</v>
+        <v>1.061347975353248</v>
       </c>
       <c r="N5">
-        <v>1.016804804987929</v>
+        <v>1.018236648059422</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.020528953690828</v>
+        <v>1.038475607382818</v>
       </c>
       <c r="D6">
-        <v>1.037420649500178</v>
+        <v>1.046322683182885</v>
       </c>
       <c r="E6">
-        <v>1.034056718892209</v>
+        <v>1.047393023231464</v>
       </c>
       <c r="F6">
-        <v>1.045904276382918</v>
+        <v>1.059003383012809</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05122752956362</v>
+        <v>1.041301514416999</v>
       </c>
       <c r="J6">
-        <v>1.03890625549773</v>
+        <v>1.042882502441319</v>
       </c>
       <c r="K6">
-        <v>1.046837761672612</v>
+        <v>1.04872099653793</v>
       </c>
       <c r="L6">
-        <v>1.043509976104685</v>
+        <v>1.049788757340523</v>
       </c>
       <c r="M6">
-        <v>1.05523149534636</v>
+        <v>1.061371498706411</v>
       </c>
       <c r="N6">
-        <v>1.016830237859416</v>
+        <v>1.018242617687626</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.019470810420736</v>
+        <v>1.038240632694426</v>
       </c>
       <c r="D7">
-        <v>1.036650097571833</v>
+        <v>1.046143412108316</v>
       </c>
       <c r="E7">
-        <v>1.033200043393237</v>
+        <v>1.04718788637917</v>
       </c>
       <c r="F7">
-        <v>1.044984298493346</v>
+        <v>1.058782777566523</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050964334187815</v>
+        <v>1.041254670465235</v>
       </c>
       <c r="J7">
-        <v>1.038383318903564</v>
+        <v>1.042759500597268</v>
       </c>
       <c r="K7">
-        <v>1.046322570067965</v>
+        <v>1.04860130925459</v>
       </c>
       <c r="L7">
-        <v>1.042910755762418</v>
+        <v>1.049643200538707</v>
       </c>
       <c r="M7">
-        <v>1.054565673925711</v>
+        <v>1.061209785508611</v>
       </c>
       <c r="N7">
-        <v>1.016654821184441</v>
+        <v>1.018201570593123</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.014975069285826</v>
+        <v>1.037260163757764</v>
       </c>
       <c r="D8">
-        <v>1.033382865124403</v>
+        <v>1.045395590651774</v>
       </c>
       <c r="E8">
-        <v>1.029571527750587</v>
+        <v>1.04633270012361</v>
       </c>
       <c r="F8">
-        <v>1.041086685403992</v>
+        <v>1.057863015591586</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049830977348764</v>
+        <v>1.041057359651761</v>
       </c>
       <c r="J8">
-        <v>1.036157618364687</v>
+        <v>1.042245624031661</v>
       </c>
       <c r="K8">
-        <v>1.044128861663339</v>
+        <v>1.04810110885539</v>
       </c>
       <c r="L8">
-        <v>1.040365295580561</v>
+        <v>1.049035652902244</v>
       </c>
       <c r="M8">
-        <v>1.051737450742471</v>
+        <v>1.0605348054644</v>
       </c>
       <c r="N8">
-        <v>1.015908047566314</v>
+        <v>1.018030033695462</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.006762092412286</v>
+        <v>1.03553894868167</v>
       </c>
       <c r="D9">
-        <v>1.02744185671991</v>
+        <v>1.044083630929036</v>
       </c>
       <c r="E9">
-        <v>1.022987835220255</v>
+        <v>1.04483438454398</v>
       </c>
       <c r="F9">
-        <v>1.034010960652819</v>
+        <v>1.056251222127377</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047704622535407</v>
+        <v>1.040704031196312</v>
       </c>
       <c r="J9">
-        <v>1.032078302897633</v>
+        <v>1.041341146862657</v>
       </c>
       <c r="K9">
-        <v>1.040104863308641</v>
+        <v>1.047220062408163</v>
       </c>
       <c r="L9">
-        <v>1.035718644380368</v>
+        <v>1.047968410205289</v>
       </c>
       <c r="M9">
-        <v>1.046575323050387</v>
+        <v>1.059349122811271</v>
       </c>
       <c r="N9">
-        <v>1.014538785401193</v>
+        <v>1.017727922162002</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.001075087877867</v>
+        <v>1.034395964617496</v>
       </c>
       <c r="D10">
-        <v>1.023349123346089</v>
+        <v>1.043213010340663</v>
       </c>
       <c r="E10">
-        <v>1.01846143979281</v>
+        <v>1.043841439609811</v>
       </c>
       <c r="F10">
-        <v>1.029143685377772</v>
+        <v>1.055182844130237</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046196252143254</v>
+        <v>1.040464734140937</v>
       </c>
       <c r="J10">
-        <v>1.029246115958503</v>
+        <v>1.040738944624008</v>
       </c>
       <c r="K10">
-        <v>1.037309222329847</v>
+        <v>1.046633034094863</v>
       </c>
       <c r="L10">
-        <v>1.032505180014849</v>
+        <v>1.047259253619486</v>
       </c>
       <c r="M10">
-        <v>1.043005950805773</v>
+        <v>1.058561276207512</v>
       </c>
       <c r="N10">
-        <v>1.013587851810418</v>
+        <v>1.017526650915423</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9985585486914568</v>
+        <v>1.033902131994614</v>
       </c>
       <c r="D11">
-        <v>1.021543600427686</v>
+        <v>1.042837001156774</v>
       </c>
       <c r="E11">
-        <v>1.01646663731027</v>
+        <v>1.043412917850508</v>
       </c>
       <c r="F11">
-        <v>1.026998027815432</v>
+        <v>1.054721712755062</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045520650996147</v>
+        <v>1.040360237934317</v>
       </c>
       <c r="J11">
-        <v>1.027991416916659</v>
+        <v>1.04047838785436</v>
       </c>
       <c r="K11">
-        <v>1.036070359466104</v>
+        <v>1.046378942498025</v>
       </c>
       <c r="L11">
-        <v>1.03108455763063</v>
+        <v>1.046952756287741</v>
       </c>
       <c r="M11">
-        <v>1.041428149704871</v>
+        <v>1.058220771685222</v>
       </c>
       <c r="N11">
-        <v>1.013166528476713</v>
+        <v>1.017439536965566</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9976153353216682</v>
+        <v>1.033718866042916</v>
       </c>
       <c r="D12">
-        <v>1.020867760127564</v>
+        <v>1.042697483243766</v>
       </c>
       <c r="E12">
-        <v>1.015720241067298</v>
+        <v>1.043253962865407</v>
       </c>
       <c r="F12">
-        <v>1.026195090807902</v>
+        <v>1.054550653277812</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04526624397334</v>
+        <v>1.040321292155192</v>
       </c>
       <c r="J12">
-        <v>1.027520962453836</v>
+        <v>1.040381637085501</v>
       </c>
       <c r="K12">
-        <v>1.03560579716675</v>
+        <v>1.04628457742136</v>
       </c>
       <c r="L12">
-        <v>1.03055233858639</v>
+        <v>1.046838997175922</v>
       </c>
       <c r="M12">
-        <v>1.040837072287696</v>
+        <v>1.058094390919105</v>
       </c>
       <c r="N12">
-        <v>1.013008546389432</v>
+        <v>1.017407185166802</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9978180462386422</v>
+        <v>1.033758169689011</v>
       </c>
       <c r="D13">
-        <v>1.021012967938924</v>
+        <v>1.042727403549539</v>
       </c>
       <c r="E13">
-        <v>1.015880595029961</v>
+        <v>1.043288049390187</v>
       </c>
       <c r="F13">
-        <v>1.026367596171907</v>
+        <v>1.054587335885097</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045320973039174</v>
+        <v>1.040329652082439</v>
       </c>
       <c r="J13">
-        <v>1.02762207820394</v>
+        <v>1.040402388999822</v>
       </c>
       <c r="K13">
-        <v>1.035705648443124</v>
+        <v>1.046304818309022</v>
       </c>
       <c r="L13">
-        <v>1.030666709225394</v>
+        <v>1.046863394898474</v>
       </c>
       <c r="M13">
-        <v>1.040964089986379</v>
+        <v>1.058121495567737</v>
       </c>
       <c r="N13">
-        <v>1.013042502013225</v>
+        <v>1.017414124448549</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9984807569694764</v>
+        <v>1.033886979785798</v>
       </c>
       <c r="D14">
-        <v>1.021487842171956</v>
+        <v>1.042825465518141</v>
       </c>
       <c r="E14">
-        <v>1.016405052099617</v>
+        <v>1.043399774140613</v>
       </c>
       <c r="F14">
-        <v>1.026931779365771</v>
+        <v>1.054707568316521</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045499692684338</v>
+        <v>1.040357021336451</v>
       </c>
       <c r="J14">
-        <v>1.027952619695412</v>
+        <v>1.040470389752258</v>
       </c>
       <c r="K14">
-        <v>1.036032049041961</v>
+        <v>1.046371141919214</v>
       </c>
       <c r="L14">
-        <v>1.031040657700786</v>
+        <v>1.046943351126426</v>
       </c>
       <c r="M14">
-        <v>1.041379394301826</v>
+        <v>1.058210323006219</v>
       </c>
       <c r="N14">
-        <v>1.013153500178758</v>
+        <v>1.0174368626263</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9988879435633424</v>
+        <v>1.033966365929007</v>
       </c>
       <c r="D15">
-        <v>1.021779734801511</v>
+        <v>1.042885904492844</v>
       </c>
       <c r="E15">
-        <v>1.016727460621997</v>
+        <v>1.043468640278432</v>
       </c>
       <c r="F15">
-        <v>1.027278596802876</v>
+        <v>1.054781677404596</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04560934688728</v>
+        <v>1.040373867071891</v>
       </c>
       <c r="J15">
-        <v>1.028155689268438</v>
+        <v>1.040512291493086</v>
       </c>
       <c r="K15">
-        <v>1.036232568839088</v>
+        <v>1.046412008230371</v>
       </c>
       <c r="L15">
-        <v>1.031270453819562</v>
+        <v>1.046992626461387</v>
       </c>
       <c r="M15">
-        <v>1.041634607714533</v>
+        <v>1.058265065535094</v>
       </c>
       <c r="N15">
-        <v>1.013221691739414</v>
+        <v>1.017450873205225</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.001240935217132</v>
+        <v>1.034428761748888</v>
       </c>
       <c r="D16">
-        <v>1.023468232347536</v>
+        <v>1.043237985560479</v>
       </c>
       <c r="E16">
-        <v>1.018593077042719</v>
+        <v>1.043869909506596</v>
       </c>
       <c r="F16">
-        <v>1.02928526435827</v>
+        <v>1.055213479357551</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046240609200665</v>
+        <v>1.040471650760836</v>
       </c>
       <c r="J16">
-        <v>1.029328776814457</v>
+        <v>1.040756241272794</v>
       </c>
       <c r="K16">
-        <v>1.037390833120033</v>
+        <v>1.046649899458461</v>
       </c>
       <c r="L16">
-        <v>1.032598834463061</v>
+        <v>1.047279607036395</v>
       </c>
       <c r="M16">
-        <v>1.043109970842103</v>
+        <v>1.058583887979412</v>
       </c>
       <c r="N16">
-        <v>1.013615608204273</v>
+        <v>1.017532433222579</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.002702203992682</v>
+        <v>1.034719102980913</v>
       </c>
       <c r="D17">
-        <v>1.024518331500752</v>
+        <v>1.043459099316366</v>
       </c>
       <c r="E17">
-        <v>1.019753860008734</v>
+        <v>1.044121999514667</v>
       </c>
       <c r="F17">
-        <v>1.030533641958138</v>
+        <v>1.05548473613828</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046630510853622</v>
+        <v>1.040532753133542</v>
       </c>
       <c r="J17">
-        <v>1.030056935077555</v>
+        <v>1.040909319303331</v>
       </c>
       <c r="K17">
-        <v>1.038109701844024</v>
+        <v>1.04679914897997</v>
       </c>
       <c r="L17">
-        <v>1.033424176173543</v>
+        <v>1.047459776740192</v>
       </c>
       <c r="M17">
-        <v>1.044026679462474</v>
+        <v>1.058784049085495</v>
       </c>
       <c r="N17">
-        <v>1.013860108805465</v>
+        <v>1.017583604160081</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.00354934830778</v>
+        <v>1.034888558846096</v>
       </c>
       <c r="D18">
-        <v>1.025127632058711</v>
+        <v>1.043588165187617</v>
       </c>
       <c r="E18">
-        <v>1.020427577380039</v>
+        <v>1.044269177170619</v>
       </c>
       <c r="F18">
-        <v>1.03125813929087</v>
+        <v>1.055643098590611</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046855772009179</v>
+        <v>1.040568308247395</v>
       </c>
       <c r="J18">
-        <v>1.030478932910035</v>
+        <v>1.04099862640307</v>
       </c>
       <c r="K18">
-        <v>1.038526281781879</v>
+        <v>1.046886212817997</v>
       </c>
       <c r="L18">
-        <v>1.03390278022008</v>
+        <v>1.047564921771474</v>
       </c>
       <c r="M18">
-        <v>1.044558281230829</v>
+        <v>1.058900861128508</v>
       </c>
       <c r="N18">
-        <v>1.014001802500306</v>
+        <v>1.017613454917374</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.003837332563165</v>
+        <v>1.034946356616454</v>
       </c>
       <c r="D19">
-        <v>1.02533484957284</v>
+        <v>1.043632189186894</v>
       </c>
       <c r="E19">
-        <v>1.020656735775022</v>
+        <v>1.044319384256135</v>
       </c>
       <c r="F19">
-        <v>1.031504559864948</v>
+        <v>1.055697120270333</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04693221601045</v>
+        <v>1.040580417202502</v>
       </c>
       <c r="J19">
-        <v>1.03062236542194</v>
+        <v>1.041029081041233</v>
       </c>
       <c r="K19">
-        <v>1.038667866782565</v>
+        <v>1.046915900837534</v>
       </c>
       <c r="L19">
-        <v>1.034065500812846</v>
+        <v>1.047600782803086</v>
       </c>
       <c r="M19">
-        <v>1.04473902305364</v>
+        <v>1.058940701383186</v>
       </c>
       <c r="N19">
-        <v>1.014049961840736</v>
+        <v>1.017623633851633</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.002545962822526</v>
+        <v>1.034687941265505</v>
       </c>
       <c r="D20">
-        <v>1.024405998527833</v>
+        <v>1.043435366169152</v>
       </c>
       <c r="E20">
-        <v>1.019629666687146</v>
+        <v>1.044094938371099</v>
       </c>
       <c r="F20">
-        <v>1.030400083012346</v>
+        <v>1.05545561804845</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046588902298964</v>
+        <v>1.040526206199406</v>
       </c>
       <c r="J20">
-        <v>1.029979093427907</v>
+        <v>1.04089289347526</v>
       </c>
       <c r="K20">
-        <v>1.038032856761076</v>
+        <v>1.046783134964929</v>
       </c>
       <c r="L20">
-        <v>1.033335915920194</v>
+        <v>1.047440440525589</v>
       </c>
       <c r="M20">
-        <v>1.043928647023875</v>
+        <v>1.058762567322829</v>
       </c>
       <c r="N20">
-        <v>1.013833971632953</v>
+        <v>1.017578113625097</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9982858415071044</v>
+        <v>1.033849043837606</v>
       </c>
       <c r="D21">
-        <v>1.021348148262521</v>
+        <v>1.04279658459237</v>
       </c>
       <c r="E21">
-        <v>1.016250764351311</v>
+        <v>1.043366867975927</v>
       </c>
       <c r="F21">
-        <v>1.026765807393014</v>
+        <v>1.054672156625071</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045447160369529</v>
+        <v>1.040348965389412</v>
       </c>
       <c r="J21">
-        <v>1.027855406220576</v>
+        <v>1.040450364341106</v>
       </c>
       <c r="K21">
-        <v>1.035936054615379</v>
+        <v>1.046351610819329</v>
       </c>
       <c r="L21">
-        <v>1.03093066570271</v>
+        <v>1.046919803577229</v>
       </c>
       <c r="M21">
-        <v>1.041257237274726</v>
+        <v>1.058184162825387</v>
       </c>
       <c r="N21">
-        <v>1.013120855337209</v>
+        <v>1.017430166624356</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9955582130664652</v>
+        <v>1.033322554170403</v>
       </c>
       <c r="D22">
-        <v>1.01939544126491</v>
+        <v>1.042395818288857</v>
       </c>
       <c r="E22">
-        <v>1.014094745580339</v>
+        <v>1.042910358264061</v>
       </c>
       <c r="F22">
-        <v>1.02444628556248</v>
+        <v>1.054180867724724</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044709246780309</v>
+        <v>1.040236768179628</v>
       </c>
       <c r="J22">
-        <v>1.026494606134849</v>
+        <v>1.040172312352786</v>
       </c>
       <c r="K22">
-        <v>1.034592219934048</v>
+        <v>1.046080386941103</v>
       </c>
       <c r="L22">
-        <v>1.029392060150021</v>
+        <v>1.046592966376857</v>
       </c>
       <c r="M22">
-        <v>1.039548529822583</v>
+        <v>1.057821063583884</v>
       </c>
       <c r="N22">
-        <v>1.012663880707589</v>
+        <v>1.017337182605446</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9970089552085295</v>
+        <v>1.03360156473394</v>
       </c>
       <c r="D23">
-        <v>1.020433524857594</v>
+        <v>1.042608189768606</v>
       </c>
       <c r="E23">
-        <v>1.015240754529242</v>
+        <v>1.043152242799142</v>
       </c>
       <c r="F23">
-        <v>1.025679255421584</v>
+        <v>1.054441184827775</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045102358632802</v>
+        <v>1.040296317700512</v>
       </c>
       <c r="J23">
-        <v>1.02721846452385</v>
+        <v>1.04031969508089</v>
       </c>
       <c r="K23">
-        <v>1.035307075934599</v>
+        <v>1.046224158583505</v>
       </c>
       <c r="L23">
-        <v>1.030210253144858</v>
+        <v>1.046766180254543</v>
       </c>
       <c r="M23">
-        <v>1.040457163276524</v>
+        <v>1.058013495024388</v>
       </c>
       <c r="N23">
-        <v>1.012906964099036</v>
+        <v>1.017386471595611</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.002616577493526</v>
+        <v>1.034702021580034</v>
       </c>
       <c r="D24">
-        <v>1.024456766853582</v>
+        <v>1.043446089866775</v>
       </c>
       <c r="E24">
-        <v>1.019685794634761</v>
+        <v>1.044107165711518</v>
       </c>
       <c r="F24">
-        <v>1.030460443846885</v>
+        <v>1.055468774818476</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046607710088794</v>
+        <v>1.040529164739469</v>
       </c>
       <c r="J24">
-        <v>1.030014275128321</v>
+        <v>1.040900315540569</v>
       </c>
       <c r="K24">
-        <v>1.038067588154849</v>
+        <v>1.046790370981046</v>
       </c>
       <c r="L24">
-        <v>1.033375805583507</v>
+        <v>1.04744917755866</v>
       </c>
       <c r="M24">
-        <v>1.043972953227894</v>
+        <v>1.058772273817077</v>
       </c>
       <c r="N24">
-        <v>1.013845784733998</v>
+        <v>1.01758059455042</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.008921427849518</v>
+        <v>1.035983141316066</v>
       </c>
       <c r="D25">
-        <v>1.029000377773941</v>
+        <v>1.044422104428382</v>
       </c>
       <c r="E25">
-        <v>1.024713337149943</v>
+        <v>1.045220698855064</v>
       </c>
       <c r="F25">
-        <v>1.035865865948999</v>
+        <v>1.056666835244105</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048270042160304</v>
+        <v>1.040796038653067</v>
       </c>
       <c r="J25">
-        <v>1.033152235875039</v>
+        <v>1.041574844106985</v>
       </c>
       <c r="K25">
-        <v>1.041164583059196</v>
+        <v>1.047447781166116</v>
       </c>
       <c r="L25">
-        <v>1.036939752033391</v>
+        <v>1.048243912936276</v>
       </c>
       <c r="M25">
-        <v>1.047931802227773</v>
+        <v>1.059655198362541</v>
       </c>
       <c r="N25">
-        <v>1.014899317166195</v>
+        <v>1.017806003375775</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_23/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_23/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.037008187272881</v>
+        <v>1.013798504142543</v>
       </c>
       <c r="D2">
-        <v>1.045203459796238</v>
+        <v>1.032529577350665</v>
       </c>
       <c r="E2">
-        <v>1.046113121317894</v>
+        <v>1.028624860044089</v>
       </c>
       <c r="F2">
-        <v>1.057626833267839</v>
+        <v>1.040069560008208</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041006179064552</v>
+        <v>1.04953057085614</v>
       </c>
       <c r="J2">
-        <v>1.042113398590972</v>
+        <v>1.035574193972091</v>
       </c>
       <c r="K2">
-        <v>1.047972358742998</v>
+        <v>1.043553588339539</v>
       </c>
       <c r="L2">
-        <v>1.04887946797452</v>
+        <v>1.039699304790775</v>
       </c>
       <c r="M2">
-        <v>1.060361286356204</v>
+        <v>1.050997521253489</v>
       </c>
       <c r="N2">
-        <v>1.017985882721226</v>
+        <v>1.015712254610767</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.037754295821383</v>
+        <v>1.017257115355582</v>
       </c>
       <c r="D3">
-        <v>1.045772430693646</v>
+        <v>1.035039979462753</v>
       </c>
       <c r="E3">
-        <v>1.046763536611334</v>
+        <v>1.031411118758118</v>
       </c>
       <c r="F3">
-        <v>1.058326402752791</v>
+        <v>1.043062897874525</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041157168498658</v>
+        <v>1.050409238450264</v>
       </c>
       <c r="J3">
-        <v>1.042504731225998</v>
+        <v>1.037288139228483</v>
       </c>
       <c r="K3">
-        <v>1.048353354407512</v>
+        <v>1.045243319568903</v>
       </c>
       <c r="L3">
-        <v>1.049341879369079</v>
+        <v>1.041657264556785</v>
       </c>
       <c r="M3">
-        <v>1.060875019614482</v>
+        <v>1.053172906391826</v>
       </c>
       <c r="N3">
-        <v>1.018116536212829</v>
+        <v>1.016287396087763</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.038237914142969</v>
+        <v>1.019458524816884</v>
       </c>
       <c r="D4">
-        <v>1.046141338139337</v>
+        <v>1.03664115454233</v>
       </c>
       <c r="E4">
-        <v>1.047185513464503</v>
+        <v>1.033190102955419</v>
       </c>
       <c r="F4">
-        <v>1.058780225670402</v>
+        <v>1.044973622998007</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041254127487823</v>
+        <v>1.050961270056484</v>
       </c>
       <c r="J4">
-        <v>1.042758077173767</v>
+        <v>1.03837724514683</v>
       </c>
       <c r="K4">
-        <v>1.048599924094189</v>
+        <v>1.046316585721903</v>
       </c>
       <c r="L4">
-        <v>1.04964151640736</v>
+        <v>1.04290379866346</v>
       </c>
       <c r="M4">
-        <v>1.0612079144454</v>
+        <v>1.054557943651267</v>
       </c>
       <c r="N4">
-        <v>1.018201095552936</v>
+        <v>1.016652783672338</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C5">
-        <v>1.038441425392033</v>
+        <v>1.020375484604398</v>
       </c>
       <c r="D5">
-        <v>1.046296603210284</v>
+        <v>1.037308854757036</v>
       </c>
       <c r="E5">
-        <v>1.047363177241426</v>
+        <v>1.033932406171273</v>
       </c>
       <c r="F5">
-        <v>1.058971286970401</v>
+        <v>1.045770783418438</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041294710780563</v>
+        <v>1.051189445014236</v>
       </c>
       <c r="J5">
-        <v>1.042864612948132</v>
+        <v>1.038830434137144</v>
       </c>
       <c r="K5">
-        <v>1.04870359012121</v>
+        <v>1.046763069100004</v>
       </c>
       <c r="L5">
-        <v>1.049767584170745</v>
+        <v>1.04342306586005</v>
       </c>
       <c r="M5">
-        <v>1.061347975353248</v>
+        <v>1.055134924518109</v>
       </c>
       <c r="N5">
-        <v>1.018236648059422</v>
+        <v>1.016804804987929</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.038475607382818</v>
+        <v>1.020528953690828</v>
       </c>
       <c r="D6">
-        <v>1.046322683182885</v>
+        <v>1.037420649500178</v>
       </c>
       <c r="E6">
-        <v>1.047393023231464</v>
+        <v>1.034056718892209</v>
       </c>
       <c r="F6">
-        <v>1.059003383012809</v>
+        <v>1.045904276382919</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041301514416999</v>
+        <v>1.05122752956362</v>
       </c>
       <c r="J6">
-        <v>1.042882502441319</v>
+        <v>1.038906255497731</v>
       </c>
       <c r="K6">
-        <v>1.04872099653793</v>
+        <v>1.046837761672612</v>
       </c>
       <c r="L6">
-        <v>1.049788757340523</v>
+        <v>1.043509976104685</v>
       </c>
       <c r="M6">
-        <v>1.061371498706411</v>
+        <v>1.05523149534636</v>
       </c>
       <c r="N6">
-        <v>1.018242617687626</v>
+        <v>1.016830237859416</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.038240632694426</v>
+        <v>1.019470810420736</v>
       </c>
       <c r="D7">
-        <v>1.046143412108316</v>
+        <v>1.036650097571833</v>
       </c>
       <c r="E7">
-        <v>1.04718788637917</v>
+        <v>1.033200043393237</v>
       </c>
       <c r="F7">
-        <v>1.058782777566523</v>
+        <v>1.044984298493345</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041254670465235</v>
+        <v>1.050964334187815</v>
       </c>
       <c r="J7">
-        <v>1.042759500597268</v>
+        <v>1.038383318903564</v>
       </c>
       <c r="K7">
-        <v>1.04860130925459</v>
+        <v>1.046322570067965</v>
       </c>
       <c r="L7">
-        <v>1.049643200538707</v>
+        <v>1.042910755762418</v>
       </c>
       <c r="M7">
-        <v>1.061209785508611</v>
+        <v>1.054565673925711</v>
       </c>
       <c r="N7">
-        <v>1.018201570593123</v>
+        <v>1.016654821184441</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.037260163757764</v>
+        <v>1.014975069285826</v>
       </c>
       <c r="D8">
-        <v>1.045395590651774</v>
+        <v>1.033382865124404</v>
       </c>
       <c r="E8">
-        <v>1.04633270012361</v>
+        <v>1.029571527750588</v>
       </c>
       <c r="F8">
-        <v>1.057863015591586</v>
+        <v>1.041086685403993</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041057359651761</v>
+        <v>1.049830977348764</v>
       </c>
       <c r="J8">
-        <v>1.042245624031661</v>
+        <v>1.036157618364687</v>
       </c>
       <c r="K8">
-        <v>1.04810110885539</v>
+        <v>1.04412886166334</v>
       </c>
       <c r="L8">
-        <v>1.049035652902244</v>
+        <v>1.040365295580562</v>
       </c>
       <c r="M8">
-        <v>1.0605348054644</v>
+        <v>1.051737450742472</v>
       </c>
       <c r="N8">
-        <v>1.018030033695462</v>
+        <v>1.015908047566314</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.03553894868167</v>
+        <v>1.006762092412286</v>
       </c>
       <c r="D9">
-        <v>1.044083630929036</v>
+        <v>1.027441856719911</v>
       </c>
       <c r="E9">
-        <v>1.04483438454398</v>
+        <v>1.022987835220255</v>
       </c>
       <c r="F9">
-        <v>1.056251222127377</v>
+        <v>1.03401096065282</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040704031196312</v>
+        <v>1.047704622535407</v>
       </c>
       <c r="J9">
-        <v>1.041341146862657</v>
+        <v>1.032078302897634</v>
       </c>
       <c r="K9">
-        <v>1.047220062408163</v>
+        <v>1.040104863308641</v>
       </c>
       <c r="L9">
-        <v>1.047968410205289</v>
+        <v>1.035718644380368</v>
       </c>
       <c r="M9">
-        <v>1.059349122811271</v>
+        <v>1.046575323050387</v>
       </c>
       <c r="N9">
-        <v>1.017727922162002</v>
+        <v>1.014538785401193</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.034395964617496</v>
+        <v>1.001075087877867</v>
       </c>
       <c r="D10">
-        <v>1.043213010340663</v>
+        <v>1.023349123346088</v>
       </c>
       <c r="E10">
-        <v>1.043841439609811</v>
+        <v>1.018461439792809</v>
       </c>
       <c r="F10">
-        <v>1.055182844130237</v>
+        <v>1.029143685377772</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040464734140937</v>
+        <v>1.046196252143254</v>
       </c>
       <c r="J10">
-        <v>1.040738944624008</v>
+        <v>1.029246115958503</v>
       </c>
       <c r="K10">
-        <v>1.046633034094863</v>
+        <v>1.037309222329847</v>
       </c>
       <c r="L10">
-        <v>1.047259253619486</v>
+        <v>1.032505180014849</v>
       </c>
       <c r="M10">
-        <v>1.058561276207512</v>
+        <v>1.043005950805773</v>
       </c>
       <c r="N10">
-        <v>1.017526650915423</v>
+        <v>1.013587851810418</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.033902131994614</v>
+        <v>0.9985585486914571</v>
       </c>
       <c r="D11">
-        <v>1.042837001156774</v>
+        <v>1.021543600427686</v>
       </c>
       <c r="E11">
-        <v>1.043412917850508</v>
+        <v>1.016466637310271</v>
       </c>
       <c r="F11">
-        <v>1.054721712755062</v>
+        <v>1.026998027815432</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040360237934317</v>
+        <v>1.045520650996148</v>
       </c>
       <c r="J11">
-        <v>1.04047838785436</v>
+        <v>1.027991416916659</v>
       </c>
       <c r="K11">
-        <v>1.046378942498025</v>
+        <v>1.036070359466104</v>
       </c>
       <c r="L11">
-        <v>1.046952756287741</v>
+        <v>1.03108455763063</v>
       </c>
       <c r="M11">
-        <v>1.058220771685222</v>
+        <v>1.041428149704871</v>
       </c>
       <c r="N11">
-        <v>1.017439536965566</v>
+        <v>1.013166528476713</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.033718866042916</v>
+        <v>0.9976153353216681</v>
       </c>
       <c r="D12">
-        <v>1.042697483243766</v>
+        <v>1.020867760127564</v>
       </c>
       <c r="E12">
-        <v>1.043253962865407</v>
+        <v>1.015720241067298</v>
       </c>
       <c r="F12">
-        <v>1.054550653277812</v>
+        <v>1.026195090807903</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040321292155192</v>
+        <v>1.04526624397334</v>
       </c>
       <c r="J12">
-        <v>1.040381637085501</v>
+        <v>1.027520962453836</v>
       </c>
       <c r="K12">
-        <v>1.04628457742136</v>
+        <v>1.03560579716675</v>
       </c>
       <c r="L12">
-        <v>1.046838997175922</v>
+        <v>1.03055233858639</v>
       </c>
       <c r="M12">
-        <v>1.058094390919105</v>
+        <v>1.040837072287697</v>
       </c>
       <c r="N12">
-        <v>1.017407185166802</v>
+        <v>1.013008546389432</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.033758169689011</v>
+        <v>0.997818046238642</v>
       </c>
       <c r="D13">
-        <v>1.042727403549539</v>
+        <v>1.021012967938924</v>
       </c>
       <c r="E13">
-        <v>1.043288049390187</v>
+        <v>1.015880595029961</v>
       </c>
       <c r="F13">
-        <v>1.054587335885097</v>
+        <v>1.026367596171907</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040329652082439</v>
+        <v>1.045320973039174</v>
       </c>
       <c r="J13">
-        <v>1.040402388999822</v>
+        <v>1.02762207820394</v>
       </c>
       <c r="K13">
-        <v>1.046304818309022</v>
+        <v>1.035705648443125</v>
       </c>
       <c r="L13">
-        <v>1.046863394898474</v>
+        <v>1.030666709225394</v>
       </c>
       <c r="M13">
-        <v>1.058121495567737</v>
+        <v>1.04096408998638</v>
       </c>
       <c r="N13">
-        <v>1.017414124448549</v>
+        <v>1.013042502013225</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.033886979785798</v>
+        <v>0.9984807569694769</v>
       </c>
       <c r="D14">
-        <v>1.042825465518141</v>
+        <v>1.021487842171956</v>
       </c>
       <c r="E14">
-        <v>1.043399774140613</v>
+        <v>1.016405052099617</v>
       </c>
       <c r="F14">
-        <v>1.054707568316521</v>
+        <v>1.026931779365772</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040357021336451</v>
+        <v>1.045499692684339</v>
       </c>
       <c r="J14">
-        <v>1.040470389752258</v>
+        <v>1.027952619695412</v>
       </c>
       <c r="K14">
-        <v>1.046371141919214</v>
+        <v>1.036032049041962</v>
       </c>
       <c r="L14">
-        <v>1.046943351126426</v>
+        <v>1.031040657700786</v>
       </c>
       <c r="M14">
-        <v>1.058210323006219</v>
+        <v>1.041379394301827</v>
       </c>
       <c r="N14">
-        <v>1.0174368626263</v>
+        <v>1.013153500178758</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.033966365929007</v>
+        <v>0.9988879435633413</v>
       </c>
       <c r="D15">
-        <v>1.042885904492844</v>
+        <v>1.02177973480151</v>
       </c>
       <c r="E15">
-        <v>1.043468640278432</v>
+        <v>1.016727460621996</v>
       </c>
       <c r="F15">
-        <v>1.054781677404596</v>
+        <v>1.027278596802875</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040373867071891</v>
+        <v>1.04560934688728</v>
       </c>
       <c r="J15">
-        <v>1.040512291493086</v>
+        <v>1.028155689268437</v>
       </c>
       <c r="K15">
-        <v>1.046412008230371</v>
+        <v>1.036232568839087</v>
       </c>
       <c r="L15">
-        <v>1.046992626461387</v>
+        <v>1.031270453819561</v>
       </c>
       <c r="M15">
-        <v>1.058265065535094</v>
+        <v>1.041634607714532</v>
       </c>
       <c r="N15">
-        <v>1.017450873205225</v>
+        <v>1.013221691739414</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.034428761748888</v>
+        <v>1.001240935217132</v>
       </c>
       <c r="D16">
-        <v>1.043237985560479</v>
+        <v>1.023468232347536</v>
       </c>
       <c r="E16">
-        <v>1.043869909506596</v>
+        <v>1.018593077042719</v>
       </c>
       <c r="F16">
-        <v>1.055213479357551</v>
+        <v>1.029285264358271</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040471650760836</v>
+        <v>1.046240609200665</v>
       </c>
       <c r="J16">
-        <v>1.040756241272794</v>
+        <v>1.029328776814457</v>
       </c>
       <c r="K16">
-        <v>1.046649899458461</v>
+        <v>1.037390833120033</v>
       </c>
       <c r="L16">
-        <v>1.047279607036395</v>
+        <v>1.032598834463061</v>
       </c>
       <c r="M16">
-        <v>1.058583887979412</v>
+        <v>1.043109970842104</v>
       </c>
       <c r="N16">
-        <v>1.017532433222579</v>
+        <v>1.013615608204273</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.034719102980913</v>
+        <v>1.002702203992682</v>
       </c>
       <c r="D17">
-        <v>1.043459099316366</v>
+        <v>1.024518331500752</v>
       </c>
       <c r="E17">
-        <v>1.044121999514667</v>
+        <v>1.019753860008733</v>
       </c>
       <c r="F17">
-        <v>1.05548473613828</v>
+        <v>1.030533641958138</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040532753133542</v>
+        <v>1.046630510853621</v>
       </c>
       <c r="J17">
-        <v>1.040909319303331</v>
+        <v>1.030056935077555</v>
       </c>
       <c r="K17">
-        <v>1.04679914897997</v>
+        <v>1.038109701844024</v>
       </c>
       <c r="L17">
-        <v>1.047459776740192</v>
+        <v>1.033424176173543</v>
       </c>
       <c r="M17">
-        <v>1.058784049085495</v>
+        <v>1.044026679462473</v>
       </c>
       <c r="N17">
-        <v>1.017583604160081</v>
+        <v>1.013860108805464</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.034888558846096</v>
+        <v>1.00354934830778</v>
       </c>
       <c r="D18">
-        <v>1.043588165187617</v>
+        <v>1.025127632058711</v>
       </c>
       <c r="E18">
-        <v>1.044269177170619</v>
+        <v>1.02042757738004</v>
       </c>
       <c r="F18">
-        <v>1.055643098590611</v>
+        <v>1.031258139290871</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040568308247395</v>
+        <v>1.046855772009179</v>
       </c>
       <c r="J18">
-        <v>1.04099862640307</v>
+        <v>1.030478932910035</v>
       </c>
       <c r="K18">
-        <v>1.046886212817997</v>
+        <v>1.038526281781879</v>
       </c>
       <c r="L18">
-        <v>1.047564921771474</v>
+        <v>1.033902780220081</v>
       </c>
       <c r="M18">
-        <v>1.058900861128508</v>
+        <v>1.04455828123083</v>
       </c>
       <c r="N18">
-        <v>1.017613454917374</v>
+        <v>1.014001802500306</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.034946356616454</v>
+        <v>1.003837332563166</v>
       </c>
       <c r="D19">
-        <v>1.043632189186894</v>
+        <v>1.025334849572841</v>
       </c>
       <c r="E19">
-        <v>1.044319384256135</v>
+        <v>1.020656735775023</v>
       </c>
       <c r="F19">
-        <v>1.055697120270333</v>
+        <v>1.031504559864949</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040580417202502</v>
+        <v>1.046932216010451</v>
       </c>
       <c r="J19">
-        <v>1.041029081041233</v>
+        <v>1.03062236542194</v>
       </c>
       <c r="K19">
-        <v>1.046915900837534</v>
+        <v>1.038667866782565</v>
       </c>
       <c r="L19">
-        <v>1.047600782803086</v>
+        <v>1.034065500812846</v>
       </c>
       <c r="M19">
-        <v>1.058940701383186</v>
+        <v>1.044739023053642</v>
       </c>
       <c r="N19">
-        <v>1.017623633851633</v>
+        <v>1.014049961840736</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.034687941265505</v>
+        <v>1.002545962822526</v>
       </c>
       <c r="D20">
-        <v>1.043435366169152</v>
+        <v>1.024405998527833</v>
       </c>
       <c r="E20">
-        <v>1.044094938371099</v>
+        <v>1.019629666687146</v>
       </c>
       <c r="F20">
-        <v>1.05545561804845</v>
+        <v>1.030400083012347</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040526206199406</v>
+        <v>1.046588902298964</v>
       </c>
       <c r="J20">
-        <v>1.04089289347526</v>
+        <v>1.029979093427907</v>
       </c>
       <c r="K20">
-        <v>1.046783134964929</v>
+        <v>1.038032856761076</v>
       </c>
       <c r="L20">
-        <v>1.047440440525589</v>
+        <v>1.033335915920195</v>
       </c>
       <c r="M20">
-        <v>1.058762567322829</v>
+        <v>1.043928647023876</v>
       </c>
       <c r="N20">
-        <v>1.017578113625097</v>
+        <v>1.013833971632953</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.033849043837606</v>
+        <v>0.9982858415071045</v>
       </c>
       <c r="D21">
-        <v>1.04279658459237</v>
+        <v>1.021348148262521</v>
       </c>
       <c r="E21">
-        <v>1.043366867975927</v>
+        <v>1.01625076435131</v>
       </c>
       <c r="F21">
-        <v>1.054672156625071</v>
+        <v>1.026765807393013</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040348965389412</v>
+        <v>1.045447160369529</v>
       </c>
       <c r="J21">
-        <v>1.040450364341106</v>
+        <v>1.027855406220576</v>
       </c>
       <c r="K21">
-        <v>1.046351610819329</v>
+        <v>1.03593605461538</v>
       </c>
       <c r="L21">
-        <v>1.046919803577229</v>
+        <v>1.030930665702709</v>
       </c>
       <c r="M21">
-        <v>1.058184162825387</v>
+        <v>1.041257237274726</v>
       </c>
       <c r="N21">
-        <v>1.017430166624356</v>
+        <v>1.013120855337209</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.033322554170403</v>
+        <v>0.995558213066465</v>
       </c>
       <c r="D22">
-        <v>1.042395818288857</v>
+        <v>1.01939544126491</v>
       </c>
       <c r="E22">
-        <v>1.042910358264061</v>
+        <v>1.014094745580339</v>
       </c>
       <c r="F22">
-        <v>1.054180867724724</v>
+        <v>1.02444628556248</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040236768179628</v>
+        <v>1.044709246780309</v>
       </c>
       <c r="J22">
-        <v>1.040172312352786</v>
+        <v>1.026494606134848</v>
       </c>
       <c r="K22">
-        <v>1.046080386941103</v>
+        <v>1.034592219934048</v>
       </c>
       <c r="L22">
-        <v>1.046592966376857</v>
+        <v>1.02939206015002</v>
       </c>
       <c r="M22">
-        <v>1.057821063583884</v>
+        <v>1.039548529822583</v>
       </c>
       <c r="N22">
-        <v>1.017337182605446</v>
+        <v>1.012663880707589</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.03360156473394</v>
+        <v>0.9970089552085294</v>
       </c>
       <c r="D23">
-        <v>1.042608189768606</v>
+        <v>1.020433524857594</v>
       </c>
       <c r="E23">
-        <v>1.043152242799142</v>
+        <v>1.015240754529242</v>
       </c>
       <c r="F23">
-        <v>1.054441184827775</v>
+        <v>1.025679255421584</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040296317700512</v>
+        <v>1.045102358632802</v>
       </c>
       <c r="J23">
-        <v>1.04031969508089</v>
+        <v>1.02721846452385</v>
       </c>
       <c r="K23">
-        <v>1.046224158583505</v>
+        <v>1.0353070759346</v>
       </c>
       <c r="L23">
-        <v>1.046766180254543</v>
+        <v>1.030210253144859</v>
       </c>
       <c r="M23">
-        <v>1.058013495024388</v>
+        <v>1.040457163276525</v>
       </c>
       <c r="N23">
-        <v>1.017386471595611</v>
+        <v>1.012906964099036</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.034702021580034</v>
+        <v>1.002616577493527</v>
       </c>
       <c r="D24">
-        <v>1.043446089866775</v>
+        <v>1.024456766853583</v>
       </c>
       <c r="E24">
-        <v>1.044107165711518</v>
+        <v>1.019685794634761</v>
       </c>
       <c r="F24">
-        <v>1.055468774818476</v>
+        <v>1.030460443846886</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040529164739469</v>
+        <v>1.046607710088794</v>
       </c>
       <c r="J24">
-        <v>1.040900315540569</v>
+        <v>1.030014275128322</v>
       </c>
       <c r="K24">
-        <v>1.046790370981046</v>
+        <v>1.038067588154849</v>
       </c>
       <c r="L24">
-        <v>1.04744917755866</v>
+        <v>1.033375805583508</v>
       </c>
       <c r="M24">
-        <v>1.058772273817077</v>
+        <v>1.043972953227895</v>
       </c>
       <c r="N24">
-        <v>1.01758059455042</v>
+        <v>1.013845784733998</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.035983141316066</v>
+        <v>1.008921427849518</v>
       </c>
       <c r="D25">
-        <v>1.044422104428382</v>
+        <v>1.02900037777394</v>
       </c>
       <c r="E25">
-        <v>1.045220698855064</v>
+        <v>1.024713337149943</v>
       </c>
       <c r="F25">
-        <v>1.056666835244105</v>
+        <v>1.035865865948999</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040796038653067</v>
+        <v>1.048270042160303</v>
       </c>
       <c r="J25">
-        <v>1.041574844106985</v>
+        <v>1.033152235875039</v>
       </c>
       <c r="K25">
-        <v>1.047447781166116</v>
+        <v>1.041164583059195</v>
       </c>
       <c r="L25">
-        <v>1.048243912936276</v>
+        <v>1.03693975203339</v>
       </c>
       <c r="M25">
-        <v>1.059655198362541</v>
+        <v>1.047931802227773</v>
       </c>
       <c r="N25">
-        <v>1.017806003375775</v>
+        <v>1.014899317166195</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_23/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_23/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.013798504142543</v>
+        <v>1.032323050455471</v>
       </c>
       <c r="D2">
-        <v>1.032529577350665</v>
+        <v>1.048820813532304</v>
       </c>
       <c r="E2">
-        <v>1.028624860044089</v>
+        <v>1.044031505793654</v>
       </c>
       <c r="F2">
-        <v>1.040069560008208</v>
+        <v>1.054255220242646</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04953057085614</v>
+        <v>1.06440992249954</v>
       </c>
       <c r="J2">
-        <v>1.035574193972091</v>
+        <v>1.053578168520454</v>
       </c>
       <c r="K2">
-        <v>1.043553588339539</v>
+        <v>1.059639451262763</v>
       </c>
       <c r="L2">
-        <v>1.039699304790775</v>
+        <v>1.054909690112543</v>
       </c>
       <c r="M2">
-        <v>1.050997521253489</v>
+        <v>1.065007105377751</v>
       </c>
       <c r="N2">
-        <v>1.015712254610767</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.021218854935029</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.060020896415609</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.053240344766123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.017257115355582</v>
+        <v>1.036171995104936</v>
       </c>
       <c r="D3">
-        <v>1.035039979462753</v>
+        <v>1.051459472980917</v>
       </c>
       <c r="E3">
-        <v>1.031411118758118</v>
+        <v>1.04701609066314</v>
       </c>
       <c r="F3">
-        <v>1.043062897874525</v>
+        <v>1.057020143242242</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050409238450264</v>
+        <v>1.065592972979917</v>
       </c>
       <c r="J3">
-        <v>1.037288139228483</v>
+        <v>1.055722897638217</v>
       </c>
       <c r="K3">
-        <v>1.045243319568903</v>
+        <v>1.061473683418196</v>
       </c>
       <c r="L3">
-        <v>1.041657264556785</v>
+        <v>1.057080760324799</v>
       </c>
       <c r="M3">
-        <v>1.053172906391826</v>
+        <v>1.066971942058423</v>
       </c>
       <c r="N3">
-        <v>1.016287396087763</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.021971880520552</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.061575890688255</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.054534644068798</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,81 +539,105 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.019458524816884</v>
+        <v>1.03861985502179</v>
       </c>
       <c r="D4">
-        <v>1.03664115454233</v>
+        <v>1.053141486043774</v>
       </c>
       <c r="E4">
-        <v>1.033190102955419</v>
+        <v>1.048919818497534</v>
       </c>
       <c r="F4">
-        <v>1.044973622998007</v>
+        <v>1.058784903208993</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050961270056484</v>
+        <v>1.066336909534298</v>
       </c>
       <c r="J4">
-        <v>1.03837724514683</v>
+        <v>1.057084721422912</v>
       </c>
       <c r="K4">
-        <v>1.046316585721903</v>
+        <v>1.062638209207114</v>
       </c>
       <c r="L4">
-        <v>1.04290379866346</v>
+        <v>1.058461608883654</v>
       </c>
       <c r="M4">
-        <v>1.054557943651267</v>
+        <v>1.068222067807385</v>
       </c>
       <c r="N4">
-        <v>1.016652783672338</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.022449934409053</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.06256525291687</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.055358909462602</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.020375484604398</v>
+        <v>1.039643218606101</v>
       </c>
       <c r="D5">
-        <v>1.037308854757036</v>
+        <v>1.053847496730821</v>
       </c>
       <c r="E5">
-        <v>1.033932406171273</v>
+        <v>1.049717718543325</v>
       </c>
       <c r="F5">
-        <v>1.045770783418438</v>
+        <v>1.059524751634956</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051189445014236</v>
+        <v>1.066647489371727</v>
       </c>
       <c r="J5">
-        <v>1.038830434137144</v>
+        <v>1.05765526982819</v>
       </c>
       <c r="K5">
-        <v>1.046763069100004</v>
+        <v>1.063127312029694</v>
       </c>
       <c r="L5">
-        <v>1.04342306586005</v>
+        <v>1.059040453202381</v>
       </c>
       <c r="M5">
-        <v>1.055134924518109</v>
+        <v>1.068746230783864</v>
       </c>
       <c r="N5">
-        <v>1.016804804987929</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.022651100110269</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.062980080452496</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.055711754764736</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.020528953690828</v>
+        <v>1.039819583153764</v>
       </c>
       <c r="D6">
-        <v>1.037420649500178</v>
+        <v>1.053971553996009</v>
       </c>
       <c r="E6">
-        <v>1.034056718892209</v>
+        <v>1.049856163214956</v>
       </c>
       <c r="F6">
-        <v>1.045904276382919</v>
+        <v>1.059653045770268</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05122752956362</v>
+        <v>1.066702876384826</v>
       </c>
       <c r="J6">
-        <v>1.038906255497731</v>
+        <v>1.057755712698015</v>
       </c>
       <c r="K6">
-        <v>1.046837761672612</v>
+        <v>1.063214929217955</v>
       </c>
       <c r="L6">
-        <v>1.043509976104685</v>
+        <v>1.059142113392499</v>
       </c>
       <c r="M6">
-        <v>1.05523149534636</v>
+        <v>1.068838306216348</v>
       </c>
       <c r="N6">
-        <v>1.016830237859416</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.022687613761141</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.063052949797603</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.055782268173133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.019470810420736</v>
+        <v>1.03864734978589</v>
       </c>
       <c r="D7">
-        <v>1.036650097571833</v>
+        <v>1.053166695537576</v>
       </c>
       <c r="E7">
-        <v>1.033200043393237</v>
+        <v>1.04894358003521</v>
       </c>
       <c r="F7">
-        <v>1.044984298493345</v>
+        <v>1.058806657511538</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050964334187815</v>
+        <v>1.066350587865576</v>
       </c>
       <c r="J7">
-        <v>1.038383318903564</v>
+        <v>1.05710583242759</v>
       </c>
       <c r="K7">
-        <v>1.046322570067965</v>
+        <v>1.062660350390283</v>
       </c>
       <c r="L7">
-        <v>1.042910755762418</v>
+        <v>1.058482300047948</v>
       </c>
       <c r="M7">
-        <v>1.054565673925711</v>
+        <v>1.068240813213067</v>
       </c>
       <c r="N7">
-        <v>1.016654821184441</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.022460378711559</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.062580088211968</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.055394262524149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.014975069285826</v>
+        <v>1.033650225125564</v>
       </c>
       <c r="D8">
-        <v>1.033382865124404</v>
+        <v>1.049737587878457</v>
       </c>
       <c r="E8">
-        <v>1.029571527750588</v>
+        <v>1.045062498467398</v>
       </c>
       <c r="F8">
-        <v>1.041086685403993</v>
+        <v>1.055209646154359</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049830977348764</v>
+        <v>1.064826157010146</v>
       </c>
       <c r="J8">
-        <v>1.036157618364687</v>
+        <v>1.054325383066551</v>
       </c>
       <c r="K8">
-        <v>1.04412886166334</v>
+        <v>1.060283482323171</v>
       </c>
       <c r="L8">
-        <v>1.040365295580562</v>
+        <v>1.055664799026095</v>
       </c>
       <c r="M8">
-        <v>1.051737450742472</v>
+        <v>1.065690305552049</v>
       </c>
       <c r="N8">
-        <v>1.015908047566314</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.021485172027566</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.060561589219008</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.053718166217741</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.006762092412286</v>
+        <v>1.024481384868194</v>
       </c>
       <c r="D9">
-        <v>1.027441856719911</v>
+        <v>1.043468136817546</v>
       </c>
       <c r="E9">
-        <v>1.022987835220255</v>
+        <v>1.037983289019675</v>
       </c>
       <c r="F9">
-        <v>1.03401096065282</v>
+        <v>1.048658513724519</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047704622535407</v>
+        <v>1.061955092596065</v>
       </c>
       <c r="J9">
-        <v>1.032078302897634</v>
+        <v>1.049198304863218</v>
       </c>
       <c r="K9">
-        <v>1.040104863308641</v>
+        <v>1.055893253397667</v>
       </c>
       <c r="L9">
-        <v>1.035718644380368</v>
+        <v>1.050488770972624</v>
       </c>
       <c r="M9">
-        <v>1.046575323050387</v>
+        <v>1.061008560186033</v>
       </c>
       <c r="N9">
-        <v>1.014538785401193</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.019681269059861</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.056856392239321</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.050610979595408</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.001075087877867</v>
+        <v>1.018191957612309</v>
       </c>
       <c r="D10">
-        <v>1.023349123346088</v>
+        <v>1.039212728008796</v>
       </c>
       <c r="E10">
-        <v>1.018461439792809</v>
+        <v>1.033189040558558</v>
       </c>
       <c r="F10">
-        <v>1.029143685377772</v>
+        <v>1.044260581616141</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046196252143254</v>
+        <v>1.059968260530574</v>
       </c>
       <c r="J10">
-        <v>1.029246115958503</v>
+        <v>1.045701938738494</v>
       </c>
       <c r="K10">
-        <v>1.037309222329847</v>
+        <v>1.052908326648742</v>
       </c>
       <c r="L10">
-        <v>1.032505180014849</v>
+        <v>1.046983843027421</v>
       </c>
       <c r="M10">
-        <v>1.043005950805773</v>
+        <v>1.057874178704115</v>
       </c>
       <c r="N10">
-        <v>1.013587851810418</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.01846587794808</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.054426251965565</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.048517031489226</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9985585486914571</v>
+        <v>1.015972603868516</v>
       </c>
       <c r="D11">
-        <v>1.021543600427686</v>
+        <v>1.037876705864403</v>
       </c>
       <c r="E11">
-        <v>1.016466637310271</v>
+        <v>1.031732581161439</v>
       </c>
       <c r="F11">
-        <v>1.026998027815432</v>
+        <v>1.043183802231359</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045520650996148</v>
+        <v>1.059445612614405</v>
       </c>
       <c r="J11">
-        <v>1.027991416916659</v>
+        <v>1.044695676167765</v>
       </c>
       <c r="K11">
-        <v>1.036070359466104</v>
+        <v>1.052118007579516</v>
       </c>
       <c r="L11">
-        <v>1.03108455763063</v>
+        <v>1.046079892383342</v>
       </c>
       <c r="M11">
-        <v>1.041428149704871</v>
+        <v>1.057334833271051</v>
       </c>
       <c r="N11">
-        <v>1.013166528476713</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.018235125878229</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.054427753204112</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.047990536671027</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9976153353216681</v>
+        <v>1.015336526844114</v>
       </c>
       <c r="D12">
-        <v>1.020867760127564</v>
+        <v>1.037560652853521</v>
       </c>
       <c r="E12">
-        <v>1.015720241067298</v>
+        <v>1.031417763523834</v>
       </c>
       <c r="F12">
-        <v>1.026195090807903</v>
+        <v>1.043085922976552</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04526624397334</v>
+        <v>1.059373749142759</v>
       </c>
       <c r="J12">
-        <v>1.027520962453836</v>
+        <v>1.044505706885715</v>
       </c>
       <c r="K12">
-        <v>1.03560579716675</v>
+        <v>1.052001973575359</v>
       </c>
       <c r="L12">
-        <v>1.03055233858639</v>
+        <v>1.045966825696634</v>
       </c>
       <c r="M12">
-        <v>1.040837072287697</v>
+        <v>1.057431736029399</v>
       </c>
       <c r="N12">
-        <v>1.013008546389432</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.018260492036884</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.054825447724184</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.04790849949528</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.997818046238642</v>
+        <v>1.015897083177847</v>
       </c>
       <c r="D13">
-        <v>1.021012967938924</v>
+        <v>1.038030829502479</v>
       </c>
       <c r="E13">
-        <v>1.015880595029961</v>
+        <v>1.031980319532719</v>
       </c>
       <c r="F13">
-        <v>1.026367596171907</v>
+        <v>1.043760332318491</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045320973039174</v>
+        <v>1.059662497283581</v>
       </c>
       <c r="J13">
-        <v>1.02762207820394</v>
+        <v>1.044953342507618</v>
       </c>
       <c r="K13">
-        <v>1.035705648443125</v>
+        <v>1.052422257861789</v>
       </c>
       <c r="L13">
-        <v>1.030666709225394</v>
+        <v>1.04647737928938</v>
       </c>
       <c r="M13">
-        <v>1.04096408998638</v>
+        <v>1.058053191911734</v>
       </c>
       <c r="N13">
-        <v>1.013042502013225</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.018496350258939</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.055589473297963</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.048203195199854</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9984807569694769</v>
+        <v>1.01683180551142</v>
       </c>
       <c r="D14">
-        <v>1.021487842171956</v>
+        <v>1.038717012424949</v>
       </c>
       <c r="E14">
-        <v>1.016405052099617</v>
+        <v>1.032771175484111</v>
       </c>
       <c r="F14">
-        <v>1.026931779365772</v>
+        <v>1.044582418456409</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045499692684339</v>
+        <v>1.060027996912843</v>
       </c>
       <c r="J14">
-        <v>1.027952619695412</v>
+        <v>1.045555425995125</v>
       </c>
       <c r="K14">
-        <v>1.036032049041962</v>
+        <v>1.052960003182009</v>
       </c>
       <c r="L14">
-        <v>1.031040657700786</v>
+        <v>1.047116646911951</v>
       </c>
       <c r="M14">
-        <v>1.041379394301827</v>
+        <v>1.05872578934569</v>
       </c>
       <c r="N14">
-        <v>1.013153500178758</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.018756670561482</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.05629227644341</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.048584786286067</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9988879435633413</v>
+        <v>1.017327512184739</v>
       </c>
       <c r="D15">
-        <v>1.02177973480151</v>
+        <v>1.039064957133651</v>
       </c>
       <c r="E15">
-        <v>1.016727460621996</v>
+        <v>1.033164996075843</v>
       </c>
       <c r="F15">
-        <v>1.027278596802875</v>
+        <v>1.044965214881073</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04560934688728</v>
+        <v>1.060201995404542</v>
       </c>
       <c r="J15">
-        <v>1.028155689268437</v>
+        <v>1.045849958983597</v>
       </c>
       <c r="K15">
-        <v>1.036232568839087</v>
+        <v>1.053217892518968</v>
       </c>
       <c r="L15">
-        <v>1.031270453819561</v>
+        <v>1.047418837128432</v>
       </c>
       <c r="M15">
-        <v>1.041634607714532</v>
+        <v>1.059018708153834</v>
       </c>
       <c r="N15">
-        <v>1.013221691739414</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.018870462773806</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.056560903636711</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.048772883921227</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.001240935217132</v>
+        <v>1.019887316728144</v>
       </c>
       <c r="D16">
-        <v>1.023468232347536</v>
+        <v>1.04078483796117</v>
       </c>
       <c r="E16">
-        <v>1.018593077042719</v>
+        <v>1.035093271185151</v>
       </c>
       <c r="F16">
-        <v>1.029285264358271</v>
+        <v>1.046725330748281</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046240609200665</v>
+        <v>1.061008037288537</v>
       </c>
       <c r="J16">
-        <v>1.029328776814457</v>
+        <v>1.047259188106806</v>
       </c>
       <c r="K16">
-        <v>1.037390833120033</v>
+        <v>1.054420154872865</v>
       </c>
       <c r="L16">
-        <v>1.032598834463061</v>
+        <v>1.048821647449366</v>
       </c>
       <c r="M16">
-        <v>1.043109970842104</v>
+        <v>1.060264902292892</v>
       </c>
       <c r="N16">
-        <v>1.013615608204273</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.019345388959416</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.057507651655863</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.049626006658165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.002702203992682</v>
+        <v>1.021363365070627</v>
       </c>
       <c r="D17">
-        <v>1.024518331500752</v>
+        <v>1.041746299914023</v>
       </c>
       <c r="E17">
-        <v>1.019753860008733</v>
+        <v>1.036160017504899</v>
       </c>
       <c r="F17">
-        <v>1.030533641958138</v>
+        <v>1.047642089828694</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046630510853621</v>
+        <v>1.061432577973041</v>
       </c>
       <c r="J17">
-        <v>1.030056935077555</v>
+        <v>1.048024631613975</v>
       </c>
       <c r="K17">
-        <v>1.038109701844024</v>
+        <v>1.055059923863229</v>
       </c>
       <c r="L17">
-        <v>1.033424176173543</v>
+        <v>1.04956240515267</v>
       </c>
       <c r="M17">
-        <v>1.044026679462473</v>
+        <v>1.06086334441768</v>
       </c>
       <c r="N17">
-        <v>1.013860108805464</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.019573402611699</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.057853302002365</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.050080872136721</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.00354934830778</v>
+        <v>1.022025646775025</v>
       </c>
       <c r="D18">
-        <v>1.025127632058711</v>
+        <v>1.042117363707039</v>
       </c>
       <c r="E18">
-        <v>1.02042757738004</v>
+        <v>1.036553986887522</v>
       </c>
       <c r="F18">
-        <v>1.031258139290871</v>
+        <v>1.047874382020484</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046855772009179</v>
+        <v>1.06155154421827</v>
       </c>
       <c r="J18">
-        <v>1.030478932910035</v>
+        <v>1.048281620729226</v>
       </c>
       <c r="K18">
-        <v>1.038526281781879</v>
+        <v>1.055246649916941</v>
       </c>
       <c r="L18">
-        <v>1.033902780220081</v>
+        <v>1.049770233267501</v>
       </c>
       <c r="M18">
-        <v>1.04455828123083</v>
+        <v>1.060914921515338</v>
       </c>
       <c r="N18">
-        <v>1.014001802500306</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.019595880096431</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.057659854394749</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.050201464569595</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.003837332563166</v>
+        <v>1.021964418676753</v>
       </c>
       <c r="D19">
-        <v>1.025334849572841</v>
+        <v>1.041970389360003</v>
       </c>
       <c r="E19">
-        <v>1.020656735775023</v>
+        <v>1.036349625869866</v>
       </c>
       <c r="F19">
-        <v>1.031504559864949</v>
+        <v>1.047495934861711</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046932216010451</v>
+        <v>1.06140537753659</v>
       </c>
       <c r="J19">
-        <v>1.03062236542194</v>
+        <v>1.048092634091668</v>
       </c>
       <c r="K19">
-        <v>1.038667866782565</v>
+        <v>1.055041081816617</v>
       </c>
       <c r="L19">
-        <v>1.034065500812846</v>
+        <v>1.049507746875573</v>
       </c>
       <c r="M19">
-        <v>1.044739023053642</v>
+        <v>1.060481846019548</v>
       </c>
       <c r="N19">
-        <v>1.014049961840736</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.019445438950714</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.056997318555695</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.050062405379064</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.002545962822526</v>
+        <v>1.0198595638586</v>
       </c>
       <c r="D20">
-        <v>1.024405998527833</v>
+        <v>1.040355778877929</v>
       </c>
       <c r="E20">
-        <v>1.019629666687146</v>
+        <v>1.034466038377297</v>
       </c>
       <c r="F20">
-        <v>1.030400083012347</v>
+        <v>1.045432098650611</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046588902298964</v>
+        <v>1.060512096549645</v>
       </c>
       <c r="J20">
-        <v>1.029979093427907</v>
+        <v>1.046645829751977</v>
       </c>
       <c r="K20">
-        <v>1.038032856761076</v>
+        <v>1.053724290712522</v>
       </c>
       <c r="L20">
-        <v>1.033335915920195</v>
+        <v>1.047928758739767</v>
       </c>
       <c r="M20">
-        <v>1.043928647023876</v>
+        <v>1.05872050252138</v>
       </c>
       <c r="N20">
-        <v>1.013833971632953</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.018803639791311</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.055085665343246</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.049135269320246</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9982858415071045</v>
+        <v>1.015028786704329</v>
       </c>
       <c r="D21">
-        <v>1.021348148262521</v>
+        <v>1.037062855016049</v>
       </c>
       <c r="E21">
-        <v>1.01625076435131</v>
+        <v>1.030751230567018</v>
       </c>
       <c r="F21">
-        <v>1.026765807393013</v>
+        <v>1.041976286387851</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045447160369529</v>
+        <v>1.058933727157207</v>
       </c>
       <c r="J21">
-        <v>1.027855406220576</v>
+        <v>1.043911327133513</v>
       </c>
       <c r="K21">
-        <v>1.03593605461538</v>
+        <v>1.051374510565647</v>
       </c>
       <c r="L21">
-        <v>1.030930665702709</v>
+        <v>1.045172527683148</v>
       </c>
       <c r="M21">
-        <v>1.041257237274726</v>
+        <v>1.056203776308966</v>
       </c>
       <c r="N21">
-        <v>1.013120855337209</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.017830308164311</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.053053802237061</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.047477118049202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.995558213066465</v>
+        <v>1.011951482198503</v>
       </c>
       <c r="D22">
-        <v>1.01939544126491</v>
+        <v>1.034974568422175</v>
       </c>
       <c r="E22">
-        <v>1.014094745580339</v>
+        <v>1.028403711170569</v>
       </c>
       <c r="F22">
-        <v>1.02444628556248</v>
+        <v>1.039810906042681</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044709246780309</v>
+        <v>1.057926361200357</v>
       </c>
       <c r="J22">
-        <v>1.026494606134848</v>
+        <v>1.042175930283886</v>
       </c>
       <c r="K22">
-        <v>1.034592219934048</v>
+        <v>1.049883616889304</v>
       </c>
       <c r="L22">
-        <v>1.02939206015002</v>
+        <v>1.043432731418581</v>
       </c>
       <c r="M22">
-        <v>1.039548529822583</v>
+        <v>1.05463290993437</v>
       </c>
       <c r="N22">
-        <v>1.012663880707589</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.017215587661269</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.051810586966138</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.046409745727739</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9970089552085294</v>
+        <v>1.013575085215134</v>
       </c>
       <c r="D23">
-        <v>1.020433524857594</v>
+        <v>1.036070206337614</v>
       </c>
       <c r="E23">
-        <v>1.015240754529242</v>
+        <v>1.02963891558758</v>
       </c>
       <c r="F23">
-        <v>1.025679255421584</v>
+        <v>1.040950687496313</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045102358632802</v>
+        <v>1.0584540758752</v>
       </c>
       <c r="J23">
-        <v>1.02721846452385</v>
+        <v>1.043086307992607</v>
       </c>
       <c r="K23">
-        <v>1.0353070759346</v>
+        <v>1.050662367759437</v>
       </c>
       <c r="L23">
-        <v>1.030210253144859</v>
+        <v>1.0443454670696</v>
       </c>
       <c r="M23">
-        <v>1.040457163276525</v>
+        <v>1.055457263738688</v>
       </c>
       <c r="N23">
-        <v>1.012906964099036</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.017534702790221</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.05246299741746</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.046950861470491</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.002616577493527</v>
+        <v>1.019863844052371</v>
       </c>
       <c r="D24">
-        <v>1.024456766853583</v>
+        <v>1.040334754191437</v>
       </c>
       <c r="E24">
-        <v>1.019685794634761</v>
+        <v>1.034443434402762</v>
       </c>
       <c r="F24">
-        <v>1.030460443846886</v>
+        <v>1.045386319505119</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046607710088794</v>
+        <v>1.060488413338631</v>
       </c>
       <c r="J24">
-        <v>1.030014275128322</v>
+        <v>1.046618125364197</v>
       </c>
       <c r="K24">
-        <v>1.038067588154849</v>
+        <v>1.053688730210101</v>
       </c>
       <c r="L24">
-        <v>1.033375805583508</v>
+        <v>1.047891529087298</v>
       </c>
       <c r="M24">
-        <v>1.043972953227895</v>
+        <v>1.058660673206806</v>
       </c>
       <c r="N24">
-        <v>1.013845784733998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.018778277425545</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.054998235794977</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.04908320110934</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.008921427849518</v>
+        <v>1.026916769681082</v>
       </c>
       <c r="D25">
-        <v>1.02900037777394</v>
+        <v>1.045139090101824</v>
       </c>
       <c r="E25">
-        <v>1.024713337149943</v>
+        <v>1.039862109216111</v>
       </c>
       <c r="F25">
-        <v>1.035865865948999</v>
+        <v>1.050395313042404</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048270042160303</v>
+        <v>1.062733300791443</v>
       </c>
       <c r="J25">
-        <v>1.033152235875039</v>
+        <v>1.050571033698416</v>
       </c>
       <c r="K25">
-        <v>1.041164583059195</v>
+        <v>1.057074880196029</v>
       </c>
       <c r="L25">
-        <v>1.03693975203339</v>
+        <v>1.051871600201257</v>
       </c>
       <c r="M25">
-        <v>1.047931802227773</v>
+        <v>1.062258619522727</v>
       </c>
       <c r="N25">
-        <v>1.014899317166195</v>
+        <v>1.020169582565393</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.057845707953119</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.051474488389621</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_23/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_23/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.032323050455471</v>
+        <v>1.029814843318718</v>
       </c>
       <c r="D2">
-        <v>1.048820813532304</v>
+        <v>1.045584541341953</v>
       </c>
       <c r="E2">
-        <v>1.044031505793654</v>
+        <v>1.041865220468588</v>
       </c>
       <c r="F2">
-        <v>1.054255220242646</v>
+        <v>1.051993063794702</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.06440992249954</v>
+        <v>1.062537699594083</v>
       </c>
       <c r="J2">
-        <v>1.053578168520454</v>
+        <v>1.051138952033903</v>
       </c>
       <c r="K2">
-        <v>1.059639451262763</v>
+        <v>1.056443341940285</v>
       </c>
       <c r="L2">
-        <v>1.054909690112543</v>
+        <v>1.052770562966407</v>
       </c>
       <c r="M2">
-        <v>1.065007105377751</v>
+        <v>1.062772631516159</v>
       </c>
       <c r="N2">
-        <v>1.021218854935029</v>
+        <v>1.020418190563505</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.060020896415609</v>
+        <v>1.058252504386161</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.053240344766123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.050989112160312</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.02682906680495</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.036171995104936</v>
+        <v>1.033468147537988</v>
       </c>
       <c r="D3">
-        <v>1.051459472980917</v>
+        <v>1.047999772832792</v>
       </c>
       <c r="E3">
-        <v>1.04701609066314</v>
+        <v>1.044674258694797</v>
       </c>
       <c r="F3">
-        <v>1.057020143242242</v>
+        <v>1.054593683506789</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.065592972979917</v>
+        <v>1.06358284269252</v>
       </c>
       <c r="J3">
-        <v>1.055722897638217</v>
+        <v>1.053086231181331</v>
       </c>
       <c r="K3">
-        <v>1.061473683418196</v>
+        <v>1.058053226277549</v>
       </c>
       <c r="L3">
-        <v>1.057080760324799</v>
+        <v>1.054765735500157</v>
       </c>
       <c r="M3">
-        <v>1.066971942058423</v>
+        <v>1.064572616662681</v>
       </c>
       <c r="N3">
-        <v>1.021971880520552</v>
+        <v>1.020954601184459</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.061575890688255</v>
+        <v>1.059677036644254</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.054534644068798</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.05212451013323</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.027170310768407</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.03861985502179</v>
+        <v>1.035792840335007</v>
       </c>
       <c r="D4">
-        <v>1.053141486043774</v>
+        <v>1.04954049939232</v>
       </c>
       <c r="E4">
-        <v>1.048919818497534</v>
+        <v>1.046467397509925</v>
       </c>
       <c r="F4">
-        <v>1.058784903208993</v>
+        <v>1.056254759955419</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.066336909534298</v>
+        <v>1.064239461608021</v>
       </c>
       <c r="J4">
-        <v>1.057084721422912</v>
+        <v>1.054323254482055</v>
       </c>
       <c r="K4">
-        <v>1.062638209207114</v>
+        <v>1.059075636027007</v>
       </c>
       <c r="L4">
-        <v>1.058461608883654</v>
+        <v>1.056035572699222</v>
       </c>
       <c r="M4">
-        <v>1.068222067807385</v>
+        <v>1.065718530516213</v>
       </c>
       <c r="N4">
-        <v>1.022449934409053</v>
+        <v>1.021295463999537</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.06256525291687</v>
+        <v>1.060583926785692</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.055358909462602</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.05284837620944</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.027384793217013</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.039643218606101</v>
+        <v>1.036764801062295</v>
       </c>
       <c r="D5">
-        <v>1.053847496730821</v>
+        <v>1.050187549502607</v>
       </c>
       <c r="E5">
-        <v>1.049717718543325</v>
+        <v>1.047219105720572</v>
       </c>
       <c r="F5">
-        <v>1.059524751634956</v>
+        <v>1.056951329457411</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.066647489371727</v>
+        <v>1.064513546777742</v>
       </c>
       <c r="J5">
-        <v>1.05765526982819</v>
+        <v>1.054841622444477</v>
       </c>
       <c r="K5">
-        <v>1.063127312029694</v>
+        <v>1.059505380587553</v>
       </c>
       <c r="L5">
-        <v>1.059040453202381</v>
+        <v>1.056568008473698</v>
       </c>
       <c r="M5">
-        <v>1.068746230783864</v>
+        <v>1.066199156906961</v>
       </c>
       <c r="N5">
-        <v>1.022651100110269</v>
+        <v>1.021438948373228</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.062980080452496</v>
+        <v>1.060964300032651</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.055711754764736</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.053159967501716</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.027475121722216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.039819583153764</v>
+        <v>1.036932082465104</v>
       </c>
       <c r="D6">
-        <v>1.053971553996009</v>
+        <v>1.050301357555941</v>
       </c>
       <c r="E6">
-        <v>1.049856163214956</v>
+        <v>1.047349355509566</v>
       </c>
       <c r="F6">
-        <v>1.059653045770268</v>
+        <v>1.057072029975839</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.066702876384826</v>
+        <v>1.064562552277987</v>
       </c>
       <c r="J6">
-        <v>1.057755712698015</v>
+        <v>1.054932856369944</v>
       </c>
       <c r="K6">
-        <v>1.063214929217955</v>
+        <v>1.059582682417731</v>
       </c>
       <c r="L6">
-        <v>1.059142113392499</v>
+        <v>1.056661439666274</v>
       </c>
       <c r="M6">
-        <v>1.068838306216348</v>
+        <v>1.066283596717472</v>
       </c>
       <c r="N6">
-        <v>1.022687613761141</v>
+        <v>1.021464961078324</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.063052949797603</v>
+        <v>1.061031126649449</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.055782268173133</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.053224060824682</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.02749221087298</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.03864734978589</v>
+        <v>1.035827216213776</v>
       </c>
       <c r="D7">
-        <v>1.053166695537576</v>
+        <v>1.049570366771926</v>
       </c>
       <c r="E7">
-        <v>1.04894358003521</v>
+        <v>1.046496941488751</v>
       </c>
       <c r="F7">
-        <v>1.058806657511538</v>
+        <v>1.056280814742806</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.066350587865576</v>
+        <v>1.064256658426874</v>
       </c>
       <c r="J7">
-        <v>1.05710583242759</v>
+        <v>1.054351058155661</v>
       </c>
       <c r="K7">
-        <v>1.062660350390283</v>
+        <v>1.059102370227713</v>
       </c>
       <c r="L7">
-        <v>1.058482300047948</v>
+        <v>1.05606197371637</v>
       </c>
       <c r="M7">
-        <v>1.068240813213067</v>
+        <v>1.065741520924457</v>
       </c>
       <c r="N7">
-        <v>1.022460378711559</v>
+        <v>1.021331677787248</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.062580088211968</v>
+        <v>1.060602121663134</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.055394262524149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.052888985706874</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.027393868377903</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.033650225125564</v>
+        <v>1.031100812075758</v>
       </c>
       <c r="D8">
-        <v>1.049737587878457</v>
+        <v>1.046443795494538</v>
       </c>
       <c r="E8">
-        <v>1.045062498467398</v>
+        <v>1.042858315065538</v>
       </c>
       <c r="F8">
-        <v>1.055209646154359</v>
+        <v>1.052908201772575</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.064826157010146</v>
+        <v>1.062920567171214</v>
       </c>
       <c r="J8">
-        <v>1.054325383066551</v>
+        <v>1.051843764561109</v>
       </c>
       <c r="K8">
-        <v>1.060283482323171</v>
+        <v>1.057029365223574</v>
       </c>
       <c r="L8">
-        <v>1.055664799026095</v>
+        <v>1.053487427672911</v>
       </c>
       <c r="M8">
-        <v>1.065690305552049</v>
+        <v>1.063416195380046</v>
       </c>
       <c r="N8">
-        <v>1.021485172027566</v>
+        <v>1.020695664870833</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.060561589219008</v>
+        <v>1.058761829716259</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.053718166217741</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.051428197420681</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.026960184112585</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.024481384868194</v>
+        <v>1.022410760056164</v>
       </c>
       <c r="D9">
-        <v>1.043468136817546</v>
+        <v>1.040714983451838</v>
       </c>
       <c r="E9">
-        <v>1.037983289019675</v>
+        <v>1.036208216420099</v>
       </c>
       <c r="F9">
-        <v>1.048658513724519</v>
+        <v>1.046756748714617</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.061955092596065</v>
+        <v>1.060382902001286</v>
       </c>
       <c r="J9">
-        <v>1.049198304863218</v>
+        <v>1.047196221520447</v>
       </c>
       <c r="K9">
-        <v>1.055893253397667</v>
+        <v>1.053180305533088</v>
       </c>
       <c r="L9">
-        <v>1.050488770972624</v>
+        <v>1.0487399387529</v>
       </c>
       <c r="M9">
-        <v>1.061008560186033</v>
+        <v>1.0591341915247</v>
       </c>
       <c r="N9">
-        <v>1.019681269059861</v>
+        <v>1.019423846687227</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.056856392239321</v>
+        <v>1.055372986359457</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.050610979595408</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.048703354068623</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.026129824535994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.018191957612309</v>
+        <v>1.016490262382859</v>
       </c>
       <c r="D10">
-        <v>1.039212728008796</v>
+        <v>1.036858643150667</v>
       </c>
       <c r="E10">
-        <v>1.033189040558558</v>
+        <v>1.031741985702526</v>
       </c>
       <c r="F10">
-        <v>1.044260581616141</v>
+        <v>1.042659051127417</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.059968260530574</v>
+        <v>1.058644210885896</v>
       </c>
       <c r="J10">
-        <v>1.045701938738494</v>
+        <v>1.044064558482001</v>
       </c>
       <c r="K10">
-        <v>1.052908326648742</v>
+        <v>1.050592834627373</v>
       </c>
       <c r="L10">
-        <v>1.046983843027421</v>
+        <v>1.045560841914345</v>
       </c>
       <c r="M10">
-        <v>1.057874178704115</v>
+        <v>1.056298554393988</v>
       </c>
       <c r="N10">
-        <v>1.01846587794808</v>
+        <v>1.018691063382599</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.054426251965565</v>
+        <v>1.053179348359034</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.048517031489226</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.046892105683577</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.02557479620433</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.015972603868516</v>
+        <v>1.014405507478606</v>
       </c>
       <c r="D11">
-        <v>1.037876705864403</v>
+        <v>1.03566043030018</v>
       </c>
       <c r="E11">
-        <v>1.031732581161439</v>
+        <v>1.030395355501511</v>
       </c>
       <c r="F11">
-        <v>1.043183802231359</v>
+        <v>1.041686149578268</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.059445612614405</v>
+        <v>1.058209191129943</v>
       </c>
       <c r="J11">
-        <v>1.044695676167765</v>
+        <v>1.043191041737405</v>
       </c>
       <c r="K11">
-        <v>1.052118007579516</v>
+        <v>1.049939783674761</v>
       </c>
       <c r="L11">
-        <v>1.046079892383342</v>
+        <v>1.044765955878235</v>
       </c>
       <c r="M11">
-        <v>1.057334833271051</v>
+        <v>1.05586253458561</v>
       </c>
       <c r="N11">
-        <v>1.018235125878229</v>
+        <v>1.018760949972844</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.054427753204112</v>
+        <v>1.053263183914296</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.047990536671027</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.046465887601582</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.025511152497901</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.015336526844114</v>
+        <v>1.01379079020862</v>
       </c>
       <c r="D12">
-        <v>1.037560652853521</v>
+        <v>1.035367870059361</v>
       </c>
       <c r="E12">
-        <v>1.031417763523834</v>
+        <v>1.030091595991027</v>
       </c>
       <c r="F12">
-        <v>1.043085922976552</v>
+        <v>1.041603826229887</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.059373749142759</v>
+        <v>1.058152234976079</v>
       </c>
       <c r="J12">
-        <v>1.044505706885715</v>
+        <v>1.043022753336986</v>
       </c>
       <c r="K12">
-        <v>1.052001973575359</v>
+        <v>1.049847460389434</v>
       </c>
       <c r="L12">
-        <v>1.045966825696634</v>
+        <v>1.044664136911795</v>
       </c>
       <c r="M12">
-        <v>1.057431736029399</v>
+        <v>1.055975129636444</v>
       </c>
       <c r="N12">
-        <v>1.018260492036884</v>
+        <v>1.018873991402031</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.054825447724184</v>
+        <v>1.053673668478515</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.04790849949528</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.046400615222138</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.025544247106219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.015897083177847</v>
+        <v>1.0142727787173</v>
       </c>
       <c r="D13">
-        <v>1.038030829502479</v>
+        <v>1.035764806112686</v>
       </c>
       <c r="E13">
-        <v>1.031980319532719</v>
+        <v>1.03057824071418</v>
       </c>
       <c r="F13">
-        <v>1.043760332318491</v>
+        <v>1.042217830054786</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.059662497283581</v>
+        <v>1.058393516556307</v>
       </c>
       <c r="J13">
-        <v>1.044953342507618</v>
+        <v>1.043394676215606</v>
       </c>
       <c r="K13">
-        <v>1.052422257861789</v>
+        <v>1.050195608147157</v>
       </c>
       <c r="L13">
-        <v>1.04647737928938</v>
+        <v>1.045100007864541</v>
       </c>
       <c r="M13">
-        <v>1.058053191911734</v>
+        <v>1.056537088644859</v>
       </c>
       <c r="N13">
-        <v>1.018496350258939</v>
+        <v>1.018999132573424</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.055589473297963</v>
+        <v>1.054390941314594</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.048203195199854</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.046644062288867</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.025660790210278</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.01683180551142</v>
+        <v>1.015108630424092</v>
       </c>
       <c r="D14">
-        <v>1.038717012424949</v>
+        <v>1.036357198758244</v>
       </c>
       <c r="E14">
-        <v>1.032771175484111</v>
+        <v>1.031278321895462</v>
       </c>
       <c r="F14">
-        <v>1.044582418456409</v>
+        <v>1.042964500033074</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.060027996912843</v>
+        <v>1.058698343129375</v>
       </c>
       <c r="J14">
-        <v>1.045555425995125</v>
+        <v>1.043900881968765</v>
       </c>
       <c r="K14">
-        <v>1.052960003182009</v>
+        <v>1.050640680594749</v>
       </c>
       <c r="L14">
-        <v>1.047116646911951</v>
+        <v>1.045649764012702</v>
       </c>
       <c r="M14">
-        <v>1.05872578934569</v>
+        <v>1.057135205729074</v>
       </c>
       <c r="N14">
-        <v>1.018756670561482</v>
+        <v>1.019094323588499</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.05629227644341</v>
+        <v>1.055035031308119</v>
       </c>
       <c r="Q14">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R14">
-        <v>1.048584786286067</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.046960266674418</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.025781102396133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.017327512184739</v>
+        <v>1.015558494535773</v>
       </c>
       <c r="D15">
-        <v>1.039064957133651</v>
+        <v>1.036661129141885</v>
       </c>
       <c r="E15">
-        <v>1.033164996075843</v>
+        <v>1.031631225922746</v>
       </c>
       <c r="F15">
-        <v>1.044965214881073</v>
+        <v>1.043312413348514</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.060201995404542</v>
+        <v>1.058843912444384</v>
       </c>
       <c r="J15">
-        <v>1.045849958983597</v>
+        <v>1.04415078205086</v>
       </c>
       <c r="K15">
-        <v>1.053217892518968</v>
+        <v>1.050854997530646</v>
       </c>
       <c r="L15">
-        <v>1.047418837128432</v>
+        <v>1.045911543219472</v>
       </c>
       <c r="M15">
-        <v>1.059018708153834</v>
+        <v>1.057393616483858</v>
       </c>
       <c r="N15">
-        <v>1.018870462773806</v>
+        <v>1.019126666906325</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.056560903636711</v>
+        <v>1.055276415528257</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.048772883921227</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.047118129148127</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.025832404293796</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.019887316728144</v>
+        <v>1.017918878509755</v>
       </c>
       <c r="D16">
-        <v>1.04078483796117</v>
+        <v>1.038183905074336</v>
       </c>
       <c r="E16">
-        <v>1.035093271185151</v>
+        <v>1.033386645583875</v>
       </c>
       <c r="F16">
-        <v>1.046725330748281</v>
+        <v>1.044919709231874</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.061008037288537</v>
+        <v>1.059523518416496</v>
       </c>
       <c r="J16">
-        <v>1.047259188106806</v>
+        <v>1.045364589497685</v>
       </c>
       <c r="K16">
-        <v>1.054420154872865</v>
+        <v>1.051861585547552</v>
       </c>
       <c r="L16">
-        <v>1.048821647449366</v>
+        <v>1.047143182947379</v>
       </c>
       <c r="M16">
-        <v>1.060264902292892</v>
+        <v>1.058488234992311</v>
       </c>
       <c r="N16">
-        <v>1.019345388959416</v>
+        <v>1.019238131238492</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.057507651655863</v>
+        <v>1.056103317229179</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.049626006658165</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.047833208015029</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.026039350523057</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.021363365070627</v>
+        <v>1.019303077462678</v>
       </c>
       <c r="D17">
-        <v>1.041746299914023</v>
+        <v>1.039049772518138</v>
       </c>
       <c r="E17">
-        <v>1.036160017504899</v>
+        <v>1.034375644534419</v>
       </c>
       <c r="F17">
-        <v>1.047642089828694</v>
+        <v>1.045764405426878</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.061432577973041</v>
+        <v>1.059887592391825</v>
       </c>
       <c r="J17">
-        <v>1.048024631613975</v>
+        <v>1.046039156569489</v>
       </c>
       <c r="K17">
-        <v>1.055059923863229</v>
+        <v>1.052406090503791</v>
       </c>
       <c r="L17">
-        <v>1.04956240515267</v>
+        <v>1.047806644285336</v>
       </c>
       <c r="M17">
-        <v>1.06086334441768</v>
+        <v>1.059014933173116</v>
       </c>
       <c r="N17">
-        <v>1.019573402611699</v>
+        <v>1.019303093250302</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.057853302002365</v>
+        <v>1.056392116297287</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.050080872136721</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.048220969181107</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.026136082829192</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.022025646775025</v>
+        <v>1.019948462869277</v>
       </c>
       <c r="D18">
-        <v>1.042117363707039</v>
+        <v>1.039397850437493</v>
       </c>
       <c r="E18">
-        <v>1.036553986887522</v>
+        <v>1.034759149134052</v>
       </c>
       <c r="F18">
-        <v>1.047874382020484</v>
+        <v>1.045981903061685</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.06155154421827</v>
+        <v>1.059992884325099</v>
       </c>
       <c r="J18">
-        <v>1.048281620729226</v>
+        <v>1.04627846183309</v>
       </c>
       <c r="K18">
-        <v>1.055246649916941</v>
+        <v>1.05256949616446</v>
       </c>
       <c r="L18">
-        <v>1.049770233267501</v>
+        <v>1.048003705732039</v>
       </c>
       <c r="M18">
-        <v>1.060914921515338</v>
+        <v>1.059051478297822</v>
       </c>
       <c r="N18">
-        <v>1.019595880096431</v>
+        <v>1.019285352006312</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.057659854394749</v>
+        <v>1.05618648683973</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.050201464569595</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.048323933662152</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.026134376198367</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.021964418676753</v>
+        <v>1.019929699888756</v>
       </c>
       <c r="D19">
-        <v>1.041970389360003</v>
+        <v>1.039287670355296</v>
       </c>
       <c r="E19">
-        <v>1.036349625869866</v>
+        <v>1.034597840197414</v>
       </c>
       <c r="F19">
-        <v>1.047495934861711</v>
+        <v>1.045635050703358</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.06140537753659</v>
+        <v>1.059871078751381</v>
       </c>
       <c r="J19">
-        <v>1.048092634091668</v>
+        <v>1.046130013289221</v>
       </c>
       <c r="K19">
-        <v>1.055041081816617</v>
+        <v>1.05239994059289</v>
       </c>
       <c r="L19">
-        <v>1.049507746875573</v>
+        <v>1.047783457933732</v>
       </c>
       <c r="M19">
-        <v>1.060481846019548</v>
+        <v>1.058649386712043</v>
       </c>
       <c r="N19">
-        <v>1.019445438950714</v>
+        <v>1.019180857264746</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.056997318555695</v>
+        <v>1.055547990524493</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.050062405379064</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.048210963452817</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.026049410212674</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.0198595638586</v>
+        <v>1.018031966746816</v>
       </c>
       <c r="D20">
-        <v>1.040355778877929</v>
+        <v>1.037875711722667</v>
       </c>
       <c r="E20">
-        <v>1.034466038377297</v>
+        <v>1.032906978926238</v>
       </c>
       <c r="F20">
-        <v>1.045432098650611</v>
+        <v>1.043732262876852</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.060512096549645</v>
+        <v>1.059107633796937</v>
       </c>
       <c r="J20">
-        <v>1.046645829751977</v>
+        <v>1.044885056369392</v>
       </c>
       <c r="K20">
-        <v>1.053724290712522</v>
+        <v>1.051283726059338</v>
       </c>
       <c r="L20">
-        <v>1.047928758739767</v>
+        <v>1.046394867868341</v>
       </c>
       <c r="M20">
-        <v>1.05872050252138</v>
+        <v>1.05704738031347</v>
       </c>
       <c r="N20">
-        <v>1.018803639791311</v>
+        <v>1.018819346379423</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.055085665343246</v>
+        <v>1.053761589446232</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.049135269320246</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.047426030029151</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.025727145329815</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.015028786704329</v>
+        <v>1.013619731815566</v>
       </c>
       <c r="D21">
-        <v>1.037062855016049</v>
+        <v>1.034990031043094</v>
       </c>
       <c r="E21">
-        <v>1.030751230567018</v>
+        <v>1.029564675242626</v>
       </c>
       <c r="F21">
-        <v>1.041976286387851</v>
+        <v>1.040598220216924</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.058933727157207</v>
+        <v>1.057791419614736</v>
       </c>
       <c r="J21">
-        <v>1.043911327133513</v>
+        <v>1.042558851635636</v>
       </c>
       <c r="K21">
-        <v>1.051374510565647</v>
+        <v>1.049337503570972</v>
       </c>
       <c r="L21">
-        <v>1.045172527683148</v>
+        <v>1.044006778990639</v>
       </c>
       <c r="M21">
-        <v>1.056203776308966</v>
+        <v>1.05484921239893</v>
       </c>
       <c r="N21">
-        <v>1.017830308164311</v>
+        <v>1.018604397862167</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.053053802237061</v>
+        <v>1.051981773212819</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.047477118049202</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.046053529673933</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.025308620066003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.011951482198503</v>
+        <v>1.01080694121926</v>
       </c>
       <c r="D22">
-        <v>1.034974568422175</v>
+        <v>1.033159336771466</v>
       </c>
       <c r="E22">
-        <v>1.028403711170569</v>
+        <v>1.027453092427032</v>
       </c>
       <c r="F22">
-        <v>1.039810906042681</v>
+        <v>1.038636702012026</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.057926361200357</v>
+        <v>1.056949294042338</v>
       </c>
       <c r="J22">
-        <v>1.042175930283886</v>
+        <v>1.041080027552984</v>
       </c>
       <c r="K22">
-        <v>1.049883616889304</v>
+        <v>1.048101329530231</v>
       </c>
       <c r="L22">
-        <v>1.043432731418581</v>
+        <v>1.042499634829193</v>
       </c>
       <c r="M22">
-        <v>1.05463290993437</v>
+        <v>1.053479742465347</v>
       </c>
       <c r="N22">
-        <v>1.017215587661269</v>
+        <v>1.018463823755674</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.051810586966138</v>
+        <v>1.05089794570796</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.046409745727739</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.045164946218086</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.025043190763922</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.013575085215134</v>
+        <v>1.012277151035572</v>
       </c>
       <c r="D23">
-        <v>1.036070206337614</v>
+        <v>1.034108574117102</v>
       </c>
       <c r="E23">
-        <v>1.02963891558758</v>
+        <v>1.028551626189407</v>
       </c>
       <c r="F23">
-        <v>1.040950687496313</v>
+        <v>1.03965957321044</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.0584540758752</v>
+        <v>1.057382419281851</v>
       </c>
       <c r="J23">
-        <v>1.043086307992607</v>
+        <v>1.041841911461296</v>
       </c>
       <c r="K23">
-        <v>1.050662367759437</v>
+        <v>1.048735430432346</v>
       </c>
       <c r="L23">
-        <v>1.0443454670696</v>
+        <v>1.043277700427541</v>
       </c>
       <c r="M23">
-        <v>1.055457263738688</v>
+        <v>1.054188689462813</v>
       </c>
       <c r="N23">
-        <v>1.017534702790221</v>
+        <v>1.018488739175459</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.05246299741746</v>
+        <v>1.051459021569721</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.046950861470491</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.045602845937876</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.025175001309084</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.019863844052371</v>
+        <v>1.018042071634763</v>
       </c>
       <c r="D24">
-        <v>1.040334754191437</v>
+        <v>1.037859194373275</v>
       </c>
       <c r="E24">
-        <v>1.034443434402762</v>
+        <v>1.032890507882677</v>
       </c>
       <c r="F24">
-        <v>1.045386319505119</v>
+        <v>1.043690735907582</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.060488413338631</v>
+        <v>1.059087091188429</v>
       </c>
       <c r="J24">
-        <v>1.046618125364197</v>
+        <v>1.044862869319367</v>
       </c>
       <c r="K24">
-        <v>1.053688730210101</v>
+        <v>1.05125255265325</v>
       </c>
       <c r="L24">
-        <v>1.047891529087298</v>
+        <v>1.046363641343864</v>
       </c>
       <c r="M24">
-        <v>1.058660673206806</v>
+        <v>1.056991705276409</v>
       </c>
       <c r="N24">
-        <v>1.018778277425545</v>
+        <v>1.018799328153563</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.054998235794977</v>
+        <v>1.05367738431094</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.04908320110934</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.047374381083727</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.025710254217988</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.026916769681082</v>
+        <v>1.024705311638467</v>
       </c>
       <c r="D25">
-        <v>1.045139090101824</v>
+        <v>1.042232765258254</v>
       </c>
       <c r="E25">
-        <v>1.039862109216111</v>
+        <v>1.03796100450175</v>
       </c>
       <c r="F25">
-        <v>1.050395313042404</v>
+        <v>1.048378395294031</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.062733300791443</v>
+        <v>1.061065709189317</v>
       </c>
       <c r="J25">
-        <v>1.050571033698416</v>
+        <v>1.048428919015135</v>
       </c>
       <c r="K25">
-        <v>1.057074880196029</v>
+        <v>1.05420902994903</v>
       </c>
       <c r="L25">
-        <v>1.051871600201257</v>
+        <v>1.049997279303789</v>
       </c>
       <c r="M25">
-        <v>1.062258619522727</v>
+        <v>1.060269406878899</v>
       </c>
       <c r="N25">
-        <v>1.020169582565393</v>
+        <v>1.019733322413371</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.057845707953119</v>
+        <v>1.056271414620568</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.051474488389621</v>
+        <v>1.049461571344183</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.02635618277649</v>
       </c>
     </row>
   </sheetData>
